--- a/inputs/fr/legacy_default_params.xlsx
+++ b/inputs/fr/legacy_default_params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF0F5BCE-5085-4F61-8710-D28E7F1462DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86C59A58-786C-47EF-9E19-2D0E335D3950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="2085" windowWidth="27480" windowHeight="16170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7965" yWindow="2430" windowWidth="27480" windowHeight="16170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Programs impacted population" sheetId="14" r:id="rId1"/>
@@ -3017,7 +3017,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LtYRs9jmeRWsn7B7ErgcWfM/0QFoAjRwpFcqCLMPLwLDSORItmQ59eH+xlGuU9nEKg9ri9CwQHEKF3YI2Ux3RA==" saltValue="CZQEpxWtJBAtXjpFnhEc/A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="d8Qp3RGmxUH3cSjCLan7dui1ChfQawn2k23cU0FgLIHdxCgTXfy1VbC8ztC8oZjByqXU9SkZ2ErKvWAcLAMyUQ==" saltValue="xAtQgDmS8BG9YA7O9SRnbw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B17:O24">
     <sortCondition ref="B17:B24"/>
   </sortState>
@@ -3120,7 +3120,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hjpjcK1bUzTolK6NERAW0C1yKH3K/ylFu+Sohs0gwIDncDQ3vHK+Sec69YK7nWxh0IwCOyWXRy0urVZA48K1lg==" saltValue="alAVyzM3R4jssPqfNfFPbQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9sKXS+z6o7uukmjVHOm2GzitxCaXLqzMkloFwFHivNkg4IthKBD9vgyR6VUTf8Bkvk0KReET21fuX0M3bXQCFA==" saltValue="ZiXZKUJuXOnsy98byXQDMw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -4250,7 +4250,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ep2s+3TSW1XlCnd2Z5yn33qKUCmbYnNnJs0dO3XG+WVpmH6HrLjsA10x8Nd6yxZnSdKhWzpeECuhCegkHLMXTw==" saltValue="Ztdbcso/PR9AoVSs7GPFSQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="H3N8qGYpeF7S8PBgR8gMKncfzBB05+o61QFbxOk0Yn2LgE+H8OB7DS+RVVqufszQWIKLUWhCRuLEKPVE3gH9ng==" saltValue="sjUxBnOMN+l8nzXdEGGPXQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -4427,7 +4427,7 @@
       <c r="H7" s="37"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8WCAUgdNIbQy6SVU1p2Z6n0ZeiyqmTNVuGfP2A6lGZE08CcsyiO3UcUlLws1If95XwJvDV0o49tT4ixIbZXnMQ==" saltValue="ZoKCxAZrX13smopyC0Y/9g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PDzgYeoXoDX+oWLJpy5dCqENUck9PIG2K965Tw0blxKrVYQR+jSbV+vAZPTupyqbotyCZI4I4dScqRXRaB86Ig==" saltValue="EQem3QG57H2wW/5VLilPbA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5173,7 +5173,7 @@
       <c r="K38" s="50"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RfvbQSBomMxUwTnxcg0djjaZOmMbL5JV9+hMgoACBx0k6nkZ/brAIkk4qyyEI05VDRNaggO5+1caP1tb+RdtTQ==" saltValue="BfLmgPtlgWR7kDkoNgAtfQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5eLU+z/yEMgaRNTxijJd8FrpQzk5lzsUtSpejGQ1gTUWrMPNaF/8LM7CWU2sNPWGwyrx2PXeB/DOOg0JFO8hIw==" saltValue="URG40Ua/x0aVMYeBoUjAzA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J38">
     <sortCondition ref="A2:A38"/>
   </sortState>
@@ -5550,7 +5550,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kCFpnVkbPv70Q53wqy+n+wxcvnrRYWA4JSOVcyBM9qonAHv60ejJboOPZkdI+NARLrsoq2oaz/2UFFIwYQvqMQ==" saltValue="7PPUr3NnQNwa/wcVrKYkfA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JVnYGOePcEiydv7EfG2wmlJ3BdmJKwp2TKY0ofHPFKwsQayhwLWndxpp9WXXN7HmQI+CXH/8fduLLm9vDpp+AQ==" saltValue="1Gdr1cTPw+2d6mg7XkyWPg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6657,7 +6657,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ZcaLB4O6UKQK/75xTjv2KNuuQQbMihF++O5vZ3m97qiS/h/D/U/SU8bJ8r4MDJH0UOUaqyKVEmbDOlJLXJwdsQ==" saltValue="fAusCxki2erOfr/aaaHYYg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6cv0VyDvz7/b+69HEUUpj57UejPkwruGhrMGi3nBTE2RdkjFgTD6JYTOLE8FH1lng0G+aa4sc5QA8yL6/K7fmg==" saltValue="Xlzt6prImdqpDHLr0IRtnA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="15">
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
@@ -7071,7 +7071,7 @@
       <c r="B28" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vGHum2S3UjMhJvq/4CpL60dmp/j92fr1ItmQNp0PFw6s2AtFPkyyw6i/N1LIHeVRDsS/BYVlKjo3WnPb/c2lRw==" saltValue="j6Hx15HfqsbwjwU+o/51xA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rygPLw6ktj36D7KYpUihv38sachbTLkJpzoWiiehFvToklw+H6Kg77YFWVikYZ43GqPdR3aq3mvhPvBa8W9J2g==" saltValue="eeZJ1wET6NTtbMaHSFrkhg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -9974,7 +9974,7 @@
       <c r="A111" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0qC/FZU5u6HuJLsxkXS2ho6kTw9uy8Qv7rruE9LV3gRrtlelbYNEjHM2GWmDCg/v0siDoxOSq+5jxj/5VqpfBg==" saltValue="fLyI4brmLb1xRzbpOt9V6A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TmeU89cIEiOVKWxn37wAEo3DitZA59V04XGpdYELIfLSv9FgqyUgybNf7kSMQIcd7d8h3O03kxgNsqSZ+ahr2g==" saltValue="+JT6n8mFImOkjrNFsXytuw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -10283,7 +10283,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JIishVizVRrtYNMmn0srghrGR8l8kz8844rmIDYOymqGmUYv0nod2kHrrzdN6iuRjPQFGlCmRgPd7cb6lXAsbA==" saltValue="VlsxE8aeBC78DbOCGtT94g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TdVScMPDlZlkiQmEgiEQESJsChJ92zA+RL4wDNqDgPHUhjQ6L2cU6YEMSvoONll3cGt07uQz0ffKOMOLD9Z2LA==" saltValue="r2nU9nP9D2YNGh6kk80peQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -10563,7 +10563,7 @@
       <c r="A20" s="34"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OEYys5kfPoezXkTbCFHYmpjAe6ExggPRl+wzruY8d3dEzM9TeFFPoQ0LpXr1m4lo45ovDMHEVdK3JH1fbNoDfQ==" saltValue="QlhII/qX+aG2lAcxeTQKIw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="IGJiVfjoxfgmuJwyJ8APF1qd8Y3OK39XRNHpOLF/YSB0j8tTdue8ozRoAyrlDNuyIAjEUppCT0MLwmIM4YP+vA==" saltValue="DZU3gpp8N/7pHWr6shnCrw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -11359,7 +11359,7 @@
       <c r="B28" s="26"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pad9Ho2nrBK7tQq6cutV0XBTqD+Xj1VF4CEohpcR+v0cYVIcsKmgW6/STJHrNhuc4eJOlQxEEdgXlwRDlDnQ9w==" saltValue="3eZvn62MuSu/VRkWKGPvLw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+AhsLdOOgNWoC7OzlPgKUV798G5hV2PXOl4cpUe17rSEbDGbIoOlw/eeFH5k2pqleUMgBH12ILiwI/vnWH+fzg==" saltValue="Xe09QKlx7C9518Q+GXfIbw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:O14">
     <sortCondition ref="B3:B14"/>
   </sortState>

--- a/inputs/fr/legacy_default_params.xlsx
+++ b/inputs/fr/legacy_default_params.xlsx
@@ -1,36 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee.altermatt\Documents\GitHub\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86C59A58-786C-47EF-9E19-2D0E335D3950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AD29FB5-F49A-48E7-8143-D2997391487A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7965" yWindow="2430" windowWidth="27480" windowHeight="16170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Programs impacted population" sheetId="14" r:id="rId1"/>
-    <sheet name="Program risk areas" sheetId="15" r:id="rId2"/>
-    <sheet name="Population risk areas" sheetId="16" r:id="rId3"/>
-    <sheet name="IYCF odds ratios" sheetId="12" r:id="rId4"/>
-    <sheet name="Birth outcome risks" sheetId="2" r:id="rId5"/>
-    <sheet name="Relative risks" sheetId="3" r:id="rId6"/>
-    <sheet name="Odds ratios" sheetId="4" r:id="rId7"/>
-    <sheet name="Programs birth outcomes" sheetId="5" r:id="rId8"/>
+    <sheet name="Programmes population touchée" sheetId="14" r:id="rId1"/>
+    <sheet name="Programme régions à risque" sheetId="15" r:id="rId2"/>
+    <sheet name="Population des régions à risque" sheetId="16" r:id="rId3"/>
+    <sheet name="Rapport des cotes IYCF" sheetId="12" r:id="rId4"/>
+    <sheet name="Risques des rés. des naissances" sheetId="2" r:id="rId5"/>
+    <sheet name="Risques relatifs" sheetId="3" r:id="rId6"/>
+    <sheet name="Rapports des cotes" sheetId="4" r:id="rId7"/>
+    <sheet name="Programmes-rés. des naissances" sheetId="5" r:id="rId8"/>
     <sheet name="Programs anemia" sheetId="6" r:id="rId9"/>
-    <sheet name="Programs wasting" sheetId="7" r:id="rId10"/>
-    <sheet name="Programs for children" sheetId="8" r:id="rId11"/>
-    <sheet name="Programs for PW" sheetId="10" r:id="rId12"/>
+    <sheet name="Programmes-amaigrissement" sheetId="7" r:id="rId10"/>
+    <sheet name="Programmes pour les enfants" sheetId="8" r:id="rId11"/>
+    <sheet name="Programmes pour les FE" sheetId="10" r:id="rId12"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId13"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Birth outcome risks'!$A$1:$F$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Risques des rés. des naissances'!$A$1:$F$7</definedName>
     <definedName name="abortion">'[1]Baseline year population inputs'!$C$26</definedName>
     <definedName name="food_insecure">'[1]Baseline year population inputs'!$C$3</definedName>
     <definedName name="frac_maize">'[1]Baseline year population inputs'!$C$14</definedName>
@@ -182,209 +182,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="160">
-  <si>
-    <t>Relative risks of neonatal causes of death</t>
-  </si>
-  <si>
-    <t>SAM (WHZ-score &lt; -3)</t>
-  </si>
-  <si>
-    <t>MAM (WHZ-score between -3 and -2)</t>
-  </si>
-  <si>
-    <t>Stunting (HAZ-score &lt; -2)</t>
-  </si>
-  <si>
-    <t>Odds ratios for conditions</t>
-  </si>
-  <si>
-    <t>Risks for children who experience birth outcomes</t>
-  </si>
-  <si>
-    <t>Odds ratios for women with maternal anaemia</t>
-  </si>
-  <si>
-    <t>Maternal risk factors leading to birth outcomes</t>
-  </si>
-  <si>
-    <t>Breastfeeding status</t>
-  </si>
-  <si>
-    <t>Relative risks of experiencing diarrhoea by breastfeeding status</t>
-  </si>
-  <si>
-    <t>Cause of death</t>
-  </si>
-  <si>
-    <t>Relative risk of causes of death by breastfeeding status</t>
-  </si>
-  <si>
-    <t>Anaemia status</t>
-  </si>
-  <si>
-    <t>Relative risk of causes of death by anaemia status</t>
-  </si>
-  <si>
-    <t>SAM</t>
-  </si>
-  <si>
-    <t>MAM</t>
-  </si>
-  <si>
-    <t>WHZ status</t>
-  </si>
-  <si>
-    <t>Relative risk of causes of death by weight-for-height (wasting) distribution</t>
-  </si>
-  <si>
-    <t>HAZ status</t>
-  </si>
-  <si>
-    <t>Relative risk of causes of death by height-for-age (stunting) distribution</t>
-  </si>
-  <si>
-    <t>For MAM per additional episode of diarrhoea</t>
-  </si>
-  <si>
-    <t>For SAM per additional episode of diarrhoea</t>
-  </si>
-  <si>
-    <t>Other odds ratios</t>
-  </si>
-  <si>
-    <t>By program</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="158">
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Given previous stunting (HAZ &lt; -2 in previous age band)</t>
-  </si>
-  <si>
-    <t>Odds ratios for stunting</t>
-  </si>
-  <si>
-    <t>affected fraction</t>
-  </si>
-  <si>
-    <t>effectiveness</t>
-  </si>
-  <si>
     <t>IPTp</t>
   </si>
   <si>
-    <t>Odds ratios of being anaemic when covered by intervention</t>
-  </si>
-  <si>
-    <t>Relative risks of anaemia when receiving intervention</t>
-  </si>
-  <si>
-    <t>Odds ratio of MAM when covered by program</t>
-  </si>
-  <si>
-    <t>Odds ratio of SAM when covered by program</t>
-  </si>
-  <si>
-    <t>Effectiveness mortality</t>
-  </si>
-  <si>
-    <t>Affected fraction</t>
-  </si>
-  <si>
-    <t>Effectiveness incidence</t>
-  </si>
-  <si>
-    <t>Targetted condition</t>
-  </si>
-  <si>
-    <t>Behaviour</t>
-  </si>
-  <si>
-    <t>General population</t>
-  </si>
-  <si>
     <t>IYCF 3</t>
   </si>
   <si>
-    <t>Broad population group</t>
+    <t>IYCF 2</t>
+  </si>
+  <si>
+    <t>IYCF 1</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>Birth outcomes</t>
-  </si>
-  <si>
-    <t>Wasting treatment</t>
-  </si>
-  <si>
-    <t>Wasting prevention</t>
-  </si>
-  <si>
-    <t>Stunting</t>
-  </si>
-  <si>
-    <t>Age group</t>
-  </si>
-  <si>
-    <t>Diarrhoea (per additional episode)</t>
-  </si>
-  <si>
     <t>Wasting</t>
   </si>
   <si>
     <t>Condition</t>
   </si>
   <si>
-    <t>Odds ratio for correct breastfeeding</t>
-  </si>
-  <si>
-    <t>Odds ratio for correct complementary feeding</t>
-  </si>
-  <si>
-    <t>Odds ratio for stunting</t>
-  </si>
-  <si>
     <t>Normal</t>
   </si>
   <si>
-    <t>Mild</t>
-  </si>
-  <si>
-    <t>Moderate</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Not anaemic</t>
-  </si>
-  <si>
-    <t>Anaemic</t>
-  </si>
-  <si>
-    <t>For anaemia per additional episode of severe diarrhoea</t>
-  </si>
-  <si>
     <t>Outcome</t>
   </si>
   <si>
-    <t>Management of MAM</t>
-  </si>
-  <si>
-    <t>Odds ratios for correct breastfeeding by program</t>
-  </si>
-  <si>
-    <t>Relative risk by birth spacing</t>
-  </si>
-  <si>
-    <t>Birth number</t>
-  </si>
-  <si>
-    <t>Odds ratios for optimal birth spacing by program</t>
-  </si>
-  <si>
     <t>FAP : 15-19 ans</t>
   </si>
   <si>
@@ -421,16 +250,16 @@
     <t>&lt;1 mois</t>
   </si>
   <si>
-    <t>PW : 15-19 ans</t>
-  </si>
-  <si>
-    <t>PW : 20-29 ans</t>
-  </si>
-  <si>
-    <t>PW : 30-39 ans</t>
-  </si>
-  <si>
-    <t>PW : 40-49 ans</t>
+    <t>FE : 15-19 ans</t>
+  </si>
+  <si>
+    <t>FE : 20-29 ans</t>
+  </si>
+  <si>
+    <t>FE : 30-39 ans</t>
+  </si>
+  <si>
+    <t>FE : 40-49 ans</t>
   </si>
   <si>
     <t>Programme</t>
@@ -442,58 +271,52 @@
     <t>Supplémentation en calcium</t>
   </si>
   <si>
-    <t>Transferts en espèces</t>
-  </si>
-  <si>
-    <t>Retardement du clampage du cordon</t>
+    <t>Transferts monétaires</t>
+  </si>
+  <si>
+    <t>Clampage tardif du cordon</t>
   </si>
   <si>
     <t>Planification familiale</t>
   </si>
   <si>
-    <t>Enrichissement du maïs en AGI</t>
-  </si>
-  <si>
-    <t>Enrichissement du riz en AGI</t>
-  </si>
-  <si>
-    <t>Enrichissement en ACI de la farine de blé</t>
-  </si>
-  <si>
-    <t>IFAS (communauté)</t>
-  </si>
-  <si>
-    <t>IFAS (établissement de santé)</t>
-  </si>
-  <si>
-    <t>IFAS (détaillant)</t>
-  </si>
-  <si>
-    <t>IFAS (école)</t>
-  </si>
-  <si>
-    <t>IFAS pour les femmes enceintes (communauté)</t>
-  </si>
-  <si>
-    <t>IFAS pour les femmes enceintes (établissement de santé)</t>
+    <t>Enrichissement du maïs en FAF</t>
+  </si>
+  <si>
+    <t>Enrichissement du riz en FAF</t>
+  </si>
+  <si>
+    <t>Enrichissement en FAF de la farine de blé</t>
+  </si>
+  <si>
+    <t>SFAF (communautaire)</t>
+  </si>
+  <si>
+    <t>SFAF (établissement de santé)</t>
+  </si>
+  <si>
+    <t>SFAF (détaillant)</t>
+  </si>
+  <si>
+    <t>SFAF (école)</t>
+  </si>
+  <si>
+    <t>SFAF pour les femmes enceintes (communautaire)</t>
+  </si>
+  <si>
+    <t>SFAF pour les femmes enceintes (établissement de santé)</t>
   </si>
   <si>
     <t>Enrichissement du sel en fer et en iode</t>
   </si>
   <si>
-    <t>AIFC 1</t>
-  </si>
-  <si>
-    <t>AIFC 2</t>
-  </si>
-  <si>
-    <t>Soins maternels kangourou</t>
-  </si>
-  <si>
-    <t>Suppléments nutritionnels à base de lipides</t>
-  </si>
-  <si>
-    <t>Moustiquaires imprégnées d'insecticide longue durée</t>
+    <t>Méthode mère kangourou</t>
+  </si>
+  <si>
+    <t>Supplémentation en nutriments à base de lipides</t>
+  </si>
+  <si>
+    <t>Moustiquaires imprégnées d'insecticide de longue durée</t>
   </si>
   <si>
     <t>Mg pour l'éclampsie</t>
@@ -541,6 +364,12 @@
     <t>Supplémentation en zinc</t>
   </si>
   <si>
+    <t>Population générale</t>
+  </si>
+  <si>
+    <t>Groupe général de la population</t>
+  </si>
+  <si>
     <t>Espacement des naissances</t>
   </si>
   <si>
@@ -556,13 +385,31 @@
     <t>Allaitement maternel</t>
   </si>
   <si>
+    <t>Retard de croissance</t>
+  </si>
+  <si>
+    <t>Prévention de l'amaigrissement</t>
+  </si>
+  <si>
+    <t>Traitement de l'amaigrissement</t>
+  </si>
+  <si>
+    <t>Résultats des naissances</t>
+  </si>
+  <si>
+    <t>Nombre de naissances</t>
+  </si>
+  <si>
+    <t>Tranche d'âge</t>
+  </si>
+  <si>
     <t>Population cible</t>
   </si>
   <si>
     <t>Établissement de santé</t>
   </si>
   <si>
-    <t>Communauté</t>
+    <t>Communautaire</t>
   </si>
   <si>
     <t>Médias de masse</t>
@@ -574,6 +421,18 @@
     <t>Mode de livraison</t>
   </si>
   <si>
+    <t>Comportement</t>
+  </si>
+  <si>
+    <t>Rapport des cotes pour l'allaitement maternelle correct</t>
+  </si>
+  <si>
+    <t>Rapport des cotes pour le retard de croissance</t>
+  </si>
+  <si>
+    <t>Rapport des cotes pour l'alimentation complémetaire</t>
+  </si>
+  <si>
     <t>Première naissance</t>
   </si>
   <si>
@@ -586,10 +445,10 @@
     <t>24 mois ou plus</t>
   </si>
   <si>
-    <t>SGA avant terme</t>
-  </si>
-  <si>
-    <t>AGA avant terme</t>
+    <t>SGA prématuré</t>
+  </si>
+  <si>
+    <t>AGA prématuré</t>
   </si>
   <si>
     <t>SGA à terme</t>
@@ -601,7 +460,7 @@
     <t>Diarrhée néonatale</t>
   </si>
   <si>
-    <t>Septicémie néonatale</t>
+    <t>Sepsis néonatal</t>
   </si>
   <si>
     <t>Pneumonie néonatale</t>
@@ -622,6 +481,33 @@
     <t>Autres pathologies néonatales</t>
   </si>
   <si>
+    <t>Facteurs de risque maternels contribuant aux résultats des naissances</t>
+  </si>
+  <si>
+    <t>Risque relatif par espacement des naissances</t>
+  </si>
+  <si>
+    <t>Risques pour les enfants touchés par chaque résultat des naissances</t>
+  </si>
+  <si>
+    <t>Rapport des cote pour des conditions</t>
+  </si>
+  <si>
+    <t>Amaigrissement (score-HAZ &lt; -2)</t>
+  </si>
+  <si>
+    <t>MM (Score-WHZ entre -3 et -2)</t>
+  </si>
+  <si>
+    <t>MAS (Score-WHZ &lt; -3)</t>
+  </si>
+  <si>
+    <t>Risques relatifs des causes du décès néonatales</t>
+  </si>
+  <si>
+    <t>Rapport des cotes pour les femmes avec l'anémie maternelle</t>
+  </si>
+  <si>
     <t>Pneumonie</t>
   </si>
   <si>
@@ -659,6 +545,114 @@
   </si>
   <si>
     <t>Aucun</t>
+  </si>
+  <si>
+    <t>Risque relatif des causes du décès par la distribution de la taille-pour-l'àge (retard de croissance)</t>
+  </si>
+  <si>
+    <t>Cause du décès</t>
+  </si>
+  <si>
+    <t>Niveau HAZ</t>
+  </si>
+  <si>
+    <t>Léger</t>
+  </si>
+  <si>
+    <t>Modéré</t>
+  </si>
+  <si>
+    <t>Elevé</t>
+  </si>
+  <si>
+    <t>Niveau WHZ</t>
+  </si>
+  <si>
+    <t>Risque relatif des causes du décès par condition anémique</t>
+  </si>
+  <si>
+    <t>Condition anémique</t>
+  </si>
+  <si>
+    <t>Pas anémique</t>
+  </si>
+  <si>
+    <t>Anémique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risque relatif des causes du décès par mode d'allaitement maternel </t>
+  </si>
+  <si>
+    <t>Mode d'allaitement maternel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risques relatifs de la diarrhée par mode d'allaitement maternel </t>
+  </si>
+  <si>
+    <t>MAS</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>Risque relatif des causes du décès par la distribution du poids-pour-taille (amaigrissement)</t>
+  </si>
+  <si>
+    <t>Avec retard de croissance précédent (HAZ &lt; -2 dans la tranche d'àge précédente)</t>
+  </si>
+  <si>
+    <t>Diarrhée (par épisode supplémentaire)</t>
+  </si>
+  <si>
+    <t>Par programme</t>
+  </si>
+  <si>
+    <t>Rapports des cotes supplémentaires</t>
+  </si>
+  <si>
+    <t>Pour MAS par épisode supplémentaire de la diarrhée</t>
+  </si>
+  <si>
+    <t>Pour l'anémie par épisode supplémentaire de la diarrhée</t>
+  </si>
+  <si>
+    <t>Rapport des cotes pour allaitement maternel correct par programme</t>
+  </si>
+  <si>
+    <t>Pour MM par épisode supplémentaire de la diarrhée</t>
+  </si>
+  <si>
+    <t>Rapports des cotes pour espacement des naissances optimal par programme</t>
+  </si>
+  <si>
+    <t>Efficacité</t>
+  </si>
+  <si>
+    <t>fraction touchée</t>
+  </si>
+  <si>
+    <t>Risques relatifs de l'anémie en recevant l'intervention</t>
+  </si>
+  <si>
+    <t>Rapports des cotes de l'anémie en étant couverte par l'intervention</t>
+  </si>
+  <si>
+    <t>Gestion de la MM</t>
+  </si>
+  <si>
+    <t>Rapport des cotes de la MAS en étant couvert par le programme</t>
+  </si>
+  <si>
+    <t>Rapport des cotes de la MM en étant couvert par le programme</t>
+  </si>
+  <si>
+    <t>Condition ciblée</t>
+  </si>
+  <si>
+    <t>Efficacité à prévenir une mort</t>
+  </si>
+  <si>
+    <t>Efficacité à prévenir un cas</t>
   </si>
   <si>
     <t>Troubles hypertensifs</t>
@@ -1264,72 +1258,72 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20" style="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53" style="41" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="41" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.875" style="41" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.875" style="41" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.125" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.83203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.83203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.08203125" style="41" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="14.5" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="43" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="C1" s="43" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="D1" s="43" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="H1" s="43" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="I1" s="43" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="J1" s="43" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="K1" s="43" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="L1" s="43" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="M1" s="43" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="N1" s="43" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="O1" s="43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="43" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="C2" s="50">
         <v>0</v>
@@ -1371,9 +1365,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="54" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="C3" s="50">
         <v>1</v>
@@ -1415,9 +1409,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="54" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C4" s="50">
         <v>1</v>
@@ -1459,9 +1453,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="54" t="s">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="C5" s="50">
         <v>1</v>
@@ -1503,9 +1497,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="54" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="C6" s="50">
         <v>1</v>
@@ -1547,9 +1541,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="54" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="C7" s="50">
         <v>1</v>
@@ -1591,9 +1585,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="54" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="C8" s="50">
         <v>0</v>
@@ -1635,9 +1629,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="54" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="C9" s="50">
         <v>0</v>
@@ -1679,9 +1673,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="54" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="C10" s="50">
         <v>1</v>
@@ -1723,9 +1717,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="54" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="C11" s="50">
         <v>0</v>
@@ -1767,9 +1761,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="54" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="C12" s="50">
         <v>0</v>
@@ -1811,9 +1805,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="54" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="C13" s="50">
         <v>0</v>
@@ -1855,9 +1849,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="54" t="s">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="C14" s="50">
         <v>1</v>
@@ -1899,9 +1893,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="54" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="C15" s="50">
         <v>0</v>
@@ -1943,7 +1937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="54"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -1959,12 +1953,12 @@
       <c r="N16" s="46"/>
       <c r="O16" s="46"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="43" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="C17" s="50">
         <v>0</v>
@@ -2006,10 +2000,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="43"/>
       <c r="B18" s="54" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="C18" s="50">
         <v>0</v>
@@ -2051,9 +2045,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="34" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="C19" s="50">
         <v>0</v>
@@ -2095,9 +2089,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="34" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="C20" s="50">
         <v>0</v>
@@ -2139,9 +2133,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="55" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C21" s="50">
         <v>0</v>
@@ -2183,9 +2177,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="54" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="C22" s="50">
         <v>0</v>
@@ -2227,9 +2221,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="54" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="C23" s="50">
         <v>0</v>
@@ -2271,9 +2265,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="54" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="C24" s="50">
         <v>0</v>
@@ -2315,7 +2309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="54"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -2331,12 +2325,12 @@
       <c r="N25" s="46"/>
       <c r="O25" s="46"/>
     </row>
-    <row r="26" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="43" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="B26" s="54" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="C26" s="50">
         <v>0</v>
@@ -2379,9 +2373,9 @@
       </c>
       <c r="P26" s="56"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="35" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="C27" s="50">
         <v>0</v>
@@ -2423,10 +2417,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="43"/>
       <c r="B28" s="35" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="C28" s="50">
         <v>0</v>
@@ -2468,9 +2462,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="35" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="C29" s="50">
         <v>0</v>
@@ -2512,9 +2506,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="35" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="C30" s="50">
         <v>0</v>
@@ -2556,7 +2550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="54"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
@@ -2572,12 +2566,12 @@
       <c r="N31" s="46"/>
       <c r="O31" s="46"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="43" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B32" s="54" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="C32" s="50">
         <v>1</v>
@@ -2619,9 +2613,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="54" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="C33" s="50">
         <v>1</v>
@@ -2663,9 +2657,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="54" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="C34" s="50">
         <v>1</v>
@@ -2707,9 +2701,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="54" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="C35" s="50">
         <v>1</v>
@@ -2751,9 +2745,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="54" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="C36" s="50">
         <v>1</v>
@@ -2795,10 +2789,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="42"/>
       <c r="B37" s="54" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="C37" s="50">
         <v>1</v>
@@ -2840,9 +2834,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="54" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="C38" s="50">
         <v>1</v>
@@ -2884,9 +2878,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="54" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="C39" s="50">
         <v>1</v>
@@ -2928,9 +2922,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="54" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="C40" s="50">
         <v>1</v>
@@ -2972,9 +2966,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="54" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="C41" s="50">
         <v>1</v>
@@ -3017,7 +3011,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="d8Qp3RGmxUH3cSjCLan7dui1ChfQawn2k23cU0FgLIHdxCgTXfy1VbC8ztC8oZjByqXU9SkZ2ErKvWAcLAMyUQ==" saltValue="xAtQgDmS8BG9YA7O9SRnbw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6Lh0m7fwV+SwLMmPd+JHGl1sTGDQQzfoJrwAUMOrklSFr0dkr3YmyQYRELKXqkZB7TXLe/VOkgaRDsPky4CzMQ==" saltValue="4zBCrob6UrzHi+rzz8IVhw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B17:O24">
     <sortCondition ref="B17:B24"/>
   </sortState>
@@ -3036,41 +3030,41 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.08203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
     <col min="3" max="7" width="14" style="1" customWidth="1"/>
     <col min="8" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="33"/>
       <c r="C1" s="2" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="35" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
@@ -3088,9 +3082,9 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="36"/>
@@ -3099,9 +3093,9 @@
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="34" t="s">
-        <v>62</v>
+        <v>151</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -3120,7 +3114,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9sKXS+z6o7uukmjVHOm2GzitxCaXLqzMkloFwFHivNkg4IthKBD9vgyR6VUTf8Bkvk0KReET21fuX0M3bXQCFA==" saltValue="ZiXZKUJuXOnsy98byXQDMw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="sAxtXx5gP2/P9+jp87ZwcMKdITK/d0D1jcUGlHhMyPPZxI9rYCLgX8d/Hp46Fkre1VLsK1zH1arIhTkYJaModw==" saltValue="FjPBjt4CDTa/12quJn9BhQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -3137,54 +3131,54 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.625" style="54" customWidth="1"/>
+    <col min="1" max="1" width="47.58203125" style="54" customWidth="1"/>
     <col min="2" max="2" width="27.5" style="54" customWidth="1"/>
-    <col min="3" max="3" width="22.375" style="54" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="54" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="1"/>
-    <col min="8" max="8" width="15.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="C1" s="51" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -3202,9 +3196,9 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="54" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
@@ -3222,9 +3216,9 @@
         <v>0.53134328358208949</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C4" s="54" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
@@ -3242,15 +3236,15 @@
         <v>0.38507462686567184</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
@@ -3268,9 +3262,9 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="54" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -3288,12 +3282,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="54" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -3311,9 +3305,9 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" s="54" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -3331,15 +3325,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="54" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="B9" s="54" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -3357,9 +3351,9 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="54" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
@@ -3377,12 +3371,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="54" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
@@ -3400,9 +3394,9 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="54" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="D12" s="4">
         <v>0</v>
@@ -3420,15 +3414,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="C13" s="54" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="D13" s="4">
         <v>0</v>
@@ -3446,9 +3440,9 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="54" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
@@ -3467,12 +3461,12 @@
       </c>
       <c r="I14" s="27"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="54" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="C15" s="54" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
@@ -3491,9 +3485,9 @@
       </c>
       <c r="I15" s="27"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16" s="54" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="D16" s="4">
         <v>0</v>
@@ -3512,15 +3506,15 @@
       </c>
       <c r="I16" s="27"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="54" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="C17" s="54" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="D17" s="4">
         <v>0.7</v>
@@ -3539,9 +3533,9 @@
       </c>
       <c r="I17" s="27"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C18" s="54" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="D18" s="4">
         <v>0.46</v>
@@ -3560,15 +3554,15 @@
       </c>
       <c r="I18" s="27"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="54" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="D19" s="4">
         <v>0.7</v>
@@ -3586,9 +3580,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C20" s="54" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="D20" s="4">
         <v>0.46</v>
@@ -3606,15 +3600,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="54" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="B21" s="54" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="C21" s="54" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="D21" s="4">
         <v>0.7</v>
@@ -3632,9 +3626,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C22" s="54" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="D22" s="4">
         <v>0.46</v>
@@ -3652,15 +3646,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="C23" s="54" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="D23" s="4">
         <v>1</v>
@@ -3678,9 +3672,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" s="54" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="D24" s="4">
         <v>0</v>
@@ -3698,9 +3692,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C25" s="54" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="D25" s="4">
         <v>0</v>
@@ -3718,15 +3712,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="54" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="B26" s="54" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="C26" s="54" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -3744,9 +3738,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C27" s="54" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="D27" s="4">
         <v>0</v>
@@ -3764,9 +3758,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C28" s="54" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="D28" s="4">
         <v>0</v>
@@ -3784,15 +3778,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="54" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="B29" s="54" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="C29" s="54" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="D29" s="4">
         <v>1</v>
@@ -3810,9 +3804,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C30" s="54" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="D30" s="4">
         <v>0</v>
@@ -3830,9 +3824,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C31" s="54" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="D31" s="4">
         <v>0</v>
@@ -3850,15 +3844,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="54" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="B32" s="54" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="C32" s="54" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
@@ -3876,9 +3870,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C33" s="54" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="D33" s="4">
         <v>0</v>
@@ -3896,9 +3890,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C34" s="54" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="D34" s="4">
         <v>0</v>
@@ -3916,15 +3910,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="54" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="B35" s="54" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="C35" s="54" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -3942,9 +3936,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C36" s="54" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="D36" s="4">
         <v>0</v>
@@ -3962,9 +3956,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="54" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="D37" s="4">
         <v>0</v>
@@ -3982,15 +3976,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="54" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="B38" s="54" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="C38" s="54" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="D38" s="4">
         <v>0.3</v>
@@ -4008,9 +4002,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C39" s="54" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="D39" s="4">
         <v>0.5</v>
@@ -4028,9 +4022,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" s="54" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="D40" s="4">
         <v>0.65</v>
@@ -4048,12 +4042,12 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="54" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="C41" s="54" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="D41" s="4">
         <v>0.3</v>
@@ -4071,9 +4065,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C42" s="54" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="D42" s="4">
         <v>0.49</v>
@@ -4091,9 +4085,9 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C43" s="54" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="D43" s="4">
         <v>0.52</v>
@@ -4111,15 +4105,15 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="54" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="B44" s="54" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="C44" s="54" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="D44" s="4">
         <v>0.88</v>
@@ -4137,9 +4131,9 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C45" s="54" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="D45" s="4">
         <v>0.93</v>
@@ -4157,15 +4151,15 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="54" t="s">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="B46" s="54" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="C46" s="54" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="D46" s="4">
         <v>1</v>
@@ -4183,9 +4177,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C47" s="54" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="D47" s="4">
         <v>0.86</v>
@@ -4203,15 +4197,15 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="54" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="B48" s="54" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="C48" s="54" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="D48" s="4">
         <v>0.57999999999999996</v>
@@ -4229,9 +4223,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" s="54" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="D49" s="4">
         <v>0.51</v>
@@ -4250,7 +4244,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="H3N8qGYpeF7S8PBgR8gMKncfzBB05+o61QFbxOk0Yn2LgE+H8OB7DS+RVVqufszQWIKLUWhCRuLEKPVE3gH9ng==" saltValue="sjUxBnOMN+l8nzXdEGGPXQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Wmd0pdJsA5Wgw1aiMuKYKIdcdFEkWG1FpGiOxJhXROELYd0Kj0risCu9qn3G1XZ2YSK98p/dV+Y6BQaAYfGorg==" saltValue="7PZtRqgXwyOJ4HOVOwAotQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -4267,46 +4261,46 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.08203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.58203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="1" customWidth="1"/>
     <col min="4" max="7" width="15.5" style="1" customWidth="1"/>
     <col min="8" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="C1" s="33"/>
       <c r="D1" s="2" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="H1" s="30"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -4322,9 +4316,9 @@
       </c>
       <c r="H2" s="34"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="D3" s="4">
         <v>0.2</v>
@@ -4340,15 +4334,15 @@
       </c>
       <c r="H3" s="37"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -4364,10 +4358,10 @@
       </c>
       <c r="H4" s="37"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="27"/>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="D5" s="4">
         <v>0.59</v>
@@ -4383,15 +4377,15 @@
       </c>
       <c r="H5" s="34"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -4407,10 +4401,10 @@
       </c>
       <c r="H6" s="34"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="D7" s="4">
         <v>0.6</v>
@@ -4427,7 +4421,7 @@
       <c r="H7" s="37"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PDzgYeoXoDX+oWLJpy5dCqENUck9PIG2K965Tw0blxKrVYQR+jSbV+vAZPTupyqbotyCZI4I4dScqRXRaB86Ig==" saltValue="EQem3QG57H2wW/5VLilPbA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wz/ju1BfI/VrkpCAXKXDVNT/NvXCmkQgbAzBwiinH5s1fNa3Ne4amUgDSSGqGP6bebYUx2erEhCpYWSKr0RKgA==" saltValue="gI0td4U752w+OvVh66jusA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4443,59 +4437,59 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="B2" s="50"/>
       <c r="C2" s="50"/>
@@ -4505,14 +4499,14 @@
       <c r="G2" s="50"/>
       <c r="H2" s="50"/>
       <c r="I2" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="J2" s="50"/>
       <c r="K2" s="50"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="B3" s="50"/>
       <c r="C3" s="50"/>
@@ -4521,20 +4515,20 @@
       <c r="F3" s="50"/>
       <c r="G3" s="50"/>
       <c r="H3" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="I3" s="50"/>
       <c r="J3" s="50"/>
       <c r="K3" s="50"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="54" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="B4" s="50"/>
       <c r="C4" s="50"/>
       <c r="D4" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="E4" s="50"/>
       <c r="F4" s="50"/>
@@ -4544,13 +4538,13 @@
       <c r="J4" s="50"/>
       <c r="K4" s="50"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="B5" s="50"/>
       <c r="C5" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D5" s="50"/>
       <c r="E5" s="50"/>
@@ -4561,9 +4555,9 @@
       <c r="J5" s="50"/>
       <c r="K5" s="50"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="B6" s="50"/>
       <c r="C6" s="50"/>
@@ -4574,76 +4568,76 @@
       <c r="H6" s="50"/>
       <c r="I6" s="50"/>
       <c r="J6" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="K6" s="50" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="54" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="B7" s="50"/>
       <c r="C7" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D7" s="50"/>
       <c r="E7" s="50"/>
       <c r="F7" s="50"/>
       <c r="G7" s="50"/>
       <c r="H7" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="I7" s="50"/>
       <c r="J7" s="50"/>
       <c r="K7" s="50"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="B8" s="50"/>
       <c r="C8" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D8" s="50"/>
       <c r="E8" s="50"/>
       <c r="F8" s="50"/>
       <c r="G8" s="50"/>
       <c r="H8" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="I8" s="50"/>
       <c r="J8" s="50"/>
       <c r="K8" s="50"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="54" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="B9" s="50"/>
       <c r="C9" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D9" s="50"/>
       <c r="E9" s="50"/>
       <c r="F9" s="50"/>
       <c r="G9" s="50"/>
       <c r="H9" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="I9" s="50"/>
       <c r="J9" s="50"/>
       <c r="K9" s="50"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="B10" s="50"/>
       <c r="C10" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D10" s="50"/>
       <c r="E10" s="50"/>
@@ -4654,13 +4648,13 @@
       <c r="J10" s="50"/>
       <c r="K10" s="50"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="B11" s="50"/>
       <c r="C11" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D11" s="50"/>
       <c r="E11" s="50"/>
@@ -4671,13 +4665,13 @@
       <c r="J11" s="50"/>
       <c r="K11" s="50"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="B12" s="50"/>
       <c r="C12" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D12" s="50"/>
       <c r="E12" s="50"/>
@@ -4688,13 +4682,13 @@
       <c r="J12" s="50"/>
       <c r="K12" s="50"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="B13" s="50"/>
       <c r="C13" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D13" s="50"/>
       <c r="E13" s="50"/>
@@ -4705,13 +4699,13 @@
       <c r="J13" s="50"/>
       <c r="K13" s="50"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="B14" s="50"/>
       <c r="C14" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D14" s="50"/>
       <c r="E14" s="50"/>
@@ -4719,18 +4713,18 @@
       <c r="G14" s="50"/>
       <c r="H14" s="50"/>
       <c r="I14" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="J14" s="50"/>
       <c r="K14" s="50"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="B15" s="50"/>
       <c r="C15" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D15" s="50"/>
       <c r="E15" s="50"/>
@@ -4738,39 +4732,39 @@
       <c r="G15" s="50"/>
       <c r="H15" s="50"/>
       <c r="I15" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="J15" s="50"/>
       <c r="K15" s="50"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B16" s="50"/>
       <c r="C16" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D16" s="50"/>
       <c r="E16" s="50"/>
       <c r="F16" s="50"/>
       <c r="G16" s="50"/>
       <c r="H16" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="I16" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="J16" s="50"/>
       <c r="K16" s="50"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="54" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="B17" s="50"/>
       <c r="C17" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D17" s="50"/>
       <c r="E17" s="50"/>
@@ -4781,18 +4775,18 @@
       <c r="J17" s="50"/>
       <c r="K17" s="50"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="54" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C18" s="50"/>
       <c r="D18" s="50"/>
       <c r="E18" s="50"/>
       <c r="F18" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="G18" s="50"/>
       <c r="H18" s="50"/>
@@ -4800,18 +4794,18 @@
       <c r="J18" s="50"/>
       <c r="K18" s="50"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="54" t="s">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C19" s="50"/>
       <c r="D19" s="50"/>
       <c r="E19" s="50"/>
       <c r="F19" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="G19" s="50"/>
       <c r="H19" s="50"/>
@@ -4819,18 +4813,18 @@
       <c r="J19" s="50"/>
       <c r="K19" s="50"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="54" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="G20" s="50"/>
       <c r="H20" s="50"/>
@@ -4838,9 +4832,9 @@
       <c r="J20" s="50"/>
       <c r="K20" s="50"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="54" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="B21" s="50"/>
       <c r="C21" s="50"/>
@@ -4849,26 +4843,26 @@
       <c r="F21" s="50"/>
       <c r="G21" s="50"/>
       <c r="H21" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="I21" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="J21" s="50"/>
       <c r="K21" s="50"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="54" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D22" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="E22" s="50"/>
       <c r="F22" s="50"/>
@@ -4878,13 +4872,13 @@
       <c r="J22" s="50"/>
       <c r="K22" s="50"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="B23" s="50"/>
       <c r="C23" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D23" s="50"/>
       <c r="E23" s="50"/>
@@ -4892,14 +4886,14 @@
       <c r="G23" s="50"/>
       <c r="H23" s="50"/>
       <c r="I23" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="J23" s="50"/>
       <c r="K23" s="50"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="54" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="B24" s="50"/>
       <c r="C24" s="50"/>
@@ -4908,15 +4902,15 @@
       <c r="F24" s="50"/>
       <c r="G24" s="50"/>
       <c r="H24" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="I24" s="50"/>
       <c r="J24" s="50"/>
       <c r="K24" s="50"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="54" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="B25" s="50"/>
       <c r="C25" s="50"/>
@@ -4925,19 +4919,19 @@
       <c r="F25" s="50"/>
       <c r="G25" s="50"/>
       <c r="H25" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="I25" s="50"/>
       <c r="J25" s="50"/>
       <c r="K25" s="50"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="54" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="B26" s="50"/>
       <c r="C26" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D26" s="50"/>
       <c r="E26" s="50"/>
@@ -4948,13 +4942,13 @@
       <c r="J26" s="50"/>
       <c r="K26" s="50"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="54" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="B27" s="50"/>
       <c r="C27" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D27" s="50"/>
       <c r="E27" s="50"/>
@@ -4962,14 +4956,14 @@
       <c r="G27" s="50"/>
       <c r="H27" s="50"/>
       <c r="I27" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="J27" s="50"/>
       <c r="K27" s="50"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="54" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="B28" s="50"/>
       <c r="C28" s="50"/>
@@ -4978,22 +4972,22 @@
       <c r="F28" s="50"/>
       <c r="G28" s="50"/>
       <c r="H28" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="I28" s="50"/>
       <c r="J28" s="50"/>
       <c r="K28" s="50"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="54" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="B29" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C29" s="50"/>
       <c r="D29" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="E29" s="50"/>
       <c r="F29" s="50"/>
@@ -5003,15 +4997,15 @@
       <c r="J29" s="50"/>
       <c r="K29" s="50"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="54" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="B30" s="50"/>
       <c r="C30" s="50"/>
       <c r="D30" s="50"/>
       <c r="E30" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="F30" s="50"/>
       <c r="G30" s="50"/>
@@ -5020,9 +5014,9 @@
       <c r="J30" s="50"/>
       <c r="K30" s="50"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="54" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="B31" s="50"/>
       <c r="C31" s="50"/>
@@ -5030,18 +5024,18 @@
       <c r="E31" s="50"/>
       <c r="F31" s="50"/>
       <c r="G31" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="H31" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="I31" s="50"/>
       <c r="J31" s="50"/>
       <c r="K31" s="50"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="54" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="B32" s="50"/>
       <c r="C32" s="50"/>
@@ -5049,18 +5043,18 @@
       <c r="E32" s="50"/>
       <c r="F32" s="50"/>
       <c r="G32" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="H32" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="I32" s="50"/>
       <c r="J32" s="50"/>
       <c r="K32" s="50"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="54" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="B33" s="50"/>
       <c r="C33" s="50"/>
@@ -5068,18 +5062,18 @@
       <c r="E33" s="50"/>
       <c r="F33" s="50"/>
       <c r="G33" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="H33" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="I33" s="50"/>
       <c r="J33" s="50"/>
       <c r="K33" s="50"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="54" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="B34" s="50"/>
       <c r="C34" s="50"/>
@@ -5087,18 +5081,18 @@
       <c r="E34" s="50"/>
       <c r="F34" s="50"/>
       <c r="G34" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="H34" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="I34" s="50"/>
       <c r="J34" s="50"/>
       <c r="K34" s="50"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="54" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="B35" s="50"/>
       <c r="C35" s="50"/>
@@ -5106,18 +5100,18 @@
       <c r="E35" s="50"/>
       <c r="F35" s="50"/>
       <c r="G35" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="H35" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="I35" s="50"/>
       <c r="J35" s="50"/>
       <c r="K35" s="50"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="54" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="B36" s="50"/>
       <c r="C36" s="50"/>
@@ -5125,18 +5119,18 @@
       <c r="E36" s="50"/>
       <c r="F36" s="50"/>
       <c r="G36" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="H36" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="I36" s="50"/>
       <c r="J36" s="50"/>
       <c r="K36" s="50"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="54" t="s">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="B37" s="50"/>
       <c r="C37" s="50"/>
@@ -5145,35 +5139,35 @@
       <c r="F37" s="50"/>
       <c r="G37" s="50"/>
       <c r="H37" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="I37" s="50"/>
       <c r="J37" s="50"/>
       <c r="K37" s="50"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="54" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="B38" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C38" s="50"/>
       <c r="D38" s="50"/>
       <c r="E38" s="50"/>
       <c r="F38" s="50"/>
       <c r="G38" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="H38" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="I38" s="50"/>
       <c r="J38" s="50"/>
       <c r="K38" s="50"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5eLU+z/yEMgaRNTxijJd8FrpQzk5lzsUtSpejGQ1gTUWrMPNaF/8LM7CWU2sNPWGwyrx2PXeB/DOOg0JFO8hIw==" saltValue="URG40Ua/x0aVMYeBoUjAzA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="gl0Kwxzam1bA5r/Pd6ySmjZtgjxdiv3UpiBipcRDII7qyZyY3GcGOtvMLcteOgkrF2hlfHz23jpFW/VbhgoTYg==" saltValue="0eC4LpvFcRcLHMktprqI/Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J38">
     <sortCondition ref="A2:A38"/>
   </sortState>
@@ -5192,292 +5186,292 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="F2" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="G2" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="H2" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="I2" s="50"/>
       <c r="J2" s="50"/>
       <c r="K2" s="50"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D3" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="F3" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="G3" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="H3" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="I3" s="50"/>
       <c r="J3" s="50"/>
       <c r="K3" s="50"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="F4" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="G4" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="H4" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="I4" s="50"/>
       <c r="J4" s="50"/>
       <c r="K4" s="50"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="F5" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="G5" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="H5" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="I5" s="50"/>
       <c r="J5" s="50"/>
       <c r="K5" s="50"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="F6" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="G6" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="H6" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="I6" s="50"/>
       <c r="J6" s="50"/>
       <c r="K6" s="50"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="B7" s="50"/>
       <c r="C7" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D7" s="50"/>
       <c r="E7" s="50"/>
       <c r="F7" s="50"/>
       <c r="G7" s="50"/>
       <c r="H7" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="I7" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="J7" s="50"/>
       <c r="K7" s="50"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="B8" s="50"/>
       <c r="C8" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D8" s="50"/>
       <c r="E8" s="50"/>
       <c r="F8" s="50"/>
       <c r="G8" s="50"/>
       <c r="H8" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="I8" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="J8" s="50"/>
       <c r="K8" s="50"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="B9" s="50"/>
       <c r="C9" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D9" s="50"/>
       <c r="E9" s="50"/>
       <c r="F9" s="50"/>
       <c r="G9" s="50"/>
       <c r="H9" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="I9" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="J9" s="50"/>
       <c r="K9" s="50"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="B10" s="50"/>
       <c r="C10" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D10" s="50"/>
       <c r="E10" s="50"/>
       <c r="F10" s="50"/>
       <c r="G10" s="50"/>
       <c r="H10" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="I10" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="J10" s="50"/>
       <c r="K10" s="50"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B11" s="50"/>
       <c r="C11" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D11" s="50"/>
       <c r="E11" s="50"/>
@@ -5486,19 +5480,19 @@
       <c r="H11" s="50"/>
       <c r="I11" s="50"/>
       <c r="J11" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="K11" s="50" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="B12" s="50"/>
       <c r="C12" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D12" s="50"/>
       <c r="E12" s="50"/>
@@ -5508,16 +5502,16 @@
       <c r="I12" s="50"/>
       <c r="J12" s="50"/>
       <c r="K12" s="50" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="B13" s="50"/>
       <c r="C13" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D13" s="50"/>
       <c r="E13" s="50"/>
@@ -5527,16 +5521,16 @@
       <c r="I13" s="50"/>
       <c r="J13" s="50"/>
       <c r="K13" s="50" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="B14" s="50"/>
       <c r="C14" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D14" s="50"/>
       <c r="E14" s="50"/>
@@ -5546,11 +5540,11 @@
       <c r="I14" s="50"/>
       <c r="J14" s="50"/>
       <c r="K14" s="50" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JVnYGOePcEiydv7EfG2wmlJ3BdmJKwp2TKY0ofHPFKwsQayhwLWndxpp9WXXN7HmQI+CXH/8fduLLm9vDpp+AQ==" saltValue="1Gdr1cTPw+2d6mg7XkyWPg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fJEy+xRNReRKLohOGO4lAA6Yzf/AvXML7OAPxdpSQMZlXpVxPlMA+Ydm+XoFEk2nLMWp/vGrJbd4TUofh7oXxA==" saltValue="bHavWg230HPF03FckzE2BQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5566,50 +5560,50 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.08203125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="D2" s="49">
         <v>1</v>
       </c>
@@ -5626,10 +5620,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="57"/>
       <c r="C3" s="1" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="D3" s="49">
         <v>1</v>
@@ -5648,10 +5642,10 @@
       </c>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="57"/>
       <c r="C4" s="1" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="D4" s="49">
         <v>1</v>
@@ -5670,12 +5664,12 @@
       </c>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="57" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="D5" s="49">
         <f>5.16</f>
@@ -5694,10 +5688,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="57"/>
       <c r="C6" s="1" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="D6" s="49">
         <v>5.16</v>
@@ -5715,10 +5709,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="57"/>
       <c r="C7" s="1" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="D7" s="49">
         <v>1</v>
@@ -5736,12 +5730,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="57" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="D8" s="49">
         <v>1</v>
@@ -5759,10 +5753,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="57"/>
       <c r="C9" s="1" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="D9" s="49">
         <v>1</v>
@@ -5780,10 +5774,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="57"/>
       <c r="C10" s="1" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="D10" s="49">
         <v>1</v>
@@ -5801,12 +5795,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="D11" s="49">
         <v>1</v>
@@ -5824,10 +5818,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="57"/>
       <c r="C12" s="1" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="D12" s="49">
         <v>1</v>
@@ -5845,10 +5839,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="57"/>
       <c r="C13" s="1" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="D13" s="49">
         <v>1</v>
@@ -5866,12 +5860,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="57" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="D14" s="49">
         <v>1</v>
@@ -5889,10 +5883,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="57"/>
       <c r="C15" s="1" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="D15" s="49">
         <v>1</v>
@@ -5910,10 +5904,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="57"/>
       <c r="C16" s="1" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="D16" s="49">
         <v>1</v>
@@ -5931,12 +5925,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B17" s="38" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="D17" s="48">
         <v>1.05</v>
@@ -5954,15 +5948,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="B19" s="57" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="D19" s="49">
         <v>1</v>
@@ -5980,10 +5974,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="57"/>
       <c r="C20" s="1" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="D20" s="49">
         <v>1</v>
@@ -6001,10 +5995,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="57"/>
       <c r="C21" s="1" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="D21" s="49">
         <v>1</v>
@@ -6022,12 +6016,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="57" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="D22" s="49">
         <v>1</v>
@@ -6045,10 +6039,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="57"/>
       <c r="C23" s="1" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="D23" s="49">
         <v>1</v>
@@ -6066,10 +6060,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="57"/>
       <c r="C24" s="1" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="D24" s="49">
         <v>1</v>
@@ -6087,12 +6081,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="57" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="D25" s="49">
         <v>1</v>
@@ -6110,10 +6104,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="57"/>
       <c r="C26" s="1" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="D26" s="49">
         <v>1</v>
@@ -6131,10 +6125,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="57"/>
       <c r="C27" s="1" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="D27" s="49">
         <v>1</v>
@@ -6152,12 +6146,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="D28" s="49">
         <v>1</v>
@@ -6175,10 +6169,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="57"/>
       <c r="C29" s="1" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="D29" s="49">
         <v>1</v>
@@ -6196,10 +6190,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="57"/>
       <c r="C30" s="1" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="D30" s="49">
         <v>1</v>
@@ -6217,12 +6211,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="57" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="D31" s="49">
         <v>1</v>
@@ -6240,10 +6234,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="57"/>
       <c r="C32" s="1" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="D32" s="49">
         <v>1</v>
@@ -6261,10 +6255,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="57"/>
       <c r="C33" s="1" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="D33" s="49">
         <v>1</v>
@@ -6282,12 +6276,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B34" s="38" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="D34" s="48">
         <v>1</v>
@@ -6305,15 +6299,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A36" s="40" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="B36" s="57" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="D36" s="49">
         <v>1</v>
@@ -6331,10 +6325,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="57"/>
       <c r="C37" s="1" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="D37" s="49">
         <v>1</v>
@@ -6352,10 +6346,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="57"/>
       <c r="C38" s="1" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="D38" s="49">
         <v>1</v>
@@ -6373,12 +6367,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="57" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="D39" s="49">
         <v>1</v>
@@ -6396,10 +6390,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="57"/>
       <c r="C40" s="1" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="D40" s="49">
         <v>1</v>
@@ -6417,10 +6411,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="57"/>
       <c r="C41" s="1" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="D41" s="49">
         <v>1</v>
@@ -6438,12 +6432,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="57" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="D42" s="49">
         <v>1</v>
@@ -6461,10 +6455,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="57"/>
       <c r="C43" s="1" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="D43" s="49">
         <v>1</v>
@@ -6482,10 +6476,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="57"/>
       <c r="C44" s="1" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="D44" s="49">
         <v>1</v>
@@ -6503,12 +6497,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="D45" s="49">
         <v>1</v>
@@ -6526,10 +6520,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="57"/>
       <c r="C46" s="1" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="D46" s="49">
         <v>1</v>
@@ -6547,10 +6541,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="57"/>
       <c r="C47" s="1" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="D47" s="49">
         <v>1</v>
@@ -6568,12 +6562,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48" s="57" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="D48" s="49">
         <v>1</v>
@@ -6591,10 +6585,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="57"/>
       <c r="C49" s="1" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="D49" s="49">
         <v>1</v>
@@ -6612,10 +6606,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="57"/>
       <c r="C50" s="1" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="D50" s="49">
         <v>1</v>
@@ -6633,12 +6627,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B51" s="39" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="D51" s="48">
         <v>1.05</v>
@@ -6657,7 +6651,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6cv0VyDvz7/b+69HEUUpj57UejPkwruGhrMGi3nBTE2RdkjFgTD6JYTOLE8FH1lng0G+aa4sc5QA8yL6/K7fmg==" saltValue="Xlzt6prImdqpDHLr0IRtnA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dVtTMFMrHP2xwH4Yxdv7jkX+Ph+CNNbo751qUnGWoAFVPLBEB/00s58Hoe4EudI/57eTD/85iw/Uv5NWKU6Lvg==" saltValue="RT4dbZ1o8cxUdM9JfKXr8Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="15">
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
@@ -6691,39 +6685,39 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.58203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.58203125" style="1" customWidth="1"/>
     <col min="5" max="6" width="13.5" style="1" customWidth="1"/>
     <col min="7" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="24"/>
       <c r="C2" s="23" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="21"/>
@@ -6731,9 +6725,9 @@
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
@@ -6748,9 +6742,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -6765,9 +6759,9 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -6782,9 +6776,9 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -6799,15 +6793,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="13"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
@@ -6823,16 +6817,16 @@
       </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="13"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="16"/>
@@ -6840,9 +6834,9 @@
       <c r="F11" s="16"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="11"/>
@@ -6850,9 +6844,9 @@
       <c r="F12" s="11"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -6868,9 +6862,9 @@
       </c>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
@@ -6886,9 +6880,9 @@
       </c>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
@@ -6904,7 +6898,7 @@
       </c>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="12"/>
@@ -6913,9 +6907,9 @@
       <c r="F16" s="11"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="9"/>
@@ -6924,9 +6918,9 @@
       <c r="F17" s="8"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
@@ -6942,9 +6936,9 @@
       </c>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
@@ -6960,9 +6954,9 @@
       </c>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
@@ -6978,9 +6972,9 @@
       </c>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
@@ -6996,9 +6990,9 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
@@ -7013,9 +7007,9 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="C23" s="5">
         <v>1</v>
@@ -7030,9 +7024,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
@@ -7047,9 +7041,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="C25" s="5">
         <v>1</v>
@@ -7064,14 +7058,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rygPLw6ktj36D7KYpUihv38sachbTLkJpzoWiiehFvToklw+H6Kg77YFWVikYZ43GqPdR3aq3mvhPvBa8W9J2g==" saltValue="eeZJ1wET6NTtbMaHSFrkhg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/+fSFMDDNzn1goZxxqlYJQ/du99fXAYNmFS6/wqm6TTAA9l80mjtlplUNzn87XI41H0I2nQU7kLpQmbLmtdQGg==" saltValue="+xr5dpumIcYyueXC3ACPhA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -7088,46 +7082,46 @@
       <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.08203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" customWidth="1"/>
-    <col min="4" max="8" width="13.375" style="1" customWidth="1"/>
-    <col min="9" max="12" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="13.33203125" style="1" customWidth="1"/>
+    <col min="9" max="12" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="15.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="14" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="22" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>76</v>
       </c>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
@@ -7138,13 +7132,13 @@
       <c r="O2" s="28"/>
       <c r="P2" s="28"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
@@ -7170,9 +7164,9 @@
       <c r="O3" s="25"/>
       <c r="P3" s="25"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C4" s="26" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -7198,9 +7192,9 @@
       <c r="O4" s="25"/>
       <c r="P4" s="25"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C5" s="26" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -7226,9 +7220,9 @@
       <c r="O5" s="25"/>
       <c r="P5" s="25"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C6" s="26" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -7254,12 +7248,12 @@
       <c r="O6" s="25"/>
       <c r="P6" s="25"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
@@ -7285,9 +7279,9 @@
       <c r="O7" s="25"/>
       <c r="P7" s="25"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" s="26" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -7313,9 +7307,9 @@
       <c r="O8" s="25"/>
       <c r="P8" s="25"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" s="26" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -7341,9 +7335,9 @@
       <c r="O9" s="25"/>
       <c r="P9" s="25"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -7369,12 +7363,12 @@
       <c r="O10" s="25"/>
       <c r="P10" s="25"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
@@ -7400,9 +7394,9 @@
       <c r="O11" s="25"/>
       <c r="P11" s="25"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="26" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -7428,9 +7422,9 @@
       <c r="O12" s="25"/>
       <c r="P12" s="25"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="26" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -7456,9 +7450,9 @@
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="26" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -7484,12 +7478,12 @@
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
@@ -7515,9 +7509,9 @@
       <c r="O15" s="25"/>
       <c r="P15" s="25"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="26" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -7543,9 +7537,9 @@
       <c r="O16" s="25"/>
       <c r="P16" s="25"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C17" s="26" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -7571,9 +7565,9 @@
       <c r="O17" s="25"/>
       <c r="P17" s="25"/>
     </row>
-    <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="26" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -7599,12 +7593,12 @@
       <c r="O18" s="25"/>
       <c r="P18" s="25"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B19" s="27" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="D19" s="5">
         <v>1</v>
@@ -7630,9 +7624,9 @@
       <c r="O19" s="25"/>
       <c r="P19" s="25"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C20" s="26" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -7658,9 +7652,9 @@
       <c r="O20" s="25"/>
       <c r="P20" s="25"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C21" s="26" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -7686,9 +7680,9 @@
       <c r="O21" s="25"/>
       <c r="P21" s="25"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C22" s="26" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -7714,12 +7708,12 @@
       <c r="O22" s="25"/>
       <c r="P22" s="25"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B23" s="27" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="D23" s="5">
         <v>1</v>
@@ -7745,9 +7739,9 @@
       <c r="O23" s="25"/>
       <c r="P23" s="25"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C24" s="26" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
@@ -7773,9 +7767,9 @@
       <c r="O24" s="25"/>
       <c r="P24" s="25"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C25" s="26" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
@@ -7801,9 +7795,9 @@
       <c r="O25" s="25"/>
       <c r="P25" s="25"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C26" s="26" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -7829,35 +7823,35 @@
       <c r="O26" s="25"/>
       <c r="P26" s="25"/>
     </row>
-    <row r="28" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" s="14" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="27" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A29" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>74</v>
-      </c>
       <c r="G29" s="22" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="I29" s="28"/>
       <c r="J29" s="28"/>
@@ -7868,13 +7862,13 @@
       <c r="O29" s="28"/>
       <c r="P29" s="28"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="1" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
@@ -7900,9 +7894,9 @@
       <c r="O30" s="25"/>
       <c r="P30" s="25"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C31" s="26" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -7928,9 +7922,9 @@
       <c r="O31" s="25"/>
       <c r="P31" s="25"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C32" s="26" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
@@ -7956,9 +7950,9 @@
       <c r="O32" s="25"/>
       <c r="P32" s="25"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C33" s="26" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -7984,12 +7978,12 @@
       <c r="O33" s="25"/>
       <c r="P33" s="25"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="D34" s="5">
         <v>1</v>
@@ -8015,9 +8009,9 @@
       <c r="O34" s="25"/>
       <c r="P34" s="25"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C35" s="26" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -8043,9 +8037,9 @@
       <c r="O35" s="25"/>
       <c r="P35" s="25"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C36" s="26" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
@@ -8071,9 +8065,9 @@
       <c r="O36" s="25"/>
       <c r="P36" s="25"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C37" s="26" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="D37" s="4">
         <v>1</v>
@@ -8099,12 +8093,12 @@
       <c r="O37" s="25"/>
       <c r="P37" s="25"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="D38" s="5">
         <v>1</v>
@@ -8130,9 +8124,9 @@
       <c r="O38" s="25"/>
       <c r="P38" s="25"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C39" s="26" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
@@ -8158,9 +8152,9 @@
       <c r="O39" s="25"/>
       <c r="P39" s="25"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C40" s="26" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="D40" s="4">
         <v>1</v>
@@ -8186,9 +8180,9 @@
       <c r="O40" s="25"/>
       <c r="P40" s="25"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C41" s="26" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="D41" s="4">
         <v>1</v>
@@ -8214,12 +8208,12 @@
       <c r="O41" s="25"/>
       <c r="P41" s="25"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="D42" s="5">
         <v>1</v>
@@ -8245,9 +8239,9 @@
       <c r="O42" s="25"/>
       <c r="P42" s="25"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C43" s="26" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -8273,9 +8267,9 @@
       <c r="O43" s="25"/>
       <c r="P43" s="25"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C44" s="26" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -8301,9 +8295,9 @@
       <c r="O44" s="25"/>
       <c r="P44" s="25"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C45" s="26" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="D45" s="4">
         <v>1</v>
@@ -8329,12 +8323,12 @@
       <c r="O45" s="25"/>
       <c r="P45" s="25"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="D46" s="5">
         <v>1</v>
@@ -8360,9 +8354,9 @@
       <c r="O46" s="25"/>
       <c r="P46" s="25"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C47" s="26" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -8388,9 +8382,9 @@
       <c r="O47" s="25"/>
       <c r="P47" s="25"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C48" s="26" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -8416,9 +8410,9 @@
       <c r="O48" s="25"/>
       <c r="P48" s="25"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C49" s="26" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -8444,12 +8438,12 @@
       <c r="O49" s="25"/>
       <c r="P49" s="25"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="D50" s="5">
         <v>1</v>
@@ -8475,9 +8469,9 @@
       <c r="O50" s="25"/>
       <c r="P50" s="25"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C51" s="26" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -8503,9 +8497,9 @@
       <c r="O51" s="25"/>
       <c r="P51" s="25"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C52" s="26" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -8531,9 +8525,9 @@
       <c r="O52" s="25"/>
       <c r="P52" s="25"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C53" s="26" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -8559,36 +8553,36 @@
       <c r="O53" s="25"/>
       <c r="P53" s="25"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C54" s="26"/>
       <c r="D54" s="26"/>
     </row>
-    <row r="55" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" s="14" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A55" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" s="27" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A56" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="B56" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="C56" s="29" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="H56" s="28"/>
       <c r="M56" s="28"/>
@@ -8596,13 +8590,13 @@
       <c r="O56" s="28"/>
       <c r="P56" s="28"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="1" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="D57" s="5">
         <v>1</v>
@@ -8622,9 +8616,9 @@
       <c r="O57" s="25"/>
       <c r="P57" s="25"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C58" s="26" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="D58" s="4">
         <v>10.675000000000001</v>
@@ -8644,12 +8638,12 @@
       <c r="O58" s="25"/>
       <c r="P58" s="25"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="D59" s="5">
         <v>1</v>
@@ -8669,9 +8663,9 @@
       <c r="O59" s="25"/>
       <c r="P59" s="25"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C60" s="26" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="D60" s="4">
         <v>10.675000000000001</v>
@@ -8691,12 +8685,12 @@
       <c r="O60" s="25"/>
       <c r="P60" s="25"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="D61" s="5">
         <v>1</v>
@@ -8716,9 +8710,9 @@
       <c r="O61" s="25"/>
       <c r="P61" s="25"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C62" s="26" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="D62" s="4">
         <v>10.675000000000001</v>
@@ -8738,39 +8732,39 @@
       <c r="O62" s="25"/>
       <c r="P62" s="25"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C63" s="26"/>
       <c r="D63" s="26"/>
     </row>
-    <row r="64" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" s="14" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A64" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" s="27" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A65" s="31" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="B65" s="30" t="s">
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="C65" s="29" t="s">
-        <v>8</v>
+        <v>133</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="E65" s="22" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="G65" s="22" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="H65" s="53" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="I65" s="28"/>
       <c r="J65" s="28"/>
@@ -8781,13 +8775,13 @@
       <c r="O65" s="28"/>
       <c r="P65" s="28"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A66" s="51"/>
       <c r="B66" s="1" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="D66" s="5">
         <v>1</v>
@@ -8813,9 +8807,9 @@
       <c r="O66" s="25"/>
       <c r="P66" s="25"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C67" s="26" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="D67" s="4">
         <v>1.35</v>
@@ -8841,9 +8835,9 @@
       <c r="O67" s="25"/>
       <c r="P67" s="25"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C68" s="26" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="D68" s="4">
         <v>1.35</v>
@@ -8869,9 +8863,9 @@
       <c r="O68" s="25"/>
       <c r="P68" s="25"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C69" s="26" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="D69" s="4">
         <v>5.4</v>
@@ -8897,12 +8891,12 @@
       <c r="O69" s="25"/>
       <c r="P69" s="25"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="D70" s="5">
         <v>1</v>
@@ -8928,9 +8922,9 @@
       <c r="O70" s="25"/>
       <c r="P70" s="25"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C71" s="26" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="D71" s="4">
         <v>1.35</v>
@@ -8956,9 +8950,9 @@
       <c r="O71" s="25"/>
       <c r="P71" s="25"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C72" s="26" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="D72" s="4">
         <v>1.35</v>
@@ -8984,9 +8978,9 @@
       <c r="O72" s="25"/>
       <c r="P72" s="25"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C73" s="26" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="D73" s="4">
         <v>5.4</v>
@@ -9012,12 +9006,12 @@
       <c r="O73" s="25"/>
       <c r="P73" s="25"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="D74" s="5">
         <v>1</v>
@@ -9043,9 +9037,9 @@
       <c r="O74" s="25"/>
       <c r="P74" s="25"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C75" s="26" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="D75" s="4">
         <v>1.35</v>
@@ -9071,9 +9065,9 @@
       <c r="O75" s="25"/>
       <c r="P75" s="25"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C76" s="26" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="D76" s="4">
         <v>1.35</v>
@@ -9099,9 +9093,9 @@
       <c r="O76" s="25"/>
       <c r="P76" s="25"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C77" s="26" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="D77" s="4">
         <v>5.4</v>
@@ -9127,12 +9121,12 @@
       <c r="O77" s="25"/>
       <c r="P77" s="25"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="C78" s="26" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="D78" s="5">
         <v>1</v>
@@ -9158,9 +9152,9 @@
       <c r="O78" s="25"/>
       <c r="P78" s="25"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C79" s="26" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
@@ -9186,9 +9180,9 @@
       <c r="O79" s="25"/>
       <c r="P79" s="25"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C80" s="26" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -9214,9 +9208,9 @@
       <c r="O80" s="25"/>
       <c r="P80" s="25"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C81" s="26" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -9242,12 +9236,12 @@
       <c r="O81" s="25"/>
       <c r="P81" s="25"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="C82" s="26" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="D82" s="5">
         <v>1</v>
@@ -9273,9 +9267,9 @@
       <c r="O82" s="25"/>
       <c r="P82" s="25"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C83" s="26" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
@@ -9301,9 +9295,9 @@
       <c r="O83" s="25"/>
       <c r="P83" s="25"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C84" s="26" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="D84" s="4">
         <v>1</v>
@@ -9329,9 +9323,9 @@
       <c r="O84" s="25"/>
       <c r="P84" s="25"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C85" s="26" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
@@ -9357,12 +9351,12 @@
       <c r="O85" s="25"/>
       <c r="P85" s="25"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="C86" s="26" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="D86" s="5">
         <v>1</v>
@@ -9388,9 +9382,9 @@
       <c r="O86" s="25"/>
       <c r="P86" s="25"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C87" s="26" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -9416,9 +9410,9 @@
       <c r="O87" s="25"/>
       <c r="P87" s="25"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C88" s="26" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -9444,9 +9438,9 @@
       <c r="O88" s="25"/>
       <c r="P88" s="25"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C89" s="26" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -9472,12 +9466,12 @@
       <c r="O89" s="25"/>
       <c r="P89" s="25"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="C90" s="26" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="D90" s="5">
         <v>1</v>
@@ -9503,9 +9497,9 @@
       <c r="O90" s="25"/>
       <c r="P90" s="25"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C91" s="26" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -9531,9 +9525,9 @@
       <c r="O91" s="25"/>
       <c r="P91" s="25"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C92" s="26" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -9559,9 +9553,9 @@
       <c r="O92" s="25"/>
       <c r="P92" s="25"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C93" s="26" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -9587,12 +9581,12 @@
       <c r="O93" s="25"/>
       <c r="P93" s="25"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="C94" s="26" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="D94" s="5">
         <v>1</v>
@@ -9618,9 +9612,9 @@
       <c r="O94" s="25"/>
       <c r="P94" s="25"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C95" s="26" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
@@ -9646,9 +9640,9 @@
       <c r="O95" s="25"/>
       <c r="P95" s="25"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C96" s="26" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
@@ -9674,9 +9668,9 @@
       <c r="O96" s="25"/>
       <c r="P96" s="25"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C97" s="26" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="D97" s="4">
         <v>1</v>
@@ -9702,12 +9696,12 @@
       <c r="O97" s="25"/>
       <c r="P97" s="25"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="D98" s="5">
         <v>1</v>
@@ -9733,9 +9727,9 @@
       <c r="O98" s="25"/>
       <c r="P98" s="25"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C99" s="26" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="D99" s="4">
         <v>1</v>
@@ -9761,9 +9755,9 @@
       <c r="O99" s="25"/>
       <c r="P99" s="25"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C100" s="26" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="D100" s="4">
         <v>1</v>
@@ -9789,9 +9783,9 @@
       <c r="O100" s="25"/>
       <c r="P100" s="25"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C101" s="26" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="D101" s="4">
         <v>1</v>
@@ -9817,35 +9811,35 @@
       <c r="O101" s="25"/>
       <c r="P101" s="25"/>
     </row>
-    <row r="103" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" s="14" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A103" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" s="27" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A104" s="31" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="B104" s="52" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C104" s="29" t="s">
-        <v>8</v>
+        <v>133</v>
       </c>
       <c r="D104" s="22" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="E104" s="22" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="F104" s="22" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="G104" s="22" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="H104" s="53" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="I104" s="28"/>
       <c r="J104" s="28"/>
@@ -9856,11 +9850,11 @@
       <c r="O104" s="28"/>
       <c r="P104" s="28"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="27"/>
       <c r="C105" s="26" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="D105" s="5">
         <v>1</v>
@@ -9886,9 +9880,9 @@
       <c r="O105" s="25"/>
       <c r="P105" s="25"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C106" s="26" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="D106" s="4">
         <v>1.26</v>
@@ -9914,9 +9908,9 @@
       <c r="O106" s="25"/>
       <c r="P106" s="25"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C107" s="26" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="D107" s="4">
         <v>1.68</v>
@@ -9942,9 +9936,9 @@
       <c r="O107" s="25"/>
       <c r="P107" s="25"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C108" s="26" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="D108" s="4">
         <v>2.65</v>
@@ -9970,11 +9964,11 @@
       <c r="O108" s="25"/>
       <c r="P108" s="25"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TmeU89cIEiOVKWxn37wAEo3DitZA59V04XGpdYELIfLSv9FgqyUgybNf7kSMQIcd7d8h3O03kxgNsqSZ+ahr2g==" saltValue="+JT6n8mFImOkjrNFsXytuw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="53O9jNskuA3PQZO4jkCQZpVgqYW0G5Jd5tUdd+ZQRPiS4elVtBYPxXfsknE6z3Cw7mt//Ge4b3bgfXgbD2ptAA==" saltValue="+9W02wAcDpOJsNyxAJmIDg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -9991,50 +9985,50 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.08203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="40" style="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4">
         <v>45</v>
@@ -10049,10 +10043,10 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="6" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="C4" s="4">
         <v>1.0249999999999999</v>
@@ -10070,14 +10064,14 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -10095,9 +10089,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -10115,9 +10109,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -10135,7 +10129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -10143,15 +10137,15 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="3" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="C11" s="4">
         <v>1.5</v>
@@ -10169,21 +10163,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="51" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="C14" s="4">
         <v>1.0249999999999999</v>
@@ -10201,10 +10195,10 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="6" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="C15" s="4">
         <v>1.0249999999999999</v>
@@ -10222,12 +10216,12 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="51" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
@@ -10245,29 +10239,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="43" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="C20" s="4">
         <v>1.52</v>
@@ -10283,7 +10277,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TdVScMPDlZlkiQmEgiEQESJsChJ92zA+RL4wDNqDgPHUhjQ6L2cU6YEMSvoONll3cGt07uQz0ffKOMOLD9Z2LA==" saltValue="r2nU9nP9D2YNGh6kk80peQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="XCwiM9j9bQjDOFW4dDEqHEB6E9pm0l/5F2kt2UcVsX7A6YxxcPy84NC1d2u4R+cVYGUQMAklqT9kJZN52TJd5g==" saltValue="rh355EwTBM1LKNMtVxoTag==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -10301,7 +10295,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47" style="1" customWidth="1"/>
     <col min="2" max="6" width="14.5" style="1"/>
@@ -10310,30 +10304,30 @@
     <col min="9" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="C2" s="4">
         <v>0.21</v>
@@ -10348,10 +10342,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34"/>
       <c r="B3" s="34" t="s">
-        <v>27</v>
+        <v>148</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
@@ -10366,12 +10360,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="C4" s="4">
         <v>0.15</v>
@@ -10386,10 +10380,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="34"/>
       <c r="B5" s="34" t="s">
-        <v>27</v>
+        <v>148</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -10404,12 +10398,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="C6" s="4">
         <v>0.15</v>
@@ -10424,10 +10418,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="34"/>
       <c r="B7" s="34" t="s">
-        <v>27</v>
+        <v>148</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -10442,12 +10436,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="C8" s="4">
         <v>0.35</v>
@@ -10462,10 +10456,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34"/>
       <c r="B9" s="34" t="s">
-        <v>27</v>
+        <v>148</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -10480,12 +10474,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="C10" s="4">
         <v>0.35</v>
@@ -10500,10 +10494,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="34"/>
       <c r="B11" s="34" t="s">
-        <v>27</v>
+        <v>148</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
@@ -10518,12 +10512,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="C12" s="4">
         <v>0.23</v>
@@ -10538,10 +10532,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="34"/>
       <c r="B13" s="34" t="s">
-        <v>27</v>
+        <v>148</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
@@ -10556,14 +10550,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="34"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="34"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="IGJiVfjoxfgmuJwyJ8APF1qd8Y3OK39XRNHpOLF/YSB0j8tTdue8ozRoAyrlDNuyIAjEUppCT0MLwmIM4YP+vA==" saltValue="DZU3gpp8N/7pHWr6shnCrw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GErXxzwG18ORJZA7TgeixlFL8OvNmGx7Xo8F0TFMkQPy87Sa5qiVHcKumBknwpQvW9jqY6PyXhTNUVAEhR1BYw==" saltValue="MJzXXjdHK6Vf7AeFBtQZ4A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -10580,65 +10574,65 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="53" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="13.5" style="1" customWidth="1"/>
     <col min="16" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="22" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="35" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="C3" s="4">
         <v>0.53</v>
@@ -10680,9 +10674,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="35" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -10724,9 +10718,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="35" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -10768,9 +10762,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="35" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -10812,9 +10806,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="35" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -10856,9 +10850,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -10900,9 +10894,9 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="34" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -10944,9 +10938,9 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="35" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
@@ -10988,9 +10982,9 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="34" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
@@ -11032,9 +11026,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="35" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="C12" s="4">
         <v>0.83</v>
@@ -11076,9 +11070,9 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="35" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
@@ -11120,9 +11114,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="35" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
@@ -11164,15 +11158,15 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="B16" s="35"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="34" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="C17" s="4">
         <v>1</v>
@@ -11214,9 +11208,9 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="34" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
@@ -11258,9 +11252,9 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="34" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
@@ -11302,9 +11296,9 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="34" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
@@ -11346,20 +11340,20 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="26"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="26"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="26"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="26"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+AhsLdOOgNWoC7OzlPgKUV798G5hV2PXOl4cpUe17rSEbDGbIoOlw/eeFH5k2pqleUMgBH12ILiwI/vnWH+fzg==" saltValue="Xe09QKlx7C9518Q+GXfIbw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dPXV7hZ3dWniwOPQV040g6/WLM34vep3sxQnrYGA0nHvwSqmXYqUaV/z+7LuZKuG6yJ/wJ6NiXpUDO6ig2QoFg==" saltValue="EHIcULTBahyK4QsUd3mmBw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:O14">
     <sortCondition ref="B3:B14"/>
   </sortState>

--- a/inputs/fr/legacy_default_params.xlsx
+++ b/inputs/fr/legacy_default_params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee.altermatt\Documents\GitHub\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AD29FB5-F49A-48E7-8143-D2997391487A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9D30038-5161-420A-AE90-8CF703DFC9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -580,13 +580,13 @@
     <t>Anémique</t>
   </si>
   <si>
-    <t xml:space="preserve">Risque relatif des causes du décès par mode d'allaitement maternel </t>
+    <t>Risque relatif des causes du décès par mode d'allaitement maternel</t>
   </si>
   <si>
     <t>Mode d'allaitement maternel</t>
   </si>
   <si>
-    <t xml:space="preserve">Risques relatifs de la diarrhée par mode d'allaitement maternel </t>
+    <t>Risques relatifs de la diarrhée par mode d'allaitement maternel</t>
   </si>
   <si>
     <t>MAS</t>
@@ -598,7 +598,7 @@
     <t>Risque relatif des causes du décès par la distribution du poids-pour-taille (amaigrissement)</t>
   </si>
   <si>
-    <t>Avec retard de croissance précédent (HAZ &lt; -2 dans la tranche d'àge précédente)</t>
+    <t>Compte tenu du retard de croissance antérieur (HAZ &lt; -2 dans la tranche d’âge précédente)</t>
   </si>
   <si>
     <t>Diarrhée (par épisode supplémentaire)</t>
@@ -625,7 +625,7 @@
     <t>Rapports des cotes pour espacement des naissances optimal par programme</t>
   </si>
   <si>
-    <t>Efficacité</t>
+    <t>efficacité</t>
   </si>
   <si>
     <t>fraction touchée</t>
@@ -3011,7 +3011,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6Lh0m7fwV+SwLMmPd+JHGl1sTGDQQzfoJrwAUMOrklSFr0dkr3YmyQYRELKXqkZB7TXLe/VOkgaRDsPky4CzMQ==" saltValue="4zBCrob6UrzHi+rzz8IVhw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+yg64ijOHGPN6tJmBpnaELGe5uZ5VZV8jEL0WHdptXRpvuAefuvnVLTm7SEBOOfXRCnlQbb4DgD3XMtNAxAWRg==" saltValue="VzPIpgFss/pqv3xjyqF54A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B17:O24">
     <sortCondition ref="B17:B24"/>
   </sortState>
@@ -3114,7 +3114,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="sAxtXx5gP2/P9+jp87ZwcMKdITK/d0D1jcUGlHhMyPPZxI9rYCLgX8d/Hp46Fkre1VLsK1zH1arIhTkYJaModw==" saltValue="FjPBjt4CDTa/12quJn9BhQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="APB7EeihqXRZfbm3FrKwDCt2QZ8TTo6kp082Y9oBK3sbjJsvkHUs5M3cQaiIrcHWKnIDpoBvVd1WYqcLkkYtmQ==" saltValue="BN2NsgrCwbCoimKFm8DY2w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -4244,7 +4244,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Wmd0pdJsA5Wgw1aiMuKYKIdcdFEkWG1FpGiOxJhXROELYd0Kj0risCu9qn3G1XZ2YSK98p/dV+Y6BQaAYfGorg==" saltValue="7PZtRqgXwyOJ4HOVOwAotQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="P5AaOsONGd3ZACKf39aCGnqSDpiMJLrZzrwVqr77P3driDFpakIhoDsd6pHZ24vIq8kdYu+aBR5E1T7FXRsj8g==" saltValue="1ju92d9jAezGBRAPNAZsvw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -4421,7 +4421,7 @@
       <c r="H7" s="37"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wz/ju1BfI/VrkpCAXKXDVNT/NvXCmkQgbAzBwiinH5s1fNa3Ne4amUgDSSGqGP6bebYUx2erEhCpYWSKr0RKgA==" saltValue="gI0td4U752w+OvVh66jusA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="S0QMjh/OPF1cqWlmdXRAsLwqd74fxpBVz+CVDPNlQxu0VDemlcf928FWzNuUNroo+9uehfKZCd2clN8csWITow==" saltValue="n6Z07edCgYDb/iI91JbjGQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5167,7 +5167,7 @@
       <c r="K38" s="50"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gl0Kwxzam1bA5r/Pd6ySmjZtgjxdiv3UpiBipcRDII7qyZyY3GcGOtvMLcteOgkrF2hlfHz23jpFW/VbhgoTYg==" saltValue="0eC4LpvFcRcLHMktprqI/Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SBMm1NhWQhDqt6XiT+cy9bjo3f1QRIhDObMdUm/LOCuI16/qjDMQmpvechx7SEQdhDiHCphdeT7JhtsUE/ESiA==" saltValue="Cys6/4TphjhvYF1mPD4htA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J38">
     <sortCondition ref="A2:A38"/>
   </sortState>
@@ -5544,7 +5544,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fJEy+xRNReRKLohOGO4lAA6Yzf/AvXML7OAPxdpSQMZlXpVxPlMA+Ydm+XoFEk2nLMWp/vGrJbd4TUofh7oXxA==" saltValue="bHavWg230HPF03FckzE2BQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="J4MokOfuKr4XOInser1GmSkgcR2XHra4G98Zdv44i718mnrN0AOtJOZ6cED2J6ufjgQmJc7B6i/yGsZxXL3nSw==" saltValue="k0VO6kUdiCQaRbOkl5qk9Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6651,7 +6651,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dVtTMFMrHP2xwH4Yxdv7jkX+Ph+CNNbo751qUnGWoAFVPLBEB/00s58Hoe4EudI/57eTD/85iw/Uv5NWKU6Lvg==" saltValue="RT4dbZ1o8cxUdM9JfKXr8Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="m91wtfnTC73JzF2q2kOdkD6VCFaUAjSk9hfSNjWIPNN0nOWl5exsHC5I1tElR/Z8NSLsGjxf3QMT1ZH5T4aTVA==" saltValue="g7lNNj1LKu2Z9iBj1mTm4g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="15">
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
@@ -7065,7 +7065,7 @@
       <c r="B28" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/+fSFMDDNzn1goZxxqlYJQ/du99fXAYNmFS6/wqm6TTAA9l80mjtlplUNzn87XI41H0I2nQU7kLpQmbLmtdQGg==" saltValue="+xr5dpumIcYyueXC3ACPhA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="pcd1LN7Tag8asWGAnXk/t1WcPMVruRVvYHBYU4uxxsbHEsBmrY4JxzjWfhFIa4FEoUDf5a/uF2fJMKqkJDD6+Q==" saltValue="eIweKZNNZk4g3f5oBUAFLg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -9968,7 +9968,7 @@
       <c r="A111" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="53O9jNskuA3PQZO4jkCQZpVgqYW0G5Jd5tUdd+ZQRPiS4elVtBYPxXfsknE6z3Cw7mt//Ge4b3bgfXgbD2ptAA==" saltValue="+9W02wAcDpOJsNyxAJmIDg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/pEOrUHyyXIWTwMbb5m7Hjelb67sFDAji2hF+T0QYzeqiTbjF9z2xEwLXSN808xfobPUPnvzNys3fvIjzWEdmw==" saltValue="tJRIkzOL20Lr323kBmnWyg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -10277,7 +10277,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XCwiM9j9bQjDOFW4dDEqHEB6E9pm0l/5F2kt2UcVsX7A6YxxcPy84NC1d2u4R+cVYGUQMAklqT9kJZN52TJd5g==" saltValue="rh355EwTBM1LKNMtVxoTag==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="e+4HfAPFbxBbhUmnb0Hs/9P0XPwpnPG0zhvAr+WRiVnAutjU7arud7KEonZz+VnQKZ/nCsJObAJRdXqh7oOLag==" saltValue="fs9ZZeQlniLNcpeVbf2Pdg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -10557,7 +10557,7 @@
       <c r="A20" s="34"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GErXxzwG18ORJZA7TgeixlFL8OvNmGx7Xo8F0TFMkQPy87Sa5qiVHcKumBknwpQvW9jqY6PyXhTNUVAEhR1BYw==" saltValue="MJzXXjdHK6Vf7AeFBtQZ4A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Wnd4t+jnOmvFeUErYsA35ef1tmSMOg1ZJHdAmoaPlgOpkpj1sNcoEMI4p6ByaNr0aWFSqfOwjyHaTlyNQVPNHg==" saltValue="ZQ6DPvDQSnLmy8g9wNPb4Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -11353,7 +11353,7 @@
       <c r="B28" s="26"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dPXV7hZ3dWniwOPQV040g6/WLM34vep3sxQnrYGA0nHvwSqmXYqUaV/z+7LuZKuG6yJ/wJ6NiXpUDO6ig2QoFg==" saltValue="EHIcULTBahyK4QsUd3mmBw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="By6TI61ChMrPszIqfjkkswfLvKcrDN4tgpeqKlCezT0FGsNaw++XiLXJ6IF3pZZEuKpNInb906LcqyxLyouHdg==" saltValue="ebwqwCKucnxsH8e1i65GRA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:O14">
     <sortCondition ref="B3:B14"/>
   </sortState>

--- a/inputs/fr/legacy_default_params.xlsx
+++ b/inputs/fr/legacy_default_params.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee.altermatt\Documents\GitHub\Nutrition\inputs\fr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9D30038-5161-420A-AE90-8CF703DFC9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3467F7E3-9580-47EB-BF75-A75EABF03580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6570" yWindow="3480" windowWidth="31215" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Programmes population touchée" sheetId="14" r:id="rId1"/>
@@ -1258,20 +1258,20 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53" style="41" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="41" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.83203125" style="41" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.83203125" style="41" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.08203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="41" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.875" style="41" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.875" style="41" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.125" style="41" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="14.5" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>61</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>15</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="54" t="s">
         <v>30</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="54" t="s">
         <v>4</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="54" t="s">
         <v>3</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="54" t="s">
         <v>2</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="54" t="s">
         <v>42</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="54" t="s">
         <v>43</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="54" t="s">
         <v>47</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="54" t="s">
         <v>49</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="54" t="s">
         <v>50</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="54" t="s">
         <v>51</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="54" t="s">
         <v>52</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="54" t="s">
         <v>58</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="54" t="s">
         <v>59</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="54"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -1953,7 +1953,7 @@
       <c r="N16" s="46"/>
       <c r="O16" s="46"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
         <v>20</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43"/>
       <c r="B18" s="54" t="s">
         <v>28</v>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="34" t="s">
         <v>39</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="34" t="s">
         <v>40</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="55" t="s">
         <v>1</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="54" t="s">
         <v>45</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="54" t="s">
         <v>46</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="54" t="s">
         <v>48</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="54"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -2325,7 +2325,7 @@
       <c r="N25" s="46"/>
       <c r="O25" s="46"/>
     </row>
-    <row r="26" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="43" t="s">
         <v>14</v>
       </c>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="P26" s="56"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="35" t="s">
         <v>35</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="43"/>
       <c r="B28" s="35" t="s">
         <v>36</v>
@@ -2462,7 +2462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="35" t="s">
         <v>37</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="35" t="s">
         <v>38</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="54"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
@@ -2566,7 +2566,7 @@
       <c r="N31" s="46"/>
       <c r="O31" s="46"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="43" t="s">
         <v>60</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="54" t="s">
         <v>33</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="54" t="s">
         <v>34</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="54" t="s">
         <v>41</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="54" t="s">
         <v>44</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="42"/>
       <c r="B37" s="54" t="s">
         <v>53</v>
@@ -2834,7 +2834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="54" t="s">
         <v>54</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="54" t="s">
         <v>55</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="54" t="s">
         <v>56</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="54" t="s">
         <v>57</v>
       </c>
@@ -3011,7 +3011,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+yg64ijOHGPN6tJmBpnaELGe5uZ5VZV8jEL0WHdptXRpvuAefuvnVLTm7SEBOOfXRCnlQbb4DgD3XMtNAxAWRg==" saltValue="VzPIpgFss/pqv3xjyqF54A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Mg/81xXL6c5OJ9IUIR3BHwIwj9REzs63Zu9scl9ep5/IlzEFTvNNCcQwfvOTlkC14uZAggEsb3a4uQt6FdAnzg==" saltValue="m/xmJrMxb5cysCMDXY4lRg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B17:O24">
     <sortCondition ref="B17:B24"/>
   </sortState>
@@ -3030,15 +3030,15 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.08203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
     <col min="3" max="7" width="14" style="1" customWidth="1"/>
     <col min="8" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="33"/>
       <c r="C1" s="2" t="s">
@@ -3057,12 +3057,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="35" t="s">
         <v>51</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>153</v>
       </c>
@@ -3093,7 +3093,7 @@
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="34" t="s">
         <v>151</v>
       </c>
@@ -3114,7 +3114,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="APB7EeihqXRZfbm3FrKwDCt2QZ8TTo6kp082Y9oBK3sbjJsvkHUs5M3cQaiIrcHWKnIDpoBvVd1WYqcLkkYtmQ==" saltValue="BN2NsgrCwbCoimKFm8DY2w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="EK3KX7ssDp5fS3g8lvgCIkMj5m1fRDhhYQIPcZYbBc0Wgdp6fCebmA0UUbtQVS2YLNqsE/XeqoUi8RYaE4QNHg==" saltValue="0GGRH0RgIH11cyB3dSnBSA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -3131,20 +3131,20 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.58203125" style="54" customWidth="1"/>
+    <col min="1" max="1" width="47.625" style="54" customWidth="1"/>
     <col min="2" max="2" width="27.5" style="54" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="54" customWidth="1"/>
+    <col min="3" max="3" width="22.375" style="54" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="1"/>
-    <col min="8" max="8" width="15.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.875" style="1" customWidth="1"/>
     <col min="9" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="54" t="s">
         <v>52</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="54" t="s">
         <v>155</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>0.53134328358208949</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="54" t="s">
         <v>156</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>0.38507462686567184</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="54" t="s">
         <v>50</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="54" t="s">
         <v>156</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="54" t="s">
         <v>136</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="54" t="s">
         <v>156</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="54" t="s">
         <v>43</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="54" t="s">
         <v>156</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="54" t="s">
         <v>136</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="54" t="s">
         <v>156</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="54" t="s">
         <v>29</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="54" t="s">
         <v>156</v>
       </c>
@@ -3461,7 +3461,7 @@
       </c>
       <c r="I14" s="27"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="54" t="s">
         <v>136</v>
       </c>
@@ -3485,7 +3485,7 @@
       </c>
       <c r="I15" s="27"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="54" t="s">
         <v>156</v>
       </c>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="I16" s="27"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="54" t="s">
         <v>34</v>
       </c>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="I17" s="27"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C18" s="54" t="s">
         <v>155</v>
       </c>
@@ -3554,7 +3554,7 @@
       </c>
       <c r="I18" s="27"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="54" t="s">
         <v>32</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C20" s="54" t="s">
         <v>155</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="54" t="s">
         <v>33</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C22" s="54" t="s">
         <v>155</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="54" t="s">
         <v>56</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C24" s="54" t="s">
         <v>155</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C25" s="54" t="s">
         <v>156</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="54" t="s">
         <v>57</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C27" s="54" t="s">
         <v>155</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C28" s="54" t="s">
         <v>156</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="54" t="s">
         <v>55</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C30" s="54" t="s">
         <v>155</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C31" s="54" t="s">
         <v>156</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="54" t="s">
         <v>54</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C33" s="54" t="s">
         <v>155</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C34" s="54" t="s">
         <v>156</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="54" t="s">
         <v>53</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C36" s="54" t="s">
         <v>155</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C37" s="54" t="s">
         <v>156</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="54" t="s">
         <v>59</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C39" s="54" t="s">
         <v>155</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C40" s="54" t="s">
         <v>156</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="54" t="s">
         <v>108</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C42" s="54" t="s">
         <v>155</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C43" s="54" t="s">
         <v>156</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="54" t="s">
         <v>49</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C45" s="54" t="s">
         <v>155</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="54" t="s">
         <v>58</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C47" s="54" t="s">
         <v>155</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="54" t="s">
         <v>42</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C49" s="54" t="s">
         <v>155</v>
       </c>
@@ -4244,7 +4244,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="P5AaOsONGd3ZACKf39aCGnqSDpiMJLrZzrwVqr77P3driDFpakIhoDsd6pHZ24vIq8kdYu+aBR5E1T7FXRsj8g==" saltValue="1ju92d9jAezGBRAPNAZsvw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xrifB56WTQIJCuvczvrKUyxN6SCyUAemf63LHLKi/Q3Fnhn5nR5ELwWRVl4K3fvTApC2vze+z/n5ZG2Ft0Zj6A==" saltValue="UnPFXZAUOmuzT6baQ8yAZw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -4261,16 +4261,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.08203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.58203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.375" style="1" customWidth="1"/>
     <col min="4" max="7" width="15.5" style="1" customWidth="1"/>
     <col min="8" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>26</v>
       </c>
@@ -4292,7 +4292,7 @@
       </c>
       <c r="H1" s="30"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>28</v>
       </c>
@@ -4316,7 +4316,7 @@
       </c>
       <c r="H2" s="34"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>155</v>
       </c>
@@ -4334,7 +4334,7 @@
       </c>
       <c r="H3" s="37"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>46</v>
       </c>
@@ -4358,7 +4358,7 @@
       </c>
       <c r="H4" s="37"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="27"/>
       <c r="C5" s="1" t="s">
         <v>155</v>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="H5" s="34"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>45</v>
       </c>
@@ -4401,7 +4401,7 @@
       </c>
       <c r="H6" s="34"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="C7" s="1" t="s">
         <v>155</v>
@@ -4421,7 +4421,7 @@
       <c r="H7" s="37"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="S0QMjh/OPF1cqWlmdXRAsLwqd74fxpBVz+CVDPNlQxu0VDemlcf928FWzNuUNroo+9uehfKZCd2clN8csWITow==" saltValue="n6Z07edCgYDb/iI91JbjGQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="q0xNj3ISIQLbHzKxiSogCrXvk2RAAcdjqFbw4L85OlQWr5MGmmSurnSFl2nMrWfD4+95B2K2RsvQYJspL/zBcg==" saltValue="8AkwZOPzF22X90gQqzQeAA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4437,22 +4437,22 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="54" t="s">
         <v>27</v>
       </c>
@@ -4504,7 +4504,7 @@
       <c r="J2" s="50"/>
       <c r="K2" s="50"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="54" t="s">
         <v>28</v>
       </c>
@@ -4521,7 +4521,7 @@
       <c r="J3" s="50"/>
       <c r="K3" s="50"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="54" t="s">
         <v>29</v>
       </c>
@@ -4538,7 +4538,7 @@
       <c r="J4" s="50"/>
       <c r="K4" s="50"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="54" t="s">
         <v>30</v>
       </c>
@@ -4555,7 +4555,7 @@
       <c r="J5" s="50"/>
       <c r="K5" s="50"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="54" t="s">
         <v>31</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="54" t="s">
         <v>32</v>
       </c>
@@ -4593,7 +4593,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="50"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="54" t="s">
         <v>33</v>
       </c>
@@ -4612,7 +4612,7 @@
       <c r="J8" s="50"/>
       <c r="K8" s="50"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="54" t="s">
         <v>34</v>
       </c>
@@ -4631,7 +4631,7 @@
       <c r="J9" s="50"/>
       <c r="K9" s="50"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>35</v>
       </c>
@@ -4648,7 +4648,7 @@
       <c r="J10" s="50"/>
       <c r="K10" s="50"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
         <v>36</v>
       </c>
@@ -4665,7 +4665,7 @@
       <c r="J11" s="50"/>
       <c r="K11" s="50"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
         <v>37</v>
       </c>
@@ -4682,7 +4682,7 @@
       <c r="J12" s="50"/>
       <c r="K12" s="50"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
         <v>38</v>
       </c>
@@ -4699,7 +4699,7 @@
       <c r="J13" s="50"/>
       <c r="K13" s="50"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="34" t="s">
         <v>39</v>
       </c>
@@ -4718,7 +4718,7 @@
       <c r="J14" s="50"/>
       <c r="K14" s="50"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="34" t="s">
         <v>40</v>
       </c>
@@ -4737,7 +4737,7 @@
       <c r="J15" s="50"/>
       <c r="K15" s="50"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="54" t="s">
         <v>1</v>
       </c>
@@ -4758,7 +4758,7 @@
       <c r="J16" s="50"/>
       <c r="K16" s="50"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="54" t="s">
         <v>41</v>
       </c>
@@ -4775,7 +4775,7 @@
       <c r="J17" s="50"/>
       <c r="K17" s="50"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="54" t="s">
         <v>4</v>
       </c>
@@ -4794,7 +4794,7 @@
       <c r="J18" s="50"/>
       <c r="K18" s="50"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="54" t="s">
         <v>3</v>
       </c>
@@ -4813,7 +4813,7 @@
       <c r="J19" s="50"/>
       <c r="K19" s="50"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="54" t="s">
         <v>2</v>
       </c>
@@ -4832,7 +4832,7 @@
       <c r="J20" s="50"/>
       <c r="K20" s="50"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="54" t="s">
         <v>42</v>
       </c>
@@ -4851,7 +4851,7 @@
       <c r="J21" s="50"/>
       <c r="K21" s="50"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="54" t="s">
         <v>43</v>
       </c>
@@ -4872,7 +4872,7 @@
       <c r="J22" s="50"/>
       <c r="K22" s="50"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="54" t="s">
         <v>44</v>
       </c>
@@ -4891,7 +4891,7 @@
       <c r="J23" s="50"/>
       <c r="K23" s="50"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="54" t="s">
         <v>45</v>
       </c>
@@ -4908,7 +4908,7 @@
       <c r="J24" s="50"/>
       <c r="K24" s="50"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="54" t="s">
         <v>46</v>
       </c>
@@ -4925,7 +4925,7 @@
       <c r="J25" s="50"/>
       <c r="K25" s="50"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="54" t="s">
         <v>47</v>
       </c>
@@ -4942,7 +4942,7 @@
       <c r="J26" s="50"/>
       <c r="K26" s="50"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="54" t="s">
         <v>48</v>
       </c>
@@ -4961,7 +4961,7 @@
       <c r="J27" s="50"/>
       <c r="K27" s="50"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="54" t="s">
         <v>49</v>
       </c>
@@ -4978,7 +4978,7 @@
       <c r="J28" s="50"/>
       <c r="K28" s="50"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="54" t="s">
         <v>50</v>
       </c>
@@ -4997,7 +4997,7 @@
       <c r="J29" s="50"/>
       <c r="K29" s="50"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="54" t="s">
         <v>51</v>
       </c>
@@ -5014,7 +5014,7 @@
       <c r="J30" s="50"/>
       <c r="K30" s="50"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="54" t="s">
         <v>52</v>
       </c>
@@ -5033,7 +5033,7 @@
       <c r="J31" s="50"/>
       <c r="K31" s="50"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="54" t="s">
         <v>53</v>
       </c>
@@ -5052,7 +5052,7 @@
       <c r="J32" s="50"/>
       <c r="K32" s="50"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="54" t="s">
         <v>54</v>
       </c>
@@ -5071,7 +5071,7 @@
       <c r="J33" s="50"/>
       <c r="K33" s="50"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="54" t="s">
         <v>55</v>
       </c>
@@ -5090,7 +5090,7 @@
       <c r="J34" s="50"/>
       <c r="K34" s="50"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="54" t="s">
         <v>56</v>
       </c>
@@ -5109,7 +5109,7 @@
       <c r="J35" s="50"/>
       <c r="K35" s="50"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="54" t="s">
         <v>57</v>
       </c>
@@ -5128,7 +5128,7 @@
       <c r="J36" s="50"/>
       <c r="K36" s="50"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="54" t="s">
         <v>58</v>
       </c>
@@ -5145,7 +5145,7 @@
       <c r="J37" s="50"/>
       <c r="K37" s="50"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="54" t="s">
         <v>59</v>
       </c>
@@ -5167,7 +5167,7 @@
       <c r="K38" s="50"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="SBMm1NhWQhDqt6XiT+cy9bjo3f1QRIhDObMdUm/LOCuI16/qjDMQmpvechx7SEQdhDiHCphdeT7JhtsUE/ESiA==" saltValue="Cys6/4TphjhvYF1mPD4htA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nNHD5dPSAHy3TC9Ufedc1xtwZL+l/ivoDu+UlGOe5wpkLMpRVuZSu5TUhfZotztv3nlGrZXE07Kagt6evjQF3w==" saltValue="EXmvGI/BPtyCA3RZ9dgNJg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J38">
     <sortCondition ref="A2:A38"/>
   </sortState>
@@ -5186,22 +5186,22 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -5265,7 +5265,7 @@
       <c r="J2" s="50"/>
       <c r="K2" s="50"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -5294,7 +5294,7 @@
       <c r="J3" s="50"/>
       <c r="K3" s="50"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -5323,7 +5323,7 @@
       <c r="J4" s="50"/>
       <c r="K4" s="50"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -5352,7 +5352,7 @@
       <c r="J5" s="50"/>
       <c r="K5" s="50"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -5381,7 +5381,7 @@
       <c r="J6" s="50"/>
       <c r="K6" s="50"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -5402,7 +5402,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="50"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -5423,7 +5423,7 @@
       <c r="J8" s="50"/>
       <c r="K8" s="50"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -5444,7 +5444,7 @@
       <c r="J9" s="50"/>
       <c r="K9" s="50"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -5465,7 +5465,7 @@
       <c r="J10" s="50"/>
       <c r="K10" s="50"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -5544,7 +5544,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="J4MokOfuKr4XOInser1GmSkgcR2XHra4G98Zdv44i718mnrN0AOtJOZ6cED2J6ufjgQmJc7B6i/yGsZxXL3nSw==" saltValue="k0VO6kUdiCQaRbOkl5qk9Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qCJXJ8j6fFjZAHSLvneP7BXkY4dbxY1apFoYAB82S/4MZ5ZUOZN+QTr7381LsITKxrbWKbhie2fHmPjnfdy0Og==" saltValue="hupEX371fg7qQBVZIb5mnw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5560,15 +5560,15 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.08203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>80</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="57"/>
       <c r="C3" s="1" t="s">
         <v>75</v>
@@ -5642,7 +5642,7 @@
       </c>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="57"/>
       <c r="C4" s="1" t="s">
         <v>76</v>
@@ -5664,7 +5664,7 @@
       </c>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="57" t="s">
         <v>21</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="57"/>
       <c r="C6" s="1" t="s">
         <v>75</v>
@@ -5709,7 +5709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="57"/>
       <c r="C7" s="1" t="s">
         <v>76</v>
@@ -5730,7 +5730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="57" t="s">
         <v>16</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="57"/>
       <c r="C9" s="1" t="s">
         <v>75</v>
@@ -5774,7 +5774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="57"/>
       <c r="C10" s="1" t="s">
         <v>76</v>
@@ -5795,7 +5795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="57" t="s">
         <v>17</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="57"/>
       <c r="C12" s="1" t="s">
         <v>75</v>
@@ -5839,7 +5839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="57"/>
       <c r="C13" s="1" t="s">
         <v>76</v>
@@ -5860,7 +5860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="57" t="s">
         <v>18</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="57"/>
       <c r="C15" s="1" t="s">
         <v>75</v>
@@ -5904,7 +5904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="57"/>
       <c r="C16" s="1" t="s">
         <v>76</v>
@@ -5925,7 +5925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="38" t="s">
         <v>77</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>81</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="57"/>
       <c r="C20" s="1" t="s">
         <v>75</v>
@@ -5995,7 +5995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="57"/>
       <c r="C21" s="1" t="s">
         <v>76</v>
@@ -6016,7 +6016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="57" t="s">
         <v>21</v>
       </c>
@@ -6039,7 +6039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="57"/>
       <c r="C23" s="1" t="s">
         <v>75</v>
@@ -6060,7 +6060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="57"/>
       <c r="C24" s="1" t="s">
         <v>76</v>
@@ -6081,7 +6081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="57" t="s">
         <v>16</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="57"/>
       <c r="C26" s="1" t="s">
         <v>75</v>
@@ -6125,7 +6125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="57"/>
       <c r="C27" s="1" t="s">
         <v>76</v>
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="57" t="s">
         <v>17</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="57"/>
       <c r="C29" s="1" t="s">
         <v>75</v>
@@ -6190,7 +6190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="57"/>
       <c r="C30" s="1" t="s">
         <v>76</v>
@@ -6211,7 +6211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="57" t="s">
         <v>18</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="57"/>
       <c r="C32" s="1" t="s">
         <v>75</v>
@@ -6255,7 +6255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="57"/>
       <c r="C33" s="1" t="s">
         <v>76</v>
@@ -6276,7 +6276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="38" t="s">
         <v>77</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="40" t="s">
         <v>82</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="57"/>
       <c r="C37" s="1" t="s">
         <v>75</v>
@@ -6346,7 +6346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="57"/>
       <c r="C38" s="1" t="s">
         <v>76</v>
@@ -6367,7 +6367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="57" t="s">
         <v>21</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="57"/>
       <c r="C40" s="1" t="s">
         <v>75</v>
@@ -6411,7 +6411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="57"/>
       <c r="C41" s="1" t="s">
         <v>76</v>
@@ -6432,7 +6432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="57" t="s">
         <v>16</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="57"/>
       <c r="C43" s="1" t="s">
         <v>75</v>
@@ -6476,7 +6476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="57"/>
       <c r="C44" s="1" t="s">
         <v>76</v>
@@ -6497,7 +6497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="57" t="s">
         <v>17</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="57"/>
       <c r="C46" s="1" t="s">
         <v>75</v>
@@ -6541,7 +6541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="57"/>
       <c r="C47" s="1" t="s">
         <v>76</v>
@@ -6562,7 +6562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="57" t="s">
         <v>18</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="57"/>
       <c r="C49" s="1" t="s">
         <v>75</v>
@@ -6606,7 +6606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="57"/>
       <c r="C50" s="1" t="s">
         <v>76</v>
@@ -6627,7 +6627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="39" t="s">
         <v>77</v>
       </c>
@@ -6651,7 +6651,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="m91wtfnTC73JzF2q2kOdkD6VCFaUAjSk9hfSNjWIPNN0nOWl5exsHC5I1tElR/Z8NSLsGjxf3QMT1ZH5T4aTVA==" saltValue="g7lNNj1LKu2Z9iBj1mTm4g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fikuYEiy3XogJqhOj1Qs4VIrm9ES9kcV/rVbJ0fipOp6HPhJUpfnTeWf7+JOS4ppHV0qO+MbpaJM78fiGesDug==" saltValue="4M996Nvi+npfnr4+nVSW2g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="15">
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
@@ -6685,22 +6685,22 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.58203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="1" customWidth="1"/>
     <col min="5" max="6" width="13.5" style="1" customWidth="1"/>
     <col min="7" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="24"/>
       <c r="C2" s="23" t="s">
         <v>90</v>
@@ -6715,7 +6715,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>100</v>
       </c>
@@ -6725,7 +6725,7 @@
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="19" t="s">
         <v>83</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="19" t="s">
         <v>84</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="19" t="s">
         <v>85</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="19" t="s">
         <v>86</v>
       </c>
@@ -6793,13 +6793,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="13"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>107</v>
       </c>
@@ -6817,14 +6817,14 @@
       </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="13"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
         <v>101</v>
       </c>
@@ -6834,7 +6834,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>102</v>
       </c>
@@ -6844,7 +6844,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>103</v>
       </c>
@@ -6862,7 +6862,7 @@
       </c>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>104</v>
       </c>
@@ -6880,7 +6880,7 @@
       </c>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>105</v>
       </c>
@@ -6898,7 +6898,7 @@
       </c>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="12"/>
@@ -6907,7 +6907,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>106</v>
       </c>
@@ -6918,7 +6918,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
         <v>91</v>
       </c>
@@ -6936,7 +6936,7 @@
       </c>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
         <v>92</v>
       </c>
@@ -6954,7 +6954,7 @@
       </c>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
         <v>93</v>
       </c>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
         <v>94</v>
       </c>
@@ -6990,7 +6990,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
         <v>95</v>
       </c>
@@ -7007,7 +7007,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="6" t="s">
         <v>96</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
         <v>97</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
         <v>98</v>
       </c>
@@ -7058,14 +7058,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pcd1LN7Tag8asWGAnXk/t1WcPMVruRVvYHBYU4uxxsbHEsBmrY4JxzjWfhFIa4FEoUDf5a/uF2fJMKqkJDD6+Q==" saltValue="eIweKZNNZk4g3f5oBUAFLg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="O4eYOQ4gXV5kud85uSlCsaG+VtbFLGq1CWvUILeDVdTnrMgSBa13xgg33aiefCRJdf351D2ylM9FWJoxQbqLZA==" saltValue="Uvllkch0subEhmvMoIWVfQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -7082,23 +7082,23 @@
       <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.08203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" customWidth="1"/>
-    <col min="4" max="8" width="13.33203125" style="1" customWidth="1"/>
-    <col min="9" max="12" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="15.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="13.375" style="1" customWidth="1"/>
+    <col min="9" max="12" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="14" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>67</v>
       </c>
@@ -7132,7 +7132,7 @@
       <c r="O2" s="28"/>
       <c r="P2" s="28"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>64</v>
@@ -7164,7 +7164,7 @@
       <c r="O3" s="25"/>
       <c r="P3" s="25"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C4" s="26" t="s">
         <v>124</v>
       </c>
@@ -7192,7 +7192,7 @@
       <c r="O4" s="25"/>
       <c r="P4" s="25"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C5" s="26" t="s">
         <v>125</v>
       </c>
@@ -7220,7 +7220,7 @@
       <c r="O5" s="25"/>
       <c r="P5" s="25"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C6" s="26" t="s">
         <v>126</v>
       </c>
@@ -7248,7 +7248,7 @@
       <c r="O6" s="25"/>
       <c r="P6" s="25"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>108</v>
       </c>
@@ -7279,7 +7279,7 @@
       <c r="O7" s="25"/>
       <c r="P7" s="25"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="26" t="s">
         <v>124</v>
       </c>
@@ -7307,7 +7307,7 @@
       <c r="O8" s="25"/>
       <c r="P8" s="25"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="26" t="s">
         <v>125</v>
       </c>
@@ -7335,7 +7335,7 @@
       <c r="O9" s="25"/>
       <c r="P9" s="25"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="26" t="s">
         <v>126</v>
       </c>
@@ -7363,7 +7363,7 @@
       <c r="O10" s="25"/>
       <c r="P10" s="25"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>110</v>
       </c>
@@ -7394,7 +7394,7 @@
       <c r="O11" s="25"/>
       <c r="P11" s="25"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="26" t="s">
         <v>124</v>
       </c>
@@ -7422,7 +7422,7 @@
       <c r="O12" s="25"/>
       <c r="P12" s="25"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="26" t="s">
         <v>125</v>
       </c>
@@ -7450,7 +7450,7 @@
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="26" t="s">
         <v>126</v>
       </c>
@@ -7478,7 +7478,7 @@
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>111</v>
       </c>
@@ -7509,7 +7509,7 @@
       <c r="O15" s="25"/>
       <c r="P15" s="25"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C16" s="26" t="s">
         <v>124</v>
       </c>
@@ -7537,7 +7537,7 @@
       <c r="O16" s="25"/>
       <c r="P16" s="25"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C17" s="26" t="s">
         <v>125</v>
       </c>
@@ -7565,7 +7565,7 @@
       <c r="O17" s="25"/>
       <c r="P17" s="25"/>
     </row>
-    <row r="18" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="26" t="s">
         <v>126</v>
       </c>
@@ -7593,7 +7593,7 @@
       <c r="O18" s="25"/>
       <c r="P18" s="25"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="27" t="s">
         <v>109</v>
       </c>
@@ -7624,7 +7624,7 @@
       <c r="O19" s="25"/>
       <c r="P19" s="25"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C20" s="26" t="s">
         <v>124</v>
       </c>
@@ -7652,7 +7652,7 @@
       <c r="O20" s="25"/>
       <c r="P20" s="25"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C21" s="26" t="s">
         <v>125</v>
       </c>
@@ -7680,7 +7680,7 @@
       <c r="O21" s="25"/>
       <c r="P21" s="25"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C22" s="26" t="s">
         <v>126</v>
       </c>
@@ -7708,7 +7708,7 @@
       <c r="O22" s="25"/>
       <c r="P22" s="25"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" s="27" t="s">
         <v>113</v>
       </c>
@@ -7739,7 +7739,7 @@
       <c r="O23" s="25"/>
       <c r="P23" s="25"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C24" s="26" t="s">
         <v>124</v>
       </c>
@@ -7767,7 +7767,7 @@
       <c r="O24" s="25"/>
       <c r="P24" s="25"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C25" s="26" t="s">
         <v>125</v>
       </c>
@@ -7795,7 +7795,7 @@
       <c r="O25" s="25"/>
       <c r="P25" s="25"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C26" s="26" t="s">
         <v>126</v>
       </c>
@@ -7823,12 +7823,12 @@
       <c r="O26" s="25"/>
       <c r="P26" s="25"/>
     </row>
-    <row r="28" spans="1:16" s="14" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="27" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="31" t="s">
         <v>6</v>
       </c>
@@ -7862,7 +7862,7 @@
       <c r="O29" s="28"/>
       <c r="P29" s="28"/>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="1" t="s">
         <v>64</v>
@@ -7894,7 +7894,7 @@
       <c r="O30" s="25"/>
       <c r="P30" s="25"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C31" s="26" t="s">
         <v>124</v>
       </c>
@@ -7922,7 +7922,7 @@
       <c r="O31" s="25"/>
       <c r="P31" s="25"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C32" s="26" t="s">
         <v>136</v>
       </c>
@@ -7950,7 +7950,7 @@
       <c r="O32" s="25"/>
       <c r="P32" s="25"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="26" t="s">
         <v>135</v>
       </c>
@@ -7978,7 +7978,7 @@
       <c r="O33" s="25"/>
       <c r="P33" s="25"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>108</v>
       </c>
@@ -8009,7 +8009,7 @@
       <c r="O34" s="25"/>
       <c r="P34" s="25"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="26" t="s">
         <v>124</v>
       </c>
@@ -8037,7 +8037,7 @@
       <c r="O35" s="25"/>
       <c r="P35" s="25"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C36" s="26" t="s">
         <v>136</v>
       </c>
@@ -8065,7 +8065,7 @@
       <c r="O36" s="25"/>
       <c r="P36" s="25"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C37" s="26" t="s">
         <v>135</v>
       </c>
@@ -8093,7 +8093,7 @@
       <c r="O37" s="25"/>
       <c r="P37" s="25"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>110</v>
       </c>
@@ -8124,7 +8124,7 @@
       <c r="O38" s="25"/>
       <c r="P38" s="25"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="26" t="s">
         <v>124</v>
       </c>
@@ -8152,7 +8152,7 @@
       <c r="O39" s="25"/>
       <c r="P39" s="25"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="26" t="s">
         <v>136</v>
       </c>
@@ -8180,7 +8180,7 @@
       <c r="O40" s="25"/>
       <c r="P40" s="25"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="26" t="s">
         <v>135</v>
       </c>
@@ -8208,7 +8208,7 @@
       <c r="O41" s="25"/>
       <c r="P41" s="25"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>111</v>
       </c>
@@ -8239,7 +8239,7 @@
       <c r="O42" s="25"/>
       <c r="P42" s="25"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="26" t="s">
         <v>124</v>
       </c>
@@ -8267,7 +8267,7 @@
       <c r="O43" s="25"/>
       <c r="P43" s="25"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="26" t="s">
         <v>136</v>
       </c>
@@ -8295,7 +8295,7 @@
       <c r="O44" s="25"/>
       <c r="P44" s="25"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="26" t="s">
         <v>135</v>
       </c>
@@ -8323,7 +8323,7 @@
       <c r="O45" s="25"/>
       <c r="P45" s="25"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>109</v>
       </c>
@@ -8354,7 +8354,7 @@
       <c r="O46" s="25"/>
       <c r="P46" s="25"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="26" t="s">
         <v>124</v>
       </c>
@@ -8382,7 +8382,7 @@
       <c r="O47" s="25"/>
       <c r="P47" s="25"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="26" t="s">
         <v>136</v>
       </c>
@@ -8410,7 +8410,7 @@
       <c r="O48" s="25"/>
       <c r="P48" s="25"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C49" s="26" t="s">
         <v>135</v>
       </c>
@@ -8438,7 +8438,7 @@
       <c r="O49" s="25"/>
       <c r="P49" s="25"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>113</v>
       </c>
@@ -8469,7 +8469,7 @@
       <c r="O50" s="25"/>
       <c r="P50" s="25"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C51" s="26" t="s">
         <v>124</v>
       </c>
@@ -8497,7 +8497,7 @@
       <c r="O51" s="25"/>
       <c r="P51" s="25"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C52" s="26" t="s">
         <v>136</v>
       </c>
@@ -8525,7 +8525,7 @@
       <c r="O52" s="25"/>
       <c r="P52" s="25"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C53" s="26" t="s">
         <v>135</v>
       </c>
@@ -8553,16 +8553,16 @@
       <c r="O53" s="25"/>
       <c r="P53" s="25"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C54" s="26"/>
       <c r="D54" s="26"/>
     </row>
-    <row r="55" spans="1:16" s="14" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="18" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="27" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="31" t="s">
         <v>65</v>
       </c>
@@ -8590,7 +8590,7 @@
       <c r="O56" s="28"/>
       <c r="P56" s="28"/>
     </row>
-    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="1" t="s">
         <v>114</v>
@@ -8616,7 +8616,7 @@
       <c r="O57" s="25"/>
       <c r="P57" s="25"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C58" s="26" t="s">
         <v>131</v>
       </c>
@@ -8638,7 +8638,7 @@
       <c r="O58" s="25"/>
       <c r="P58" s="25"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>115</v>
       </c>
@@ -8663,7 +8663,7 @@
       <c r="O59" s="25"/>
       <c r="P59" s="25"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C60" s="26" t="s">
         <v>131</v>
       </c>
@@ -8685,7 +8685,7 @@
       <c r="O60" s="25"/>
       <c r="P60" s="25"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>116</v>
       </c>
@@ -8710,7 +8710,7 @@
       <c r="O61" s="25"/>
       <c r="P61" s="25"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C62" s="26" t="s">
         <v>131</v>
       </c>
@@ -8732,16 +8732,16 @@
       <c r="O62" s="25"/>
       <c r="P62" s="25"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C63" s="26"/>
       <c r="D63" s="26"/>
     </row>
-    <row r="64" spans="1:16" s="14" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="18" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="27" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="31" t="s">
         <v>66</v>
       </c>
@@ -8775,7 +8775,7 @@
       <c r="O65" s="28"/>
       <c r="P65" s="28"/>
     </row>
-    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="51"/>
       <c r="B66" s="1" t="s">
         <v>91</v>
@@ -8807,7 +8807,7 @@
       <c r="O66" s="25"/>
       <c r="P66" s="25"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C67" s="26" t="s">
         <v>118</v>
       </c>
@@ -8835,7 +8835,7 @@
       <c r="O67" s="25"/>
       <c r="P67" s="25"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C68" s="26" t="s">
         <v>119</v>
       </c>
@@ -8863,7 +8863,7 @@
       <c r="O68" s="25"/>
       <c r="P68" s="25"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C69" s="26" t="s">
         <v>120</v>
       </c>
@@ -8891,7 +8891,7 @@
       <c r="O69" s="25"/>
       <c r="P69" s="25"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
         <v>92</v>
       </c>
@@ -8922,7 +8922,7 @@
       <c r="O70" s="25"/>
       <c r="P70" s="25"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C71" s="26" t="s">
         <v>118</v>
       </c>
@@ -8950,7 +8950,7 @@
       <c r="O71" s="25"/>
       <c r="P71" s="25"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C72" s="26" t="s">
         <v>119</v>
       </c>
@@ -8978,7 +8978,7 @@
       <c r="O72" s="25"/>
       <c r="P72" s="25"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C73" s="26" t="s">
         <v>120</v>
       </c>
@@ -9006,7 +9006,7 @@
       <c r="O73" s="25"/>
       <c r="P73" s="25"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
         <v>93</v>
       </c>
@@ -9037,7 +9037,7 @@
       <c r="O74" s="25"/>
       <c r="P74" s="25"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C75" s="26" t="s">
         <v>118</v>
       </c>
@@ -9065,7 +9065,7 @@
       <c r="O75" s="25"/>
       <c r="P75" s="25"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C76" s="26" t="s">
         <v>119</v>
       </c>
@@ -9093,7 +9093,7 @@
       <c r="O76" s="25"/>
       <c r="P76" s="25"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C77" s="26" t="s">
         <v>120</v>
       </c>
@@ -9121,7 +9121,7 @@
       <c r="O77" s="25"/>
       <c r="P77" s="25"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
         <v>95</v>
       </c>
@@ -9152,7 +9152,7 @@
       <c r="O78" s="25"/>
       <c r="P78" s="25"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C79" s="26" t="s">
         <v>118</v>
       </c>
@@ -9180,7 +9180,7 @@
       <c r="O79" s="25"/>
       <c r="P79" s="25"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C80" s="26" t="s">
         <v>119</v>
       </c>
@@ -9208,7 +9208,7 @@
       <c r="O80" s="25"/>
       <c r="P80" s="25"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C81" s="26" t="s">
         <v>120</v>
       </c>
@@ -9236,7 +9236,7 @@
       <c r="O81" s="25"/>
       <c r="P81" s="25"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
         <v>64</v>
       </c>
@@ -9267,7 +9267,7 @@
       <c r="O82" s="25"/>
       <c r="P82" s="25"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C83" s="26" t="s">
         <v>118</v>
       </c>
@@ -9295,7 +9295,7 @@
       <c r="O83" s="25"/>
       <c r="P83" s="25"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C84" s="26" t="s">
         <v>119</v>
       </c>
@@ -9323,7 +9323,7 @@
       <c r="O84" s="25"/>
       <c r="P84" s="25"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C85" s="26" t="s">
         <v>120</v>
       </c>
@@ -9351,7 +9351,7 @@
       <c r="O85" s="25"/>
       <c r="P85" s="25"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
         <v>108</v>
       </c>
@@ -9382,7 +9382,7 @@
       <c r="O86" s="25"/>
       <c r="P86" s="25"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C87" s="26" t="s">
         <v>118</v>
       </c>
@@ -9410,7 +9410,7 @@
       <c r="O87" s="25"/>
       <c r="P87" s="25"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C88" s="26" t="s">
         <v>119</v>
       </c>
@@ -9438,7 +9438,7 @@
       <c r="O88" s="25"/>
       <c r="P88" s="25"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C89" s="26" t="s">
         <v>120</v>
       </c>
@@ -9466,7 +9466,7 @@
       <c r="O89" s="25"/>
       <c r="P89" s="25"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
         <v>110</v>
       </c>
@@ -9497,7 +9497,7 @@
       <c r="O90" s="25"/>
       <c r="P90" s="25"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C91" s="26" t="s">
         <v>118</v>
       </c>
@@ -9525,7 +9525,7 @@
       <c r="O91" s="25"/>
       <c r="P91" s="25"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C92" s="26" t="s">
         <v>119</v>
       </c>
@@ -9553,7 +9553,7 @@
       <c r="O92" s="25"/>
       <c r="P92" s="25"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C93" s="26" t="s">
         <v>120</v>
       </c>
@@ -9581,7 +9581,7 @@
       <c r="O93" s="25"/>
       <c r="P93" s="25"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="1" t="s">
         <v>109</v>
       </c>
@@ -9612,7 +9612,7 @@
       <c r="O94" s="25"/>
       <c r="P94" s="25"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C95" s="26" t="s">
         <v>118</v>
       </c>
@@ -9640,7 +9640,7 @@
       <c r="O95" s="25"/>
       <c r="P95" s="25"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C96" s="26" t="s">
         <v>119</v>
       </c>
@@ -9668,7 +9668,7 @@
       <c r="O96" s="25"/>
       <c r="P96" s="25"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C97" s="26" t="s">
         <v>120</v>
       </c>
@@ -9696,7 +9696,7 @@
       <c r="O97" s="25"/>
       <c r="P97" s="25"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B98" s="1" t="s">
         <v>112</v>
       </c>
@@ -9727,7 +9727,7 @@
       <c r="O98" s="25"/>
       <c r="P98" s="25"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C99" s="26" t="s">
         <v>118</v>
       </c>
@@ -9755,7 +9755,7 @@
       <c r="O99" s="25"/>
       <c r="P99" s="25"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C100" s="26" t="s">
         <v>119</v>
       </c>
@@ -9783,7 +9783,7 @@
       <c r="O100" s="25"/>
       <c r="P100" s="25"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C101" s="26" t="s">
         <v>120</v>
       </c>
@@ -9811,12 +9811,12 @@
       <c r="O101" s="25"/>
       <c r="P101" s="25"/>
     </row>
-    <row r="103" spans="1:16" s="14" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="18" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="27" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="31" t="s">
         <v>64</v>
       </c>
@@ -9850,7 +9850,7 @@
       <c r="O104" s="28"/>
       <c r="P104" s="28"/>
     </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
       <c r="B105" s="27"/>
       <c r="C105" s="26" t="s">
@@ -9880,7 +9880,7 @@
       <c r="O105" s="25"/>
       <c r="P105" s="25"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C106" s="26" t="s">
         <v>118</v>
       </c>
@@ -9908,7 +9908,7 @@
       <c r="O106" s="25"/>
       <c r="P106" s="25"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C107" s="26" t="s">
         <v>119</v>
       </c>
@@ -9936,7 +9936,7 @@
       <c r="O107" s="25"/>
       <c r="P107" s="25"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C108" s="26" t="s">
         <v>120</v>
       </c>
@@ -9964,11 +9964,11 @@
       <c r="O108" s="25"/>
       <c r="P108" s="25"/>
     </row>
-    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/pEOrUHyyXIWTwMbb5m7Hjelb67sFDAji2hF+T0QYzeqiTbjF9z2xEwLXSN808xfobPUPnvzNys3fvIjzWEdmw==" saltValue="tJRIkzOL20Lr323kBmnWyg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UjE5o9cQeNkLFk66Mc0WitpyOSdI2TSnjoth8w84MwXxUQIgA7I3LGZP4nLScr0PGNpssxfL5Agl8K/le1Zbog==" saltValue="domV2Mc3GjCgTSbP1jGUGw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -9985,24 +9985,24 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.08203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="40" style="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.375" style="1" customWidth="1"/>
     <col min="8" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
         <v>7</v>
       </c>
@@ -10023,7 +10023,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>138</v>
       </c>
@@ -10043,7 +10043,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="6" t="s">
         <v>139</v>
@@ -10064,12 +10064,12 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>50</v>
       </c>
@@ -10089,7 +10089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>43</v>
       </c>
@@ -10109,7 +10109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>59</v>
       </c>
@@ -10129,7 +10129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -10137,12 +10137,12 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="3" t="s">
         <v>42</v>
@@ -10163,16 +10163,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="51" t="s">
         <v>6</v>
       </c>
@@ -10195,7 +10195,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="6" t="s">
         <v>145</v>
@@ -10216,7 +10216,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="51" t="s">
         <v>65</v>
       </c>
@@ -10239,13 +10239,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="43" t="s">
         <v>10</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>31</v>
       </c>
@@ -10277,7 +10277,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="e+4HfAPFbxBbhUmnb0Hs/9P0XPwpnPG0zhvAr+WRiVnAutjU7arud7KEonZz+VnQKZ/nCsJObAJRdXqh7oOLag==" saltValue="fs9ZZeQlniLNcpeVbf2Pdg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kLEj7rpl8ATcBlFwV6oTGttYPjBKYqL4+HDgH9G1Y6a4MkizLMjT5mUQpUM32zjkZIFz/gdzgoko7XwNwOkvlg==" saltValue="zQ5XErgW//OCb5lPlPh6lw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -10295,7 +10295,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47" style="1" customWidth="1"/>
     <col min="2" max="6" width="14.5" style="1"/>
@@ -10304,7 +10304,7 @@
     <col min="9" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>26</v>
       </c>
@@ -10322,7 +10322,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>27</v>
       </c>
@@ -10342,7 +10342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
       <c r="B3" s="34" t="s">
         <v>148</v>
@@ -10360,7 +10360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
         <v>39</v>
       </c>
@@ -10380,7 +10380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34"/>
       <c r="B5" s="34" t="s">
         <v>148</v>
@@ -10398,7 +10398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
         <v>40</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="34"/>
       <c r="B7" s="34" t="s">
         <v>148</v>
@@ -10436,7 +10436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="34" t="s">
         <v>1</v>
       </c>
@@ -10456,7 +10456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="34"/>
       <c r="B9" s="34" t="s">
         <v>148</v>
@@ -10474,7 +10474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="34" t="s">
         <v>44</v>
       </c>
@@ -10494,7 +10494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="34"/>
       <c r="B11" s="34" t="s">
         <v>148</v>
@@ -10512,7 +10512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="34" t="s">
         <v>48</v>
       </c>
@@ -10532,7 +10532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="34"/>
       <c r="B13" s="34" t="s">
         <v>148</v>
@@ -10550,14 +10550,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="34"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="34"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Wnd4t+jnOmvFeUErYsA35ef1tmSMOg1ZJHdAmoaPlgOpkpj1sNcoEMI4p6ByaNr0aWFSqfOwjyHaTlyNQVPNHg==" saltValue="ZQ6DPvDQSnLmy8g9wNPb4Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FDcrqoJZAXALMlxnSMGIfrd9wpX253B6E0vZxF7PclOBkAFk7FXmc+CO67vNfLLZuA3O/9WrHLZIBz+YY46geQ==" saltValue="L7LgxyBfi9/pfWxZPjXTIg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -10574,15 +10574,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="53" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="13.5" style="1" customWidth="1"/>
     <col min="16" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="22" t="s">
@@ -10625,12 +10625,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="35" t="s">
         <v>30</v>
       </c>
@@ -10674,7 +10674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="35" t="s">
         <v>35</v>
       </c>
@@ -10718,7 +10718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="35" t="s">
         <v>36</v>
       </c>
@@ -10762,7 +10762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="35" t="s">
         <v>37</v>
       </c>
@@ -10806,7 +10806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
         <v>38</v>
       </c>
@@ -10850,7 +10850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="34" t="s">
         <v>39</v>
       </c>
@@ -10894,7 +10894,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="34" t="s">
         <v>40</v>
       </c>
@@ -10938,7 +10938,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="35" t="s">
         <v>1</v>
       </c>
@@ -10982,7 +10982,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
         <v>43</v>
       </c>
@@ -11026,7 +11026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="35" t="s">
         <v>44</v>
       </c>
@@ -11070,7 +11070,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="35" t="s">
         <v>47</v>
       </c>
@@ -11114,7 +11114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="35" t="s">
         <v>48</v>
       </c>
@@ -11158,13 +11158,13 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B16" s="35"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="34" t="s">
         <v>32</v>
       </c>
@@ -11208,7 +11208,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="34" t="s">
         <v>33</v>
       </c>
@@ -11252,7 +11252,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="34" t="s">
         <v>34</v>
       </c>
@@ -11296,7 +11296,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="34" t="s">
         <v>41</v>
       </c>
@@ -11340,20 +11340,20 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="26"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="26"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="26"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="26"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="By6TI61ChMrPszIqfjkkswfLvKcrDN4tgpeqKlCezT0FGsNaw++XiLXJ6IF3pZZEuKpNInb906LcqyxLyouHdg==" saltValue="ebwqwCKucnxsH8e1i65GRA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="O+dun9QUr2jiHAP/ZifR8a2dVMUzvw0aatWLIogmI9NB4QUNM0bEW/L1h6iwRSVhl5hwGlGnwdVl3E/wMiemsQ==" saltValue="x3kCQFEJ2GhJ5/JtoSI/qg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:O14">
     <sortCondition ref="B3:B14"/>
   </sortState>

--- a/inputs/fr/legacy_default_params.xlsx
+++ b/inputs/fr/legacy_default_params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3467F7E3-9580-47EB-BF75-A75EABF03580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58BECAEE-B2EF-49FE-8908-ABE4514697B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6570" yWindow="3480" windowWidth="31215" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="3600" windowWidth="34980" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Programmes population touchée" sheetId="14" r:id="rId1"/>
@@ -562,7 +562,7 @@
     <t>Modéré</t>
   </si>
   <si>
-    <t>Elevé</t>
+    <t>Élevé</t>
   </si>
   <si>
     <t>Niveau WHZ</t>
@@ -3011,7 +3011,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Mg/81xXL6c5OJ9IUIR3BHwIwj9REzs63Zu9scl9ep5/IlzEFTvNNCcQwfvOTlkC14uZAggEsb3a4uQt6FdAnzg==" saltValue="m/xmJrMxb5cysCMDXY4lRg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="cmbo9KgrBU2T9HKFwDfEUXuJ7DDtpdky6FtpeZRW4/Eeya68JOmlAnl+Vu74BSdnND0YohNPpBVnGi/2IMbVvQ==" saltValue="4CWbFkPuLSntynjd7hCeaw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B17:O24">
     <sortCondition ref="B17:B24"/>
   </sortState>
@@ -3114,7 +3114,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EK3KX7ssDp5fS3g8lvgCIkMj5m1fRDhhYQIPcZYbBc0Wgdp6fCebmA0UUbtQVS2YLNqsE/XeqoUi8RYaE4QNHg==" saltValue="0GGRH0RgIH11cyB3dSnBSA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="YvSUJx/8W9r6oKdTu80p1atTfak/jp6khy1xiOFp3Tbjyfno24Iwgx092/MwTgcdg9GuLRwqnad4jEbOXULu2A==" saltValue="noW3fhKR0O5kjZhDaw3eFg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -4244,7 +4244,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xrifB56WTQIJCuvczvrKUyxN6SCyUAemf63LHLKi/Q3Fnhn5nR5ELwWRVl4K3fvTApC2vze+z/n5ZG2Ft0Zj6A==" saltValue="UnPFXZAUOmuzT6baQ8yAZw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fMIj4dsqezEq5zv7gUzTZ4uHTiNnVqyhZbcQE4e4VGxZmBaHW5k9vgEugSNDI9NKA8TvqTOe9otcp+nMrGuHkQ==" saltValue="6bdhbSn331pn+DKIihz5aQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -4421,7 +4421,7 @@
       <c r="H7" s="37"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="q0xNj3ISIQLbHzKxiSogCrXvk2RAAcdjqFbw4L85OlQWr5MGmmSurnSFl2nMrWfD4+95B2K2RsvQYJspL/zBcg==" saltValue="8AkwZOPzF22X90gQqzQeAA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WJODj/qJEduGBbT+J0LQuLnFn8i6jSqEtzUbLsQ0p5ht68bJW71gGuCSQh/Q1EwqzU703WpYKM/U+HRtvsF9QQ==" saltValue="c4LkfvV18gudtIHekqoBjA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5167,7 +5167,7 @@
       <c r="K38" s="50"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nNHD5dPSAHy3TC9Ufedc1xtwZL+l/ivoDu+UlGOe5wpkLMpRVuZSu5TUhfZotztv3nlGrZXE07Kagt6evjQF3w==" saltValue="EXmvGI/BPtyCA3RZ9dgNJg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="v1ivEaMhahLUpAdyedo+VwF5akW+dV8q4oENdjZpsXIV0s/wLXVF+b5avPq5rdLocEfkxuuric4Q1T4hLXpK3w==" saltValue="NWz8pycUNnx2Rahc1SjFVw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J38">
     <sortCondition ref="A2:A38"/>
   </sortState>
@@ -5544,7 +5544,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qCJXJ8j6fFjZAHSLvneP7BXkY4dbxY1apFoYAB82S/4MZ5ZUOZN+QTr7381LsITKxrbWKbhie2fHmPjnfdy0Og==" saltValue="hupEX371fg7qQBVZIb5mnw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="A/XZldpnolXruArEKejQQ6+zAtJ8rfO4aXGim5bEv7fi7MhVmVIkPMF8Tbwnb5jFPmroii+UUPalguFXw2K1qQ==" saltValue="ZUtYM9P/7AAxChrJSpGxzw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6651,7 +6651,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fikuYEiy3XogJqhOj1Qs4VIrm9ES9kcV/rVbJ0fipOp6HPhJUpfnTeWf7+JOS4ppHV0qO+MbpaJM78fiGesDug==" saltValue="4M996Nvi+npfnr4+nVSW2g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9HWQ+4n40/FaufC4gOXRLTULoRvaEdNTuZRiOQMkQb5eaGdNncDlj9oI5pOLwPmqMpQrKM4KWF6SKjYYvQvIeQ==" saltValue="HDe/IyN6960kM4PIxR+Nlw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="15">
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
@@ -7065,7 +7065,7 @@
       <c r="B28" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="O4eYOQ4gXV5kud85uSlCsaG+VtbFLGq1CWvUILeDVdTnrMgSBa13xgg33aiefCRJdf351D2ylM9FWJoxQbqLZA==" saltValue="Uvllkch0subEhmvMoIWVfQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="gm3nVtI3/iadEgcap5eIyZzkAHaPtP/bOLMZK+kBIkComs27YCFvDFV0wHeZS86hCczp7Cfs05Z2NO9rU+cKNQ==" saltValue="pY/0q4sUrqfm4BmfHBSzEg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -9968,7 +9968,7 @@
       <c r="A111" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UjE5o9cQeNkLFk66Mc0WitpyOSdI2TSnjoth8w84MwXxUQIgA7I3LGZP4nLScr0PGNpssxfL5Agl8K/le1Zbog==" saltValue="domV2Mc3GjCgTSbP1jGUGw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="CrGXr5w71j/QY9a46UbAaxyCWyhZVCraghQ+9wE/w5jrVTTS4WmB5MYWRcvzAkBaatF/lruPk3tMc8Vkl4EuUQ==" saltValue="LCOiIEjfHIeZ0/Muskh1sA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -10277,7 +10277,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kLEj7rpl8ATcBlFwV6oTGttYPjBKYqL4+HDgH9G1Y6a4MkizLMjT5mUQpUM32zjkZIFz/gdzgoko7XwNwOkvlg==" saltValue="zQ5XErgW//OCb5lPlPh6lw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="q22If9taeHTfnfOj9hGDqWeGZ7xOmDmgl73CgMBOXO0V9bRl5c3R5R4liMz+YDOfEtMHolyrvW271vfctsBthg==" saltValue="85KXnkq9BJ5KEF9tWTVEDw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -10557,7 +10557,7 @@
       <c r="A20" s="34"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FDcrqoJZAXALMlxnSMGIfrd9wpX253B6E0vZxF7PclOBkAFk7FXmc+CO67vNfLLZuA3O/9WrHLZIBz+YY46geQ==" saltValue="L7LgxyBfi9/pfWxZPjXTIg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kkb8l+0A/OCwg2l/2xaLTqlgzvFAVUpOk2MmVfdQJfeMh+Nd8aEKHdtJIvTpjGRIpvI4FgpVppG4MIFvjR2//w==" saltValue="J7dHT+h3JA1vZeee1/MoWw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -11353,7 +11353,7 @@
       <c r="B28" s="26"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="O+dun9QUr2jiHAP/ZifR8a2dVMUzvw0aatWLIogmI9NB4QUNM0bEW/L1h6iwRSVhl5hwGlGnwdVl3E/wMiemsQ==" saltValue="x3kCQFEJ2GhJ5/JtoSI/qg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wneWb7xjWmQGuobVr1vKOwxLyktS8OzAiScyDuVkLHXOKMHXwYeXB96V2t+V7qLlHlMort5x7M5HWH0vDUfoFA==" saltValue="Rl6z7Y7Tpa3qTeh0LYFEWw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:O14">
     <sortCondition ref="B3:B14"/>
   </sortState>

--- a/inputs/fr/legacy_default_params.xlsx
+++ b/inputs/fr/legacy_default_params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58BECAEE-B2EF-49FE-8908-ABE4514697B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{112643C0-5B94-4E78-81FC-F258CBE15EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="3600" windowWidth="34980" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="7815" windowWidth="30255" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Programmes population touchée" sheetId="14" r:id="rId1"/>
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="159">
   <si>
     <t>N/A</t>
   </si>
@@ -202,9 +202,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>Wasting</t>
-  </si>
-  <si>
     <t>Condition</t>
   </si>
   <si>
@@ -214,6 +211,36 @@
     <t>Outcome</t>
   </si>
   <si>
+    <t>Espacement des naissances</t>
+  </si>
+  <si>
+    <t>Première naissance</t>
+  </si>
+  <si>
+    <t>moins de 18 mois</t>
+  </si>
+  <si>
+    <t>18 à 23 mois</t>
+  </si>
+  <si>
+    <t>24 mois ou plus</t>
+  </si>
+  <si>
+    <t>Mortalité</t>
+  </si>
+  <si>
+    <t>SGA prématuré</t>
+  </si>
+  <si>
+    <t>AGA prématuré</t>
+  </si>
+  <si>
+    <t>SGA à terme</t>
+  </si>
+  <si>
+    <t>AGA à terme</t>
+  </si>
+  <si>
     <t>FAP : 15-19 ans</t>
   </si>
   <si>
@@ -229,9 +256,54 @@
     <t>FAP non enceintes</t>
   </si>
   <si>
+    <t>Diarrhée néonatale</t>
+  </si>
+  <si>
+    <t>Sepsis néonatal</t>
+  </si>
+  <si>
+    <t>Pneumonie néonatale</t>
+  </si>
+  <si>
+    <t>Asphyxie néonatale</t>
+  </si>
+  <si>
+    <t>Prématurité néonatale</t>
+  </si>
+  <si>
+    <t>Tétanos néonatal</t>
+  </si>
+  <si>
+    <t>Anomalies congénitales néonatales</t>
+  </si>
+  <si>
+    <t>Autres pathologies néonatales</t>
+  </si>
+  <si>
     <t>Enfants</t>
   </si>
   <si>
+    <t>Diarrhée</t>
+  </si>
+  <si>
+    <t>Pneumonie</t>
+  </si>
+  <si>
+    <t>Méningite</t>
+  </si>
+  <si>
+    <t>Rougeole</t>
+  </si>
+  <si>
+    <t>Paludisme</t>
+  </si>
+  <si>
+    <t>Coqueluche</t>
+  </si>
+  <si>
+    <t>Autre</t>
+  </si>
+  <si>
     <t>1-5 mois</t>
   </si>
   <si>
@@ -247,9 +319,24 @@
     <t>Femmes enceintes</t>
   </si>
   <si>
+    <t>Hémorragie antepartum</t>
+  </si>
+  <si>
+    <t>Hémorragie intra-partum</t>
+  </si>
+  <si>
+    <t>Hémorragie du post-partum</t>
+  </si>
+  <si>
+    <t>Troubles hypertensifs</t>
+  </si>
+  <si>
     <t>&lt;1 mois</t>
   </si>
   <si>
+    <t>Anémie</t>
+  </si>
+  <si>
     <t>FE : 15-19 ans</t>
   </si>
   <si>
@@ -262,6 +349,36 @@
     <t>FE : 40-49 ans</t>
   </si>
   <si>
+    <t>Allaitement maternel</t>
+  </si>
+  <si>
+    <t>Exclusif</t>
+  </si>
+  <si>
+    <t>Prédominant</t>
+  </si>
+  <si>
+    <t>Partiel</t>
+  </si>
+  <si>
+    <t>Aucun</t>
+  </si>
+  <si>
+    <t>Population cible</t>
+  </si>
+  <si>
+    <t>Établissement de santé</t>
+  </si>
+  <si>
+    <t>Communautaire</t>
+  </si>
+  <si>
+    <t>Médias de masse</t>
+  </si>
+  <si>
+    <t>Tous</t>
+  </si>
+  <si>
     <t>Programme</t>
   </si>
   <si>
@@ -364,27 +481,18 @@
     <t>Supplémentation en zinc</t>
   </si>
   <si>
+    <t>Mode de livraison</t>
+  </si>
+  <si>
+    <t>Gestion de la MM</t>
+  </si>
+  <si>
     <t>Population générale</t>
   </si>
   <si>
     <t>Groupe général de la population</t>
   </si>
   <si>
-    <t>Espacement des naissances</t>
-  </si>
-  <si>
-    <t>Mortalité</t>
-  </si>
-  <si>
-    <t>Diarrhée</t>
-  </si>
-  <si>
-    <t>Anémie</t>
-  </si>
-  <si>
-    <t>Allaitement maternel</t>
-  </si>
-  <si>
     <t>Retard de croissance</t>
   </si>
   <si>
@@ -403,24 +511,6 @@
     <t>Tranche d'âge</t>
   </si>
   <si>
-    <t>Population cible</t>
-  </si>
-  <si>
-    <t>Établissement de santé</t>
-  </si>
-  <si>
-    <t>Communautaire</t>
-  </si>
-  <si>
-    <t>Médias de masse</t>
-  </si>
-  <si>
-    <t>Tous</t>
-  </si>
-  <si>
-    <t>Mode de livraison</t>
-  </si>
-  <si>
     <t>Comportement</t>
   </si>
   <si>
@@ -433,54 +523,6 @@
     <t>Rapport des cotes pour l'alimentation complémetaire</t>
   </si>
   <si>
-    <t>Première naissance</t>
-  </si>
-  <si>
-    <t>moins de 18 mois</t>
-  </si>
-  <si>
-    <t>18 à 23 mois</t>
-  </si>
-  <si>
-    <t>24 mois ou plus</t>
-  </si>
-  <si>
-    <t>SGA prématuré</t>
-  </si>
-  <si>
-    <t>AGA prématuré</t>
-  </si>
-  <si>
-    <t>SGA à terme</t>
-  </si>
-  <si>
-    <t>AGA à terme</t>
-  </si>
-  <si>
-    <t>Diarrhée néonatale</t>
-  </si>
-  <si>
-    <t>Sepsis néonatal</t>
-  </si>
-  <si>
-    <t>Pneumonie néonatale</t>
-  </si>
-  <si>
-    <t>Asphyxie néonatale</t>
-  </si>
-  <si>
-    <t>Prématurité néonatale</t>
-  </si>
-  <si>
-    <t>Tétanos néonatal</t>
-  </si>
-  <si>
-    <t>Anomalies congénitales néonatales</t>
-  </si>
-  <si>
-    <t>Autres pathologies néonatales</t>
-  </si>
-  <si>
     <t>Facteurs de risque maternels contribuant aux résultats des naissances</t>
   </si>
   <si>
@@ -505,117 +547,105 @@
     <t>Risques relatifs des causes du décès néonatales</t>
   </si>
   <si>
+    <t>Risque relatif des causes du décès par la distribution de la taille-pour-l'àge (retard de croissance)</t>
+  </si>
+  <si>
+    <t>Cause du décès</t>
+  </si>
+  <si>
+    <t>Niveau HAZ</t>
+  </si>
+  <si>
+    <t>Léger</t>
+  </si>
+  <si>
+    <t>Modéré</t>
+  </si>
+  <si>
+    <t>Élevé</t>
+  </si>
+  <si>
+    <t>Niveau WHZ</t>
+  </si>
+  <si>
+    <t>Risque relatif des causes du décès par condition anémique</t>
+  </si>
+  <si>
+    <t>Condition anémique</t>
+  </si>
+  <si>
+    <t>Pas anémique</t>
+  </si>
+  <si>
+    <t>Anémique</t>
+  </si>
+  <si>
+    <t>Risque relatif des causes du décès par mode d'allaitement maternel</t>
+  </si>
+  <si>
+    <t>Mode d'allaitement maternel</t>
+  </si>
+  <si>
+    <t>Risques relatifs de la diarrhée par mode d'allaitement maternel</t>
+  </si>
+  <si>
+    <t>Compte tenu du retard de croissance antérieur (HAZ &lt; -2 dans la tranche d’âge précédente)</t>
+  </si>
+  <si>
+    <t>Diarrhée (par épisode supplémentaire)</t>
+  </si>
+  <si>
+    <t>Par programme</t>
+  </si>
+  <si>
+    <t>Rapports des cotes supplémentaires</t>
+  </si>
+  <si>
+    <t>Pour MAS par épisode supplémentaire de la diarrhée</t>
+  </si>
+  <si>
+    <t>Pour l'anémie par épisode supplémentaire de la diarrhée</t>
+  </si>
+  <si>
+    <t>efficacité</t>
+  </si>
+  <si>
+    <t>fraction touchée</t>
+  </si>
+  <si>
+    <t>Risques relatifs de l'anémie en recevant l'intervention</t>
+  </si>
+  <si>
+    <t>Rapport des cotes de la MAS en étant couvert par le programme</t>
+  </si>
+  <si>
+    <t>Rapport des cotes de la MM en étant couvert par le programme</t>
+  </si>
+  <si>
+    <t>Condition ciblée</t>
+  </si>
+  <si>
+    <t>Fraction touchée</t>
+  </si>
+  <si>
+    <t>Efficacité à prévenir une mort</t>
+  </si>
+  <si>
+    <t>Efficacité à prévenir un cas</t>
+  </si>
+  <si>
+    <t>MAS</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>Risque relatif des causes du décès par la distribution du poids-pour-taille (amaigrissement)</t>
+  </si>
+  <si>
     <t>Rapport des cotes pour les femmes avec l'anémie maternelle</t>
   </si>
   <si>
-    <t>Pneumonie</t>
-  </si>
-  <si>
-    <t>Méningite</t>
-  </si>
-  <si>
-    <t>Rougeole</t>
-  </si>
-  <si>
-    <t>Paludisme</t>
-  </si>
-  <si>
-    <t>Coqueluche</t>
-  </si>
-  <si>
-    <t>Autre</t>
-  </si>
-  <si>
-    <t>Hémorragie antepartum</t>
-  </si>
-  <si>
-    <t>Hémorragie intra-partum</t>
-  </si>
-  <si>
-    <t>Hémorragie du post-partum</t>
-  </si>
-  <si>
-    <t>Exclusif</t>
-  </si>
-  <si>
-    <t>Prédominant</t>
-  </si>
-  <si>
-    <t>Partiel</t>
-  </si>
-  <si>
-    <t>Aucun</t>
-  </si>
-  <si>
-    <t>Risque relatif des causes du décès par la distribution de la taille-pour-l'àge (retard de croissance)</t>
-  </si>
-  <si>
-    <t>Cause du décès</t>
-  </si>
-  <si>
-    <t>Niveau HAZ</t>
-  </si>
-  <si>
-    <t>Léger</t>
-  </si>
-  <si>
-    <t>Modéré</t>
-  </si>
-  <si>
-    <t>Élevé</t>
-  </si>
-  <si>
-    <t>Niveau WHZ</t>
-  </si>
-  <si>
-    <t>Risque relatif des causes du décès par condition anémique</t>
-  </si>
-  <si>
-    <t>Condition anémique</t>
-  </si>
-  <si>
-    <t>Pas anémique</t>
-  </si>
-  <si>
-    <t>Anémique</t>
-  </si>
-  <si>
-    <t>Risque relatif des causes du décès par mode d'allaitement maternel</t>
-  </si>
-  <si>
-    <t>Mode d'allaitement maternel</t>
-  </si>
-  <si>
-    <t>Risques relatifs de la diarrhée par mode d'allaitement maternel</t>
-  </si>
-  <si>
-    <t>MAS</t>
-  </si>
-  <si>
-    <t>MM</t>
-  </si>
-  <si>
-    <t>Risque relatif des causes du décès par la distribution du poids-pour-taille (amaigrissement)</t>
-  </si>
-  <si>
-    <t>Compte tenu du retard de croissance antérieur (HAZ &lt; -2 dans la tranche d’âge précédente)</t>
-  </si>
-  <si>
-    <t>Diarrhée (par épisode supplémentaire)</t>
-  </si>
-  <si>
-    <t>Par programme</t>
-  </si>
-  <si>
-    <t>Rapports des cotes supplémentaires</t>
-  </si>
-  <si>
-    <t>Pour MAS par épisode supplémentaire de la diarrhée</t>
-  </si>
-  <si>
-    <t>Pour l'anémie par épisode supplémentaire de la diarrhée</t>
-  </si>
-  <si>
     <t>Rapport des cotes pour allaitement maternel correct par programme</t>
   </si>
   <si>
@@ -625,37 +655,10 @@
     <t>Rapports des cotes pour espacement des naissances optimal par programme</t>
   </si>
   <si>
-    <t>efficacité</t>
-  </si>
-  <si>
-    <t>fraction touchée</t>
-  </si>
-  <si>
-    <t>Risques relatifs de l'anémie en recevant l'intervention</t>
-  </si>
-  <si>
     <t>Rapports des cotes de l'anémie en étant couverte par l'intervention</t>
   </si>
   <si>
-    <t>Gestion de la MM</t>
-  </si>
-  <si>
-    <t>Rapport des cotes de la MAS en étant couvert par le programme</t>
-  </si>
-  <si>
-    <t>Rapport des cotes de la MM en étant couvert par le programme</t>
-  </si>
-  <si>
-    <t>Condition ciblée</t>
-  </si>
-  <si>
-    <t>Efficacité à prévenir une mort</t>
-  </si>
-  <si>
-    <t>Efficacité à prévenir un cas</t>
-  </si>
-  <si>
-    <t>Troubles hypertensifs</t>
+    <t>Amaigrissement</t>
   </si>
 </sst>
 </file>
@@ -1273,57 +1276,57 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="C1" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="43" t="s">
+      <c r="O1" s="43" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="43" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="C2" s="50">
         <v>0</v>
@@ -1367,7 +1370,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="54" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="C3" s="50">
         <v>1</v>
@@ -1543,7 +1546,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="54" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="C7" s="50">
         <v>1</v>
@@ -1587,7 +1590,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="54" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="C8" s="50">
         <v>0</v>
@@ -1631,7 +1634,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="54" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="C9" s="50">
         <v>0</v>
@@ -1675,7 +1678,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="54" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="C10" s="50">
         <v>1</v>
@@ -1719,7 +1722,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="54" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="C11" s="50">
         <v>0</v>
@@ -1763,7 +1766,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="54" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="C12" s="50">
         <v>0</v>
@@ -1807,7 +1810,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="54" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="C13" s="50">
         <v>0</v>
@@ -1851,7 +1854,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="54" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="C14" s="50">
         <v>1</v>
@@ -1895,7 +1898,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="54" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="C15" s="50">
         <v>0</v>
@@ -1955,10 +1958,10 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="C17" s="50">
         <v>0</v>
@@ -2003,7 +2006,7 @@
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43"/>
       <c r="B18" s="54" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="C18" s="50">
         <v>0</v>
@@ -2047,7 +2050,7 @@
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="34" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="C19" s="50">
         <v>0</v>
@@ -2091,7 +2094,7 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="34" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="C20" s="50">
         <v>0</v>
@@ -2179,7 +2182,7 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="54" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="C22" s="50">
         <v>0</v>
@@ -2223,7 +2226,7 @@
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="54" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="C23" s="50">
         <v>0</v>
@@ -2267,7 +2270,7 @@
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="54" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="C24" s="50">
         <v>0</v>
@@ -2327,10 +2330,10 @@
     </row>
     <row r="26" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="43" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B26" s="54" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="C26" s="50">
         <v>0</v>
@@ -2375,7 +2378,7 @@
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="35" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="C27" s="50">
         <v>0</v>
@@ -2420,7 +2423,7 @@
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="43"/>
       <c r="B28" s="35" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="C28" s="50">
         <v>0</v>
@@ -2464,7 +2467,7 @@
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="35" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="C29" s="50">
         <v>0</v>
@@ -2508,7 +2511,7 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="35" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="C30" s="50">
         <v>0</v>
@@ -2568,10 +2571,10 @@
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="43" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="B32" s="54" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="C32" s="50">
         <v>1</v>
@@ -2615,7 +2618,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="54" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="C33" s="50">
         <v>1</v>
@@ -2659,7 +2662,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="54" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="C34" s="50">
         <v>1</v>
@@ -2703,7 +2706,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="54" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="C35" s="50">
         <v>1</v>
@@ -2747,7 +2750,7 @@
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="54" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="C36" s="50">
         <v>1</v>
@@ -2792,7 +2795,7 @@
     <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="42"/>
       <c r="B37" s="54" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="C37" s="50">
         <v>1</v>
@@ -2836,7 +2839,7 @@
     </row>
     <row r="38" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="54" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="C38" s="50">
         <v>1</v>
@@ -2880,7 +2883,7 @@
     </row>
     <row r="39" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="54" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="C39" s="50">
         <v>1</v>
@@ -2924,7 +2927,7 @@
     </row>
     <row r="40" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="54" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="C40" s="50">
         <v>1</v>
@@ -2968,7 +2971,7 @@
     </row>
     <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="54" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="C41" s="50">
         <v>1</v>
@@ -3011,7 +3014,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="cmbo9KgrBU2T9HKFwDfEUXuJ7DDtpdky6FtpeZRW4/Eeya68JOmlAnl+Vu74BSdnND0YohNPpBVnGi/2IMbVvQ==" saltValue="4CWbFkPuLSntynjd7hCeaw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4MyHteQ/Av1V9Bsw/KaQlPjf2BQCyTjAVZJ7jrRjViknJpu3KEMZM+jMTPksCwOTGz6PmAG/ELlypwYnARpZOw==" saltValue="KLVhD9kU11/vucRoka5FyA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B17:O24">
     <sortCondition ref="B17:B24"/>
   </sortState>
@@ -3042,29 +3045,29 @@
       <c r="A1" s="2"/>
       <c r="B1" s="33"/>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="35" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
@@ -3084,7 +3087,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="36"/>
@@ -3095,7 +3098,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="34" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -3114,7 +3117,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="YvSUJx/8W9r6oKdTu80p1atTfak/jp6khy1xiOFp3Tbjyfno24Iwgx092/MwTgcdg9GuLRwqnad4jEbOXULu2A==" saltValue="noW3fhKR0O5kjZhDaw3eFg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="tzRDcXPAb479hyEvUBhG3BtZVeeubkn8jzqSMUSbOupONlhU8d+lF667iRJfxWk4boB/LWnHxdi3CWqfYM16nQ==" saltValue="O8tijXWVrb318IvQ3IjptQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -3146,39 +3149,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C1" s="51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="54" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -3198,7 +3201,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="54" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
@@ -3218,7 +3221,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="54" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
@@ -3238,13 +3241,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="54" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
@@ -3264,7 +3267,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="54" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -3284,10 +3287,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="54" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -3307,7 +3310,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="54" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -3327,13 +3330,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="54" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="B9" s="54" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -3353,7 +3356,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="54" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
@@ -3373,10 +3376,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="54" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
@@ -3396,7 +3399,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="54" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D12" s="4">
         <v>0</v>
@@ -3416,13 +3419,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="54" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="C13" s="54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D13" s="4">
         <v>0</v>
@@ -3442,7 +3445,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="54" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
@@ -3463,10 +3466,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="54" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="C15" s="54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
@@ -3487,7 +3490,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="54" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D16" s="4">
         <v>0</v>
@@ -3508,13 +3511,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="54" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="C17" s="54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D17" s="4">
         <v>0.7</v>
@@ -3535,7 +3538,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C18" s="54" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D18" s="4">
         <v>0.46</v>
@@ -3556,13 +3559,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="54" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D19" s="4">
         <v>0.7</v>
@@ -3582,7 +3585,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C20" s="54" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D20" s="4">
         <v>0.46</v>
@@ -3602,13 +3605,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="54" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="B21" s="54" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="C21" s="54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D21" s="4">
         <v>0.7</v>
@@ -3628,7 +3631,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C22" s="54" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D22" s="4">
         <v>0.46</v>
@@ -3648,13 +3651,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="54" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C23" s="54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D23" s="4">
         <v>1</v>
@@ -3674,7 +3677,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C24" s="54" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D24" s="4">
         <v>0</v>
@@ -3694,7 +3697,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C25" s="54" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D25" s="4">
         <v>0</v>
@@ -3714,13 +3717,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="54" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="B26" s="54" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C26" s="54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -3740,7 +3743,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C27" s="54" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D27" s="4">
         <v>0</v>
@@ -3760,7 +3763,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C28" s="54" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D28" s="4">
         <v>0</v>
@@ -3780,13 +3783,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="54" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="B29" s="54" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C29" s="54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D29" s="4">
         <v>1</v>
@@ -3806,7 +3809,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C30" s="54" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D30" s="4">
         <v>0</v>
@@ -3826,7 +3829,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C31" s="54" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D31" s="4">
         <v>0</v>
@@ -3846,13 +3849,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="54" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="B32" s="54" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C32" s="54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
@@ -3872,7 +3875,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C33" s="54" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D33" s="4">
         <v>0</v>
@@ -3892,7 +3895,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C34" s="54" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D34" s="4">
         <v>0</v>
@@ -3912,13 +3915,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="54" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="B35" s="54" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C35" s="54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -3938,7 +3941,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C36" s="54" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D36" s="4">
         <v>0</v>
@@ -3958,7 +3961,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C37" s="54" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D37" s="4">
         <v>0</v>
@@ -3978,13 +3981,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="54" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="B38" s="54" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C38" s="54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D38" s="4">
         <v>0.3</v>
@@ -4004,7 +4007,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C39" s="54" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D39" s="4">
         <v>0.5</v>
@@ -4024,7 +4027,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C40" s="54" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D40" s="4">
         <v>0.65</v>
@@ -4044,10 +4047,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="54" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="C41" s="54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D41" s="4">
         <v>0.3</v>
@@ -4067,7 +4070,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C42" s="54" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D42" s="4">
         <v>0.49</v>
@@ -4087,7 +4090,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C43" s="54" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D43" s="4">
         <v>0.52</v>
@@ -4107,13 +4110,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="54" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="B44" s="54" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C44" s="54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D44" s="4">
         <v>0.88</v>
@@ -4133,7 +4136,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C45" s="54" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D45" s="4">
         <v>0.93</v>
@@ -4153,13 +4156,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="54" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="B46" s="54" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C46" s="54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D46" s="4">
         <v>1</v>
@@ -4179,7 +4182,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C47" s="54" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D47" s="4">
         <v>0.86</v>
@@ -4199,13 +4202,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="54" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="B48" s="54" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="C48" s="54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="4">
         <v>0.57999999999999996</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C49" s="54" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D49" s="4">
         <v>0.51</v>
@@ -4244,7 +4247,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fMIj4dsqezEq5zv7gUzTZ4uHTiNnVqyhZbcQE4e4VGxZmBaHW5k9vgEugSNDI9NKA8TvqTOe9otcp+nMrGuHkQ==" saltValue="6bdhbSn331pn+DKIihz5aQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UfBsNXZ5c4ONIAzpVyztc/75Lrb5Gr7ISMUqL/aJjujssU/iuBOCBKNn85IRQcbxAE8D0rmPxBbOuAXwA3pjMw==" saltValue="Lb1lWTyqRKRxu1IyRqjjWQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -4272,35 +4275,35 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C1" s="33"/>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -4318,7 +4321,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D3" s="4">
         <v>0.2</v>
@@ -4336,13 +4339,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -4361,7 +4364,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="27"/>
       <c r="C5" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D5" s="4">
         <v>0.59</v>
@@ -4379,13 +4382,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -4404,7 +4407,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="C7" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D7" s="4">
         <v>0.6</v>
@@ -4421,7 +4424,7 @@
       <c r="H7" s="37"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WJODj/qJEduGBbT+J0LQuLnFn8i6jSqEtzUbLsQ0p5ht68bJW71gGuCSQh/Q1EwqzU703WpYKM/U+HRtvsF9QQ==" saltValue="c4LkfvV18gudtIHekqoBjA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="70UXVn/1IEAadyA9KtQK2GizbedSzDkSBPSWlVWJuzXjru7HABxUEH3DPgWhUDVfGBfige2Ch37fagALuAKlbg==" saltValue="BUpl2zu8rpXkYlrBmJMbcg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4454,42 +4457,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="54" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="B2" s="50"/>
       <c r="C2" s="50"/>
@@ -4506,7 +4509,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="54" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="B3" s="50"/>
       <c r="C3" s="50"/>
@@ -4523,7 +4526,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="54" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="B4" s="50"/>
       <c r="C4" s="50"/>
@@ -4540,7 +4543,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="54" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="B5" s="50"/>
       <c r="C5" s="50" t="s">
@@ -4557,7 +4560,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="54" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="B6" s="50"/>
       <c r="C6" s="50"/>
@@ -4576,7 +4579,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="54" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="B7" s="50"/>
       <c r="C7" s="50" t="s">
@@ -4595,7 +4598,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="54" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="B8" s="50"/>
       <c r="C8" s="50" t="s">
@@ -4614,7 +4617,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="54" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="B9" s="50"/>
       <c r="C9" s="50" t="s">
@@ -4633,7 +4636,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B10" s="50"/>
       <c r="C10" s="50" t="s">
@@ -4650,7 +4653,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="B11" s="50"/>
       <c r="C11" s="50" t="s">
@@ -4667,7 +4670,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="B12" s="50"/>
       <c r="C12" s="50" t="s">
@@ -4684,7 +4687,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="B13" s="50"/>
       <c r="C13" s="50" t="s">
@@ -4701,7 +4704,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="34" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="B14" s="50"/>
       <c r="C14" s="50" t="s">
@@ -4720,7 +4723,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="34" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="B15" s="50"/>
       <c r="C15" s="50" t="s">
@@ -4760,7 +4763,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="54" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="B17" s="50"/>
       <c r="C17" s="50" t="s">
@@ -4834,7 +4837,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="54" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="B21" s="50"/>
       <c r="C21" s="50"/>
@@ -4853,7 +4856,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="54" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="B22" s="50" t="s">
         <v>5</v>
@@ -4874,7 +4877,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="54" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="B23" s="50"/>
       <c r="C23" s="50" t="s">
@@ -4893,7 +4896,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="54" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="B24" s="50"/>
       <c r="C24" s="50"/>
@@ -4910,7 +4913,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="54" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="B25" s="50"/>
       <c r="C25" s="50"/>
@@ -4927,7 +4930,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="54" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="B26" s="50"/>
       <c r="C26" s="50" t="s">
@@ -4944,7 +4947,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="54" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="B27" s="50"/>
       <c r="C27" s="50" t="s">
@@ -4963,7 +4966,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="54" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="B28" s="50"/>
       <c r="C28" s="50"/>
@@ -4980,7 +4983,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="54" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="B29" s="50" t="s">
         <v>5</v>
@@ -4999,7 +5002,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="54" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="B30" s="50"/>
       <c r="C30" s="50"/>
@@ -5016,7 +5019,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="54" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="B31" s="50"/>
       <c r="C31" s="50"/>
@@ -5035,7 +5038,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="54" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="B32" s="50"/>
       <c r="C32" s="50"/>
@@ -5054,7 +5057,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="54" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="B33" s="50"/>
       <c r="C33" s="50"/>
@@ -5073,7 +5076,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="54" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="B34" s="50"/>
       <c r="C34" s="50"/>
@@ -5092,7 +5095,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="54" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="B35" s="50"/>
       <c r="C35" s="50"/>
@@ -5111,7 +5114,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="54" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="B36" s="50"/>
       <c r="C36" s="50"/>
@@ -5130,7 +5133,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="54" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="B37" s="50"/>
       <c r="C37" s="50"/>
@@ -5147,7 +5150,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="54" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="B38" s="50" t="s">
         <v>5</v>
@@ -5167,7 +5170,7 @@
       <c r="K38" s="50"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="v1ivEaMhahLUpAdyedo+VwF5akW+dV8q4oENdjZpsXIV0s/wLXVF+b5avPq5rdLocEfkxuuric4Q1T4hLXpK3w==" saltValue="NWz8pycUNnx2Rahc1SjFVw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vHk2m6PMSJMkUXhXNU3Z5Fq0GK9iQOhr2phz2zwYASXk+pcHVM94QD2K1CUHt9dtFY1aHAi5mVpL0cGDTnvWbg==" saltValue="Dp0167Uz9brpkGF4k3oF/w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J38">
     <sortCondition ref="A2:A38"/>
   </sortState>
@@ -5203,42 +5206,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B2" s="50" t="s">
         <v>5</v>
@@ -5267,7 +5270,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B3" s="50" t="s">
         <v>5</v>
@@ -5296,7 +5299,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B4" s="50" t="s">
         <v>5</v>
@@ -5325,7 +5328,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B5" s="50" t="s">
         <v>5</v>
@@ -5354,7 +5357,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B6" s="50" t="s">
         <v>5</v>
@@ -5383,7 +5386,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="B7" s="50"/>
       <c r="C7" s="50" t="s">
@@ -5404,7 +5407,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="B8" s="50"/>
       <c r="C8" s="50" t="s">
@@ -5425,7 +5428,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B9" s="50"/>
       <c r="C9" s="50" t="s">
@@ -5446,7 +5449,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="B10" s="50"/>
       <c r="C10" s="50" t="s">
@@ -5467,7 +5470,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B11" s="50"/>
       <c r="C11" s="50" t="s">
@@ -5488,7 +5491,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B12" s="50"/>
       <c r="C12" s="50" t="s">
@@ -5507,7 +5510,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B13" s="50"/>
       <c r="C13" s="50" t="s">
@@ -5526,7 +5529,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B14" s="50"/>
       <c r="C14" s="50" t="s">
@@ -5544,7 +5547,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="A/XZldpnolXruArEKejQQ6+zAtJ8rfO4aXGim5bEv7fi7MhVmVIkPMF8Tbwnb5jFPmroii+UUPalguFXw2K1qQ==" saltValue="ZUtYM9P/7AAxChrJSpGxzw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qdNtrv2Llk7VohgKLqpCzuWeleagB1ns3s3aJEctgkgNHgfPqXW6C7yfWks10IVhwPgBDsrbKkGDbByv1B14hw==" saltValue="pZl1OY6QdE85o8xJaJgbQA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5570,39 +5573,39 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D2" s="49">
         <v>1</v>
@@ -5623,7 +5626,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="57"/>
       <c r="C3" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D3" s="49">
         <v>1</v>
@@ -5645,7 +5648,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="57"/>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D4" s="49">
         <v>1</v>
@@ -5666,10 +5669,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="57" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D5" s="49">
         <f>5.16</f>
@@ -5691,7 +5694,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="57"/>
       <c r="C6" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D6" s="49">
         <v>5.16</v>
@@ -5712,7 +5715,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="57"/>
       <c r="C7" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D7" s="49">
         <v>1</v>
@@ -5732,10 +5735,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="57" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D8" s="49">
         <v>1</v>
@@ -5756,7 +5759,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="57"/>
       <c r="C9" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D9" s="49">
         <v>1</v>
@@ -5777,7 +5780,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="57"/>
       <c r="C10" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D10" s="49">
         <v>1</v>
@@ -5797,10 +5800,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="57" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D11" s="49">
         <v>1</v>
@@ -5821,7 +5824,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="57"/>
       <c r="C12" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D12" s="49">
         <v>1</v>
@@ -5842,7 +5845,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="57"/>
       <c r="C13" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D13" s="49">
         <v>1</v>
@@ -5862,10 +5865,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="57" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D14" s="49">
         <v>1</v>
@@ -5886,7 +5889,7 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="57"/>
       <c r="C15" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D15" s="49">
         <v>1</v>
@@ -5907,7 +5910,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="57"/>
       <c r="C16" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D16" s="49">
         <v>1</v>
@@ -5927,10 +5930,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="38" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D17" s="48">
         <v>1.05</v>
@@ -5950,13 +5953,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="B19" s="57" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D19" s="49">
         <v>1</v>
@@ -5977,7 +5980,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="57"/>
       <c r="C20" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D20" s="49">
         <v>1</v>
@@ -5998,7 +6001,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="57"/>
       <c r="C21" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D21" s="49">
         <v>1</v>
@@ -6018,10 +6021,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="57" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D22" s="49">
         <v>1</v>
@@ -6042,7 +6045,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="57"/>
       <c r="C23" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D23" s="49">
         <v>1</v>
@@ -6063,7 +6066,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="57"/>
       <c r="C24" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D24" s="49">
         <v>1</v>
@@ -6083,10 +6086,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="57" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D25" s="49">
         <v>1</v>
@@ -6107,7 +6110,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="57"/>
       <c r="C26" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D26" s="49">
         <v>1</v>
@@ -6128,7 +6131,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="57"/>
       <c r="C27" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D27" s="49">
         <v>1</v>
@@ -6148,10 +6151,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="57" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D28" s="49">
         <v>1</v>
@@ -6172,7 +6175,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="57"/>
       <c r="C29" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D29" s="49">
         <v>1</v>
@@ -6193,7 +6196,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="57"/>
       <c r="C30" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D30" s="49">
         <v>1</v>
@@ -6213,10 +6216,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="57" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D31" s="49">
         <v>1</v>
@@ -6237,7 +6240,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="57"/>
       <c r="C32" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D32" s="49">
         <v>1</v>
@@ -6258,7 +6261,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="57"/>
       <c r="C33" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D33" s="49">
         <v>1</v>
@@ -6278,10 +6281,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="38" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D34" s="48">
         <v>1</v>
@@ -6301,13 +6304,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="40" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="B36" s="57" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D36" s="49">
         <v>1</v>
@@ -6328,7 +6331,7 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="57"/>
       <c r="C37" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D37" s="49">
         <v>1</v>
@@ -6349,7 +6352,7 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="57"/>
       <c r="C38" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D38" s="49">
         <v>1</v>
@@ -6369,10 +6372,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="57" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D39" s="49">
         <v>1</v>
@@ -6393,7 +6396,7 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="57"/>
       <c r="C40" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D40" s="49">
         <v>1</v>
@@ -6414,7 +6417,7 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="57"/>
       <c r="C41" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D41" s="49">
         <v>1</v>
@@ -6434,10 +6437,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="57" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D42" s="49">
         <v>1</v>
@@ -6458,7 +6461,7 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="57"/>
       <c r="C43" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D43" s="49">
         <v>1</v>
@@ -6479,7 +6482,7 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="57"/>
       <c r="C44" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D44" s="49">
         <v>1</v>
@@ -6499,10 +6502,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="57" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D45" s="49">
         <v>1</v>
@@ -6523,7 +6526,7 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="57"/>
       <c r="C46" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D46" s="49">
         <v>1</v>
@@ -6544,7 +6547,7 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="57"/>
       <c r="C47" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D47" s="49">
         <v>1</v>
@@ -6564,10 +6567,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="57" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D48" s="49">
         <v>1</v>
@@ -6588,7 +6591,7 @@
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="57"/>
       <c r="C49" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D49" s="49">
         <v>1</v>
@@ -6609,7 +6612,7 @@
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="57"/>
       <c r="C50" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D50" s="49">
         <v>1</v>
@@ -6629,10 +6632,10 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="39" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D51" s="48">
         <v>1.05</v>
@@ -6651,7 +6654,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9HWQ+4n40/FaufC4gOXRLTULoRvaEdNTuZRiOQMkQb5eaGdNncDlj9oI5pOLwPmqMpQrKM4KWF6SKjYYvQvIeQ==" saltValue="HDe/IyN6960kM4PIxR+Nlw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nL/Phv6jVMFKVVS6LjzGjuwEoZASZxLeCGYgM3RcePlQhE/HCFJJDdH15ARf5CtFGYwB72VObtKAe5/2khadbw==" saltValue="3NpF3mfADmmn9s6OJh8SEw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="15">
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
@@ -6697,27 +6700,27 @@
   <sheetData>
     <row r="1" spans="1:7" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="24"/>
       <c r="C2" s="23" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="21"/>
@@ -6727,7 +6730,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="19" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
@@ -6744,7 +6747,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="19" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -6761,7 +6764,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="19" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -6778,7 +6781,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="19" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -6801,7 +6804,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
@@ -6826,7 +6829,7 @@
     </row>
     <row r="11" spans="1:7" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="16"/>
@@ -6836,7 +6839,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="11"/>
@@ -6846,7 +6849,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -6864,7 +6867,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
@@ -6882,7 +6885,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
@@ -6909,7 +6912,7 @@
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="9"/>
@@ -6920,7 +6923,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
@@ -6938,7 +6941,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
@@ -6956,7 +6959,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
@@ -6974,7 +6977,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
@@ -6992,7 +6995,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
@@ -7009,7 +7012,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="6" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="C23" s="5">
         <v>1</v>
@@ -7026,7 +7029,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
@@ -7043,7 +7046,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="C25" s="5">
         <v>1</v>
@@ -7065,7 +7068,7 @@
       <c r="B28" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gm3nVtI3/iadEgcap5eIyZzkAHaPtP/bOLMZK+kBIkComs27YCFvDFV0wHeZS86hCczp7Cfs05Z2NO9rU+cKNQ==" saltValue="pY/0q4sUrqfm4BmfHBSzEg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5yTDt1SRyM9FYQQKhWLhvFbJ9312Spf25YnQU8b6XNo+JoZDHfMhqzgsNZxjfNqQGkg+grUvp/s1ub07aq3YgA==" saltValue="pYn7I5yLWxKePQK0xemzIQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -7100,7 +7103,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>122</v>
@@ -7109,19 +7112,19 @@
         <v>123</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
@@ -7135,10 +7138,10 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
@@ -7250,10 +7253,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
@@ -7365,10 +7368,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
@@ -7480,10 +7483,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
@@ -7595,10 +7598,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="27" t="s">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19" s="5">
         <v>1</v>
@@ -7710,10 +7713,10 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" s="27" t="s">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" s="5">
         <v>1</v>
@@ -7825,12 +7828,12 @@
     </row>
     <row r="28" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="31" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
       <c r="B29" s="30" t="s">
         <v>122</v>
@@ -7839,19 +7842,19 @@
         <v>127</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="I29" s="28"/>
       <c r="J29" s="28"/>
@@ -7865,10 +7868,10 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="1" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
@@ -7924,7 +7927,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C32" s="26" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
@@ -7952,7 +7955,7 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="26" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -7980,10 +7983,10 @@
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D34" s="5">
         <v>1</v>
@@ -8039,7 +8042,7 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C36" s="26" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
@@ -8067,7 +8070,7 @@
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C37" s="26" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="D37" s="4">
         <v>1</v>
@@ -8095,10 +8098,10 @@
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D38" s="5">
         <v>1</v>
@@ -8154,7 +8157,7 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="26" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="D40" s="4">
         <v>1</v>
@@ -8182,7 +8185,7 @@
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="26" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="D41" s="4">
         <v>1</v>
@@ -8210,10 +8213,10 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D42" s="5">
         <v>1</v>
@@ -8269,7 +8272,7 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="26" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -8297,7 +8300,7 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="26" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="D45" s="4">
         <v>1</v>
@@ -8325,10 +8328,10 @@
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D46" s="5">
         <v>1</v>
@@ -8384,7 +8387,7 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="26" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -8412,7 +8415,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C49" s="26" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -8440,10 +8443,10 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D50" s="5">
         <v>1</v>
@@ -8499,7 +8502,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C52" s="26" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -8527,7 +8530,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C53" s="26" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -8564,7 +8567,7 @@
     </row>
     <row r="56" spans="1:16" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="31" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B56" s="30" t="s">
         <v>122</v>
@@ -8573,16 +8576,16 @@
         <v>129</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="H56" s="28"/>
       <c r="M56" s="28"/>
@@ -8593,7 +8596,7 @@
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="1" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="C57" s="26" t="s">
         <v>130</v>
@@ -8640,7 +8643,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="C59" s="26" t="s">
         <v>130</v>
@@ -8687,7 +8690,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="C61" s="26" t="s">
         <v>130</v>
@@ -8743,7 +8746,7 @@
     </row>
     <row r="65" spans="1:16" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="31" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B65" s="30" t="s">
         <v>122</v>
@@ -8752,19 +8755,19 @@
         <v>133</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E65" s="22" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="G65" s="22" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="H65" s="53" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="I65" s="28"/>
       <c r="J65" s="28"/>
@@ -8778,10 +8781,10 @@
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="51"/>
       <c r="B66" s="1" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="D66" s="5">
         <v>1</v>
@@ -8809,7 +8812,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C67" s="26" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="D67" s="4">
         <v>1.35</v>
@@ -8837,7 +8840,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C68" s="26" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="D68" s="4">
         <v>1.35</v>
@@ -8865,7 +8868,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C69" s="26" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="D69" s="4">
         <v>5.4</v>
@@ -8893,10 +8896,10 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="D70" s="5">
         <v>1</v>
@@ -8924,7 +8927,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C71" s="26" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="D71" s="4">
         <v>1.35</v>
@@ -8952,7 +8955,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C72" s="26" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="D72" s="4">
         <v>1.35</v>
@@ -8980,7 +8983,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C73" s="26" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="D73" s="4">
         <v>5.4</v>
@@ -9008,10 +9011,10 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="D74" s="5">
         <v>1</v>
@@ -9039,7 +9042,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C75" s="26" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="D75" s="4">
         <v>1.35</v>
@@ -9067,7 +9070,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C76" s="26" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="D76" s="4">
         <v>1.35</v>
@@ -9095,7 +9098,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C77" s="26" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="D77" s="4">
         <v>5.4</v>
@@ -9123,10 +9126,10 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="C78" s="26" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="D78" s="5">
         <v>1</v>
@@ -9154,7 +9157,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C79" s="26" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
@@ -9182,7 +9185,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C80" s="26" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -9210,7 +9213,7 @@
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C81" s="26" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -9238,10 +9241,10 @@
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C82" s="26" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="D82" s="5">
         <v>1</v>
@@ -9269,7 +9272,7 @@
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C83" s="26" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
@@ -9297,7 +9300,7 @@
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C84" s="26" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="D84" s="4">
         <v>1</v>
@@ -9325,7 +9328,7 @@
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C85" s="26" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
@@ -9353,10 +9356,10 @@
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="C86" s="26" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="D86" s="5">
         <v>1</v>
@@ -9384,7 +9387,7 @@
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C87" s="26" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -9412,7 +9415,7 @@
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C88" s="26" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -9440,7 +9443,7 @@
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C89" s="26" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -9468,10 +9471,10 @@
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="C90" s="26" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="D90" s="5">
         <v>1</v>
@@ -9499,7 +9502,7 @@
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C91" s="26" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -9527,7 +9530,7 @@
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C92" s="26" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -9555,7 +9558,7 @@
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C93" s="26" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -9583,10 +9586,10 @@
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="1" t="s">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="C94" s="26" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="D94" s="5">
         <v>1</v>
@@ -9614,7 +9617,7 @@
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C95" s="26" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
@@ -9642,7 +9645,7 @@
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C96" s="26" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
@@ -9670,7 +9673,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C97" s="26" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="D97" s="4">
         <v>1</v>
@@ -9698,10 +9701,10 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B98" s="1" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="D98" s="5">
         <v>1</v>
@@ -9729,7 +9732,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C99" s="26" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="D99" s="4">
         <v>1</v>
@@ -9757,7 +9760,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C100" s="26" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="D100" s="4">
         <v>1</v>
@@ -9785,7 +9788,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C101" s="26" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="D101" s="4">
         <v>1</v>
@@ -9818,28 +9821,28 @@
     </row>
     <row r="104" spans="1:16" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="31" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="B104" s="52" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="C104" s="29" t="s">
         <v>133</v>
       </c>
       <c r="D104" s="22" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E104" s="22" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F104" s="22" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="G104" s="22" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="H104" s="53" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="I104" s="28"/>
       <c r="J104" s="28"/>
@@ -9854,7 +9857,7 @@
       <c r="A105" s="2"/>
       <c r="B105" s="27"/>
       <c r="C105" s="26" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="D105" s="5">
         <v>1</v>
@@ -9882,7 +9885,7 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C106" s="26" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="D106" s="4">
         <v>1.26</v>
@@ -9910,7 +9913,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C107" s="26" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="D107" s="4">
         <v>1.68</v>
@@ -9938,7 +9941,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C108" s="26" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="D108" s="4">
         <v>2.65</v>
@@ -9968,7 +9971,7 @@
       <c r="A111" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CrGXr5w71j/QY9a46UbAaxyCWyhZVCraghQ+9wE/w5jrVTTS4WmB5MYWRcvzAkBaatF/lruPk3tMc8Vkl4EuUQ==" saltValue="LCOiIEjfHIeZ0/Muskh1sA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1+kAUHB3qWLdF5+Qv2lJMGvzKr0GrrE8KfV1+Ruh65qIMNzDpwQdsXt+TytyQiGhKL9BEGa/8YWsR7VMiPQfew==" saltValue="wvQWKbsLBY6pPYAq/GOXQQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -9999,33 +10002,33 @@
   <sheetData>
     <row r="1" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>0</v>
@@ -10046,7 +10049,7 @@
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C4" s="4">
         <v>1.0249999999999999</v>
@@ -10066,12 +10069,12 @@
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -10091,7 +10094,7 @@
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -10111,7 +10114,7 @@
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -10139,13 +10142,13 @@
     </row>
     <row r="10" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="3" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="C11" s="4">
         <v>1.5</v>
@@ -10169,15 +10172,15 @@
     </row>
     <row r="13" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="51" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C14" s="4">
         <v>1.0249999999999999</v>
@@ -10198,7 +10201,7 @@
     <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="6" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C15" s="4">
         <v>1.0249999999999999</v>
@@ -10218,10 +10221,10 @@
     </row>
     <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="51" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
@@ -10242,26 +10245,26 @@
     <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="43" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="C20" s="4">
         <v>1.52</v>
@@ -10277,7 +10280,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="q22If9taeHTfnfOj9hGDqWeGZ7xOmDmgl73CgMBOXO0V9bRl5c3R5R4liMz+YDOfEtMHolyrvW271vfctsBthg==" saltValue="85KXnkq9BJ5KEF9tWTVEDw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+wBgc8r3u6bJ2cZuqt+RUp5mDcKWg+zJaf1ydTrnHp4FERbIMDkB0NOfu35AAvf5Niunnx92eY0mGxYYDyxotg==" saltValue="w5Vxhlhef4vCrCG24HHOJg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -10306,28 +10309,28 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C2" s="4">
         <v>0.21</v>
@@ -10345,7 +10348,7 @@
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
       <c r="B3" s="34" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
@@ -10362,10 +10365,10 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C4" s="4">
         <v>0.15</v>
@@ -10383,7 +10386,7 @@
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34"/>
       <c r="B5" s="34" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -10400,10 +10403,10 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C6" s="4">
         <v>0.15</v>
@@ -10421,7 +10424,7 @@
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="34"/>
       <c r="B7" s="34" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -10441,7 +10444,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C8" s="4">
         <v>0.35</v>
@@ -10459,7 +10462,7 @@
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="34"/>
       <c r="B9" s="34" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -10476,10 +10479,10 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="34" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C10" s="4">
         <v>0.35</v>
@@ -10497,7 +10500,7 @@
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="34"/>
       <c r="B11" s="34" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
@@ -10514,10 +10517,10 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="34" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C12" s="4">
         <v>0.23</v>
@@ -10535,7 +10538,7 @@
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="34"/>
       <c r="B13" s="34" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
@@ -10557,7 +10560,7 @@
       <c r="A20" s="34"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kkb8l+0A/OCwg2l/2xaLTqlgzvFAVUpOk2MmVfdQJfeMh+Nd8aEKHdtJIvTpjGRIpvI4FgpVppG4MIFvjR2//w==" saltValue="J7dHT+h3JA1vZeee1/MoWw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UPoBZfKzXVXu5uMjj/Q19gtsf42j8nGlc5n8ZIoVODG/u7q9FwXArGvFAnqLEjJiah+xBHLi9ZKMT0WF/PTqkA==" saltValue="OD49k2CWceUOsknCp24DGA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -10586,53 +10589,53 @@
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>12</v>
-      </c>
       <c r="K1" s="22" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="35" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="C3" s="4">
         <v>0.53</v>
@@ -10676,7 +10679,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="35" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -10720,7 +10723,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="35" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -10764,7 +10767,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="35" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -10808,7 +10811,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -10852,7 +10855,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="34" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -10896,7 +10899,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="34" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -10984,7 +10987,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
@@ -11028,7 +11031,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="35" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="C12" s="4">
         <v>0.83</v>
@@ -11072,7 +11075,7 @@
     </row>
     <row r="13" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="35" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
@@ -11116,7 +11119,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="35" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
@@ -11160,13 +11163,13 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B16" s="35"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="34" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="C17" s="4">
         <v>1</v>
@@ -11210,7 +11213,7 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="34" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
@@ -11254,7 +11257,7 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="34" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
@@ -11298,7 +11301,7 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="34" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
@@ -11353,7 +11356,7 @@
       <c r="B28" s="26"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wneWb7xjWmQGuobVr1vKOwxLyktS8OzAiScyDuVkLHXOKMHXwYeXB96V2t+V7qLlHlMort5x7M5HWH0vDUfoFA==" saltValue="Rl6z7Y7Tpa3qTeh0LYFEWw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+Gxx76DGfiZUKnRdlcK94kvlF4bGOFTsBCm01nvjNlAXHnW9uOLQbSGZe5hn9syzCFYZCjyxmAx4VOm8mICoZQ==" saltValue="/CxFBv7+Wuc99UWs4tU9EQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:O14">
     <sortCondition ref="B3:B14"/>
   </sortState>

--- a/inputs/fr/legacy_default_params.xlsx
+++ b/inputs/fr/legacy_default_params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{112643C0-5B94-4E78-81FC-F258CBE15EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96E68FC8-6137-41F4-A995-6CFCEBAD2F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="7815" windowWidth="30255" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5985" yWindow="0" windowWidth="30255" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Programmes population touchée" sheetId="14" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Risques relatifs" sheetId="3" r:id="rId6"/>
     <sheet name="Rapports des cotes" sheetId="4" r:id="rId7"/>
     <sheet name="Programmes-rés. des naissances" sheetId="5" r:id="rId8"/>
-    <sheet name="Programs anemia" sheetId="6" r:id="rId9"/>
+    <sheet name="Programmes-anémie" sheetId="6" r:id="rId9"/>
     <sheet name="Programmes-amaigrissement" sheetId="7" r:id="rId10"/>
     <sheet name="Programmes pour les enfants" sheetId="8" r:id="rId11"/>
     <sheet name="Programmes pour les FE" sheetId="10" r:id="rId12"/>
@@ -241,16 +241,16 @@
     <t>AGA à terme</t>
   </si>
   <si>
-    <t>FAP : 15-19 ans</t>
-  </si>
-  <si>
-    <t>FAP : 20-29 ans</t>
-  </si>
-  <si>
-    <t>FAP : 30-39 ans</t>
-  </si>
-  <si>
-    <t>FAP : 40-49 ans</t>
+    <t>FAP: 15-19 ans</t>
+  </si>
+  <si>
+    <t>FAP: 20-29 ans</t>
+  </si>
+  <si>
+    <t>FAP: 30-39 ans</t>
+  </si>
+  <si>
+    <t>FAP: 40-49 ans</t>
   </si>
   <si>
     <t>FAP non enceintes</t>
@@ -337,16 +337,16 @@
     <t>Anémie</t>
   </si>
   <si>
-    <t>FE : 15-19 ans</t>
-  </si>
-  <si>
-    <t>FE : 20-29 ans</t>
-  </si>
-  <si>
-    <t>FE : 30-39 ans</t>
-  </si>
-  <si>
-    <t>FE : 40-49 ans</t>
+    <t>FE: 15-19 ans</t>
+  </si>
+  <si>
+    <t>FE: 20-29 ans</t>
+  </si>
+  <si>
+    <t>FE: 30-39 ans</t>
+  </si>
+  <si>
+    <t>FE: 40-49 ans</t>
   </si>
   <si>
     <t>Allaitement maternel</t>
@@ -460,19 +460,19 @@
     <t>Supplémentation en vitamine A</t>
   </si>
   <si>
-    <t>WASH : lavage des mains</t>
-  </si>
-  <si>
-    <t>WASH : Élimination hygiénique</t>
-  </si>
-  <si>
-    <t>WASH : Amélioration de l'assainissement</t>
-  </si>
-  <si>
-    <t>WASH : Source d'eau améliorée</t>
-  </si>
-  <si>
-    <t>WASH : Eau courante</t>
+    <t>WASH: lavage des mains</t>
+  </si>
+  <si>
+    <t>WASH: Élimination hygiénique</t>
+  </si>
+  <si>
+    <t>WASH: Amélioration de l'assainissement</t>
+  </si>
+  <si>
+    <t>WASH: Source d'eau améliorée</t>
+  </si>
+  <si>
+    <t>WASH: Eau courante</t>
   </si>
   <si>
     <t>Zinc pour le traitement + SRO</t>
@@ -3014,7 +3014,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4MyHteQ/Av1V9Bsw/KaQlPjf2BQCyTjAVZJ7jrRjViknJpu3KEMZM+jMTPksCwOTGz6PmAG/ELlypwYnARpZOw==" saltValue="KLVhD9kU11/vucRoka5FyA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Xk/jOnvgteCSMKTh6WrEI9ndNoVy+wG71v1I6gqZCgUp4Oh9BdpyzDp7jgyuEUL4a87LbaU0bZen9laW/cNHgw==" saltValue="z6deCNIZzwu/kN5mgey4Rg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B17:O24">
     <sortCondition ref="B17:B24"/>
   </sortState>
@@ -3117,7 +3117,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tzRDcXPAb479hyEvUBhG3BtZVeeubkn8jzqSMUSbOupONlhU8d+lF667iRJfxWk4boB/LWnHxdi3CWqfYM16nQ==" saltValue="O8tijXWVrb318IvQ3IjptQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3v+WkCvmEBRe4WZOZWz7HBNkSvqkVXVuCAVSFe2xn+UaQVhGt7QWh+CXtBtuaExJXqkrYgVtLthpmK+F6ay5gw==" saltValue="v3UJN5P4OPrsBYevDE/bfg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -4247,7 +4247,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UfBsNXZ5c4ONIAzpVyztc/75Lrb5Gr7ISMUqL/aJjujssU/iuBOCBKNn85IRQcbxAE8D0rmPxBbOuAXwA3pjMw==" saltValue="Lb1lWTyqRKRxu1IyRqjjWQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qtv9Qc/b3EyOcfo24h7CDyZh5bDEiEjxzalkZZd48HsVGgz0TUIsJbxdkhFe363y3yvYLDn3biJ8/ZPYwH8e/g==" saltValue="JUfAaVk/zr6vihX8dcuZhA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -4424,7 +4424,7 @@
       <c r="H7" s="37"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="70UXVn/1IEAadyA9KtQK2GizbedSzDkSBPSWlVWJuzXjru7HABxUEH3DPgWhUDVfGBfige2Ch37fagALuAKlbg==" saltValue="BUpl2zu8rpXkYlrBmJMbcg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MrItd71/or0iFYcho738E5tdm3ld1rvIwX4gFknC3hgv5sIezSvB9YiXOTSxXQv5rx392werU5f/OYUI2h4tPA==" saltValue="RsAWWI3qC5NMT17Ca4kOQA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5170,7 +5170,7 @@
       <c r="K38" s="50"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vHk2m6PMSJMkUXhXNU3Z5Fq0GK9iQOhr2phz2zwYASXk+pcHVM94QD2K1CUHt9dtFY1aHAi5mVpL0cGDTnvWbg==" saltValue="Dp0167Uz9brpkGF4k3oF/w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="W9B4eNEwtBU+Y2J9wi3tNNxofEViHD67LLiThEUUJ1RZlrXPj3Lvu9n12A/6pF/261nx608/FFOZ8nsiNpfAIA==" saltValue="E5+qIScF97xAVpJrUN6Ekw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J38">
     <sortCondition ref="A2:A38"/>
   </sortState>
@@ -5547,7 +5547,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qdNtrv2Llk7VohgKLqpCzuWeleagB1ns3s3aJEctgkgNHgfPqXW6C7yfWks10IVhwPgBDsrbKkGDbByv1B14hw==" saltValue="pZl1OY6QdE85o8xJaJgbQA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6feySCHAhOcIAGm8LTBZpulDl0ogFl8babcbLDo2qQng9sMCIfIpUS9lnbdY9+hRzEiNI72SN6m46M9VVrpY1Q==" saltValue="zjP9iytP2YeByizH+eA7yA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6654,7 +6654,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nL/Phv6jVMFKVVS6LjzGjuwEoZASZxLeCGYgM3RcePlQhE/HCFJJDdH15ARf5CtFGYwB72VObtKAe5/2khadbw==" saltValue="3NpF3mfADmmn9s6OJh8SEw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="82W6yvYtNzJ6JCQBqcigQ+v9SsTQWzPpOw28otQTY0gdkLO9c10AJMNAlqLyow8yvAZt7r6G1Es2UUQfKvk4tw==" saltValue="akTPVcW+i0v/D1YVmdgG7w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="15">
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
@@ -7068,7 +7068,7 @@
       <c r="B28" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5yTDt1SRyM9FYQQKhWLhvFbJ9312Spf25YnQU8b6XNo+JoZDHfMhqzgsNZxjfNqQGkg+grUvp/s1ub07aq3YgA==" saltValue="pYn7I5yLWxKePQK0xemzIQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="HV34jLVUtP5Bhr5dGMviIz4Q+1KYsex6ClA3xjQRZJtYvPyeEODsNbclLlZ76CmdYLiHTnHPyILKqjMnRwzePQ==" saltValue="T71ubZfyTAuvWpqUHGbZcA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -9971,7 +9971,7 @@
       <c r="A111" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1+kAUHB3qWLdF5+Qv2lJMGvzKr0GrrE8KfV1+Ruh65qIMNzDpwQdsXt+TytyQiGhKL9BEGa/8YWsR7VMiPQfew==" saltValue="wvQWKbsLBY6pPYAq/GOXQQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="H3ZPeZp4kdXRNtK3YFNezKi9bd25+42X/UCF04EHPB0JlPxKSBzXdZlNm4YFjmGY95Nty6RMAvztkt55yxDCWA==" saltValue="V6zJkbGFAZSXVOFY/SUPtQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -10280,7 +10280,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+wBgc8r3u6bJ2cZuqt+RUp5mDcKWg+zJaf1ydTrnHp4FERbIMDkB0NOfu35AAvf5Niunnx92eY0mGxYYDyxotg==" saltValue="w5Vxhlhef4vCrCG24HHOJg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="v5gdQMDjlgKFTqlQfzZXVZ8lFa+wbcZy8Rqj1sudvgpsSabv6IwW82P7sWjkdX9DK2PPY+nVj5+GkIoZArnkBw==" saltValue="a9HSRrD6gLAtbLRJF/Bq0w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -10560,7 +10560,7 @@
       <c r="A20" s="34"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UPoBZfKzXVXu5uMjj/Q19gtsf42j8nGlc5n8ZIoVODG/u7q9FwXArGvFAnqLEjJiah+xBHLi9ZKMT0WF/PTqkA==" saltValue="OD49k2CWceUOsknCp24DGA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="R54hTLhuJIcn/O9hJWasXsxP5SgJQPjNUxnlzqbVUwbO4CHma0MvPmm6gUjTNXJuVr65VXNEnJ6iPcG+7jqiEg==" saltValue="Puz4ggzU556wShQe1MlyeA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -11356,7 +11356,7 @@
       <c r="B28" s="26"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+Gxx76DGfiZUKnRdlcK94kvlF4bGOFTsBCm01nvjNlAXHnW9uOLQbSGZe5hn9syzCFYZCjyxmAx4VOm8mICoZQ==" saltValue="/CxFBv7+Wuc99UWs4tU9EQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="H74eR+rppUszPz6pm/eWf735wwaBgzgc40Gd7SmkcYSZpeVCKpBZrHDV/RLdImse8a1/brnrTmSZgZ0MM0DTtg==" saltValue="uO1HNhYJcbq7dQk7+2QVaA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:O14">
     <sortCondition ref="B3:B14"/>
   </sortState>

--- a/inputs/fr/legacy_default_params.xlsx
+++ b/inputs/fr/legacy_default_params.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee.altermatt\Documents\GitHub\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96E68FC8-6137-41F4-A995-6CFCEBAD2F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F611D0B-3540-4A39-8C03-7A8CCCCE3C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5985" yWindow="0" windowWidth="30255" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Programmes population touchée" sheetId="14" r:id="rId1"/>
-    <sheet name="Programme régions à risque" sheetId="15" r:id="rId2"/>
-    <sheet name="Population des régions à risque" sheetId="16" r:id="rId3"/>
+    <sheet name="Programmes - population touchée" sheetId="14" r:id="rId1"/>
+    <sheet name="Programme - secteurs à risque" sheetId="15" r:id="rId2"/>
+    <sheet name="Population des sect. à risque" sheetId="16" r:id="rId3"/>
     <sheet name="Rapport des cotes IYCF" sheetId="12" r:id="rId4"/>
     <sheet name="Risques des rés. des naissances" sheetId="2" r:id="rId5"/>
     <sheet name="Risques relatifs" sheetId="3" r:id="rId6"/>
@@ -211,9 +211,225 @@
     <t>Outcome</t>
   </si>
   <si>
+    <t>FAP: 15-19 ans</t>
+  </si>
+  <si>
+    <t>FAP: 20-29 ans</t>
+  </si>
+  <si>
+    <t>FAP: 30-39 ans</t>
+  </si>
+  <si>
+    <t>FAP: 40-49 ans</t>
+  </si>
+  <si>
+    <t>FAP non enceintes</t>
+  </si>
+  <si>
+    <t>Enfants</t>
+  </si>
+  <si>
+    <t>1-5 mois</t>
+  </si>
+  <si>
+    <t>6-11 mois</t>
+  </si>
+  <si>
+    <t>12-23 mois</t>
+  </si>
+  <si>
+    <t>24-59 mois</t>
+  </si>
+  <si>
+    <t>Femmes enceintes</t>
+  </si>
+  <si>
+    <t>&lt;1 mois</t>
+  </si>
+  <si>
+    <t>FE: 15-19 ans</t>
+  </si>
+  <si>
+    <t>FE: 20-29 ans</t>
+  </si>
+  <si>
+    <t>FE: 30-39 ans</t>
+  </si>
+  <si>
+    <t>FE: 40-49 ans</t>
+  </si>
+  <si>
+    <t>Programme</t>
+  </si>
+  <si>
+    <t>Supplémentation équilibrée en énergie et en protéines</t>
+  </si>
+  <si>
+    <t>Supplémentation en calcium</t>
+  </si>
+  <si>
+    <t>Transferts monétaires</t>
+  </si>
+  <si>
+    <t>Clampage tardif du cordon</t>
+  </si>
+  <si>
+    <t>Planification familiale</t>
+  </si>
+  <si>
+    <t>Enrichissement du maïs en FAF</t>
+  </si>
+  <si>
+    <t>Enrichissement du riz en FAF</t>
+  </si>
+  <si>
+    <t>Enrichissement en FAF de la farine de blé</t>
+  </si>
+  <si>
+    <t>SFAF (communautaire)</t>
+  </si>
+  <si>
+    <t>SFAF (établissement de santé)</t>
+  </si>
+  <si>
+    <t>SFAF (détaillant)</t>
+  </si>
+  <si>
+    <t>SFAF (école)</t>
+  </si>
+  <si>
+    <t>SFAF pour les femmes enceintes (communautaire)</t>
+  </si>
+  <si>
+    <t>SFAF pour les femmes enceintes (établissement de santé)</t>
+  </si>
+  <si>
+    <t>Enrichissement du sel en fer et en iode</t>
+  </si>
+  <si>
+    <t>Méthode mère kangourou</t>
+  </si>
+  <si>
+    <t>Supplémentation en nutriments à base de lipides</t>
+  </si>
+  <si>
+    <t>Moustiquaires imprégnées d'insecticide de longue durée</t>
+  </si>
+  <si>
+    <t>Mg pour l'éclampsie</t>
+  </si>
+  <si>
+    <t>Mg pour la pré-éclampsie</t>
+  </si>
+  <si>
+    <t>Poudres de micronutriments</t>
+  </si>
+  <si>
+    <t>Supplémentation en micronutriments multiples</t>
+  </si>
+  <si>
+    <t>Sels de réhydratation orale</t>
+  </si>
+  <si>
+    <t>Fourniture publique d'aliments complémentaires</t>
+  </si>
+  <si>
+    <t>Traitement de la MAS</t>
+  </si>
+  <si>
+    <t>Supplémentation en vitamine A</t>
+  </si>
+  <si>
+    <t>WASH: lavage des mains</t>
+  </si>
+  <si>
+    <t>WASH: Élimination hygiénique</t>
+  </si>
+  <si>
+    <t>WASH: Amélioration de l'assainissement</t>
+  </si>
+  <si>
+    <t>WASH: Source d'eau améliorée</t>
+  </si>
+  <si>
+    <t>WASH: Eau courante</t>
+  </si>
+  <si>
+    <t>Zinc pour le traitement + SRO</t>
+  </si>
+  <si>
+    <t>Supplémentation en zinc</t>
+  </si>
+  <si>
+    <t>Population générale</t>
+  </si>
+  <si>
+    <t>Groupe général de la population</t>
+  </si>
+  <si>
     <t>Espacement des naissances</t>
   </si>
   <si>
+    <t>Mortalité</t>
+  </si>
+  <si>
+    <t>Diarrhée</t>
+  </si>
+  <si>
+    <t>Anémie</t>
+  </si>
+  <si>
+    <t>Allaitement maternel</t>
+  </si>
+  <si>
+    <t>Retard de croissance</t>
+  </si>
+  <si>
+    <t>Prévention de l'amaigrissement</t>
+  </si>
+  <si>
+    <t>Traitement de l'amaigrissement</t>
+  </si>
+  <si>
+    <t>Résultats des naissances</t>
+  </si>
+  <si>
+    <t>Nombre de naissances</t>
+  </si>
+  <si>
+    <t>Tranche d'âge</t>
+  </si>
+  <si>
+    <t>Population cible</t>
+  </si>
+  <si>
+    <t>Établissement de santé</t>
+  </si>
+  <si>
+    <t>Communautaire</t>
+  </si>
+  <si>
+    <t>Médias de masse</t>
+  </si>
+  <si>
+    <t>Tous</t>
+  </si>
+  <si>
+    <t>Mode de livraison</t>
+  </si>
+  <si>
+    <t>Comportement</t>
+  </si>
+  <si>
+    <t>Rapport des cotes pour l'allaitement maternelle correct</t>
+  </si>
+  <si>
+    <t>Rapport des cotes pour le retard de croissance</t>
+  </si>
+  <si>
+    <t>Rapport des cotes pour l'alimentation complémetaire</t>
+  </si>
+  <si>
     <t>Première naissance</t>
   </si>
   <si>
@@ -226,9 +442,6 @@
     <t>24 mois ou plus</t>
   </si>
   <si>
-    <t>Mortalité</t>
-  </si>
-  <si>
     <t>SGA prématuré</t>
   </si>
   <si>
@@ -241,21 +454,6 @@
     <t>AGA à terme</t>
   </si>
   <si>
-    <t>FAP: 15-19 ans</t>
-  </si>
-  <si>
-    <t>FAP: 20-29 ans</t>
-  </si>
-  <si>
-    <t>FAP: 30-39 ans</t>
-  </si>
-  <si>
-    <t>FAP: 40-49 ans</t>
-  </si>
-  <si>
-    <t>FAP non enceintes</t>
-  </si>
-  <si>
     <t>Diarrhée néonatale</t>
   </si>
   <si>
@@ -280,10 +478,31 @@
     <t>Autres pathologies néonatales</t>
   </si>
   <si>
-    <t>Enfants</t>
-  </si>
-  <si>
-    <t>Diarrhée</t>
+    <t>Facteurs de risque maternels contribuant aux résultats des naissances</t>
+  </si>
+  <si>
+    <t>Risque relatif par espacement des naissances</t>
+  </si>
+  <si>
+    <t>Risques pour les enfants touchés par chaque résultat des naissances</t>
+  </si>
+  <si>
+    <t>Rapport des cote pour des conditions</t>
+  </si>
+  <si>
+    <t>Amaigrissement (score-HAZ &lt; -2)</t>
+  </si>
+  <si>
+    <t>MM (Score-WHZ entre -3 et -2)</t>
+  </si>
+  <si>
+    <t>MAS (Score-WHZ &lt; -3)</t>
+  </si>
+  <si>
+    <t>Risques relatifs des causes du décès néonatales</t>
+  </si>
+  <si>
+    <t>Rapport des cotes pour les femmes avec l'anémie maternelle</t>
   </si>
   <si>
     <t>Pneumonie</t>
@@ -304,21 +523,6 @@
     <t>Autre</t>
   </si>
   <si>
-    <t>1-5 mois</t>
-  </si>
-  <si>
-    <t>6-11 mois</t>
-  </si>
-  <si>
-    <t>12-23 mois</t>
-  </si>
-  <si>
-    <t>24-59 mois</t>
-  </si>
-  <si>
-    <t>Femmes enceintes</t>
-  </si>
-  <si>
     <t>Hémorragie antepartum</t>
   </si>
   <si>
@@ -328,337 +532,133 @@
     <t>Hémorragie du post-partum</t>
   </si>
   <si>
+    <t>Exclusif</t>
+  </si>
+  <si>
+    <t>Prédominant</t>
+  </si>
+  <si>
+    <t>Partiel</t>
+  </si>
+  <si>
+    <t>Aucun</t>
+  </si>
+  <si>
+    <t>Risque relatif des causes du décès par la distribution de la taille-pour-l'àge (retard de croissance)</t>
+  </si>
+  <si>
+    <t>Cause du décès</t>
+  </si>
+  <si>
+    <t>Niveau HAZ</t>
+  </si>
+  <si>
+    <t>Léger</t>
+  </si>
+  <si>
+    <t>Modéré</t>
+  </si>
+  <si>
+    <t>Élevé</t>
+  </si>
+  <si>
+    <t>Niveau WHZ</t>
+  </si>
+  <si>
+    <t>Risque relatif des causes du décès par condition anémique</t>
+  </si>
+  <si>
+    <t>Condition anémique</t>
+  </si>
+  <si>
+    <t>Pas anémique</t>
+  </si>
+  <si>
+    <t>Anémique</t>
+  </si>
+  <si>
+    <t>Risque relatif des causes du décès par mode d'allaitement maternel</t>
+  </si>
+  <si>
+    <t>Mode d'allaitement maternel</t>
+  </si>
+  <si>
+    <t>Risques relatifs de la diarrhée par mode d'allaitement maternel</t>
+  </si>
+  <si>
+    <t>MAS</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>Risque relatif des causes du décès par la distribution du poids-pour-taille (amaigrissement)</t>
+  </si>
+  <si>
+    <t>Amaigrissement</t>
+  </si>
+  <si>
+    <t>Compte tenu du retard de croissance antérieur (HAZ &lt; -2 dans la tranche d’âge précédente)</t>
+  </si>
+  <si>
+    <t>Diarrhée (par épisode supplémentaire)</t>
+  </si>
+  <si>
+    <t>Par programme</t>
+  </si>
+  <si>
+    <t>Rapports des cotes supplémentaires</t>
+  </si>
+  <si>
+    <t>Pour MAS par épisode supplémentaire de la diarrhée</t>
+  </si>
+  <si>
+    <t>Pour l'anémie par épisode supplémentaire de la diarrhée aiguë</t>
+  </si>
+  <si>
+    <t>Rapport des cotes pour allaitement maternel correct par programme</t>
+  </si>
+  <si>
+    <t>Pour MM par épisode supplémentaire de la diarrhée</t>
+  </si>
+  <si>
+    <t>Rapports des cotes pour espacement des naissances optimal par programme</t>
+  </si>
+  <si>
+    <t>efficacité</t>
+  </si>
+  <si>
+    <t>fraction touchée</t>
+  </si>
+  <si>
+    <t>Risques relatifs de l'anémie en recevant l'intervention</t>
+  </si>
+  <si>
+    <t>Rapports des cotes de l'anémie en étant couverte par l'intervention</t>
+  </si>
+  <si>
+    <t>Gestion de la MM</t>
+  </si>
+  <si>
+    <t>Rapport des cotes de la MAS en étant couvert par le programme</t>
+  </si>
+  <si>
+    <t>Rapport des cotes de la MM en étant couvert par le programme</t>
+  </si>
+  <si>
+    <t>Condition ciblée</t>
+  </si>
+  <si>
+    <t>Fraction touchée</t>
+  </si>
+  <si>
+    <t>Efficacité à prévenir une mort</t>
+  </si>
+  <si>
+    <t>Efficacité à prévenir un cas</t>
+  </si>
+  <si>
     <t>Troubles hypertensifs</t>
-  </si>
-  <si>
-    <t>&lt;1 mois</t>
-  </si>
-  <si>
-    <t>Anémie</t>
-  </si>
-  <si>
-    <t>FE: 15-19 ans</t>
-  </si>
-  <si>
-    <t>FE: 20-29 ans</t>
-  </si>
-  <si>
-    <t>FE: 30-39 ans</t>
-  </si>
-  <si>
-    <t>FE: 40-49 ans</t>
-  </si>
-  <si>
-    <t>Allaitement maternel</t>
-  </si>
-  <si>
-    <t>Exclusif</t>
-  </si>
-  <si>
-    <t>Prédominant</t>
-  </si>
-  <si>
-    <t>Partiel</t>
-  </si>
-  <si>
-    <t>Aucun</t>
-  </si>
-  <si>
-    <t>Population cible</t>
-  </si>
-  <si>
-    <t>Établissement de santé</t>
-  </si>
-  <si>
-    <t>Communautaire</t>
-  </si>
-  <si>
-    <t>Médias de masse</t>
-  </si>
-  <si>
-    <t>Tous</t>
-  </si>
-  <si>
-    <t>Programme</t>
-  </si>
-  <si>
-    <t>Supplémentation équilibrée en énergie et en protéines</t>
-  </si>
-  <si>
-    <t>Supplémentation en calcium</t>
-  </si>
-  <si>
-    <t>Transferts monétaires</t>
-  </si>
-  <si>
-    <t>Clampage tardif du cordon</t>
-  </si>
-  <si>
-    <t>Planification familiale</t>
-  </si>
-  <si>
-    <t>Enrichissement du maïs en FAF</t>
-  </si>
-  <si>
-    <t>Enrichissement du riz en FAF</t>
-  </si>
-  <si>
-    <t>Enrichissement en FAF de la farine de blé</t>
-  </si>
-  <si>
-    <t>SFAF (communautaire)</t>
-  </si>
-  <si>
-    <t>SFAF (établissement de santé)</t>
-  </si>
-  <si>
-    <t>SFAF (détaillant)</t>
-  </si>
-  <si>
-    <t>SFAF (école)</t>
-  </si>
-  <si>
-    <t>SFAF pour les femmes enceintes (communautaire)</t>
-  </si>
-  <si>
-    <t>SFAF pour les femmes enceintes (établissement de santé)</t>
-  </si>
-  <si>
-    <t>Enrichissement du sel en fer et en iode</t>
-  </si>
-  <si>
-    <t>Méthode mère kangourou</t>
-  </si>
-  <si>
-    <t>Supplémentation en nutriments à base de lipides</t>
-  </si>
-  <si>
-    <t>Moustiquaires imprégnées d'insecticide de longue durée</t>
-  </si>
-  <si>
-    <t>Mg pour l'éclampsie</t>
-  </si>
-  <si>
-    <t>Mg pour la pré-éclampsie</t>
-  </si>
-  <si>
-    <t>Poudres de micronutriments</t>
-  </si>
-  <si>
-    <t>Supplémentation en micronutriments multiples</t>
-  </si>
-  <si>
-    <t>Sels de réhydratation orale</t>
-  </si>
-  <si>
-    <t>Fourniture publique d'aliments complémentaires</t>
-  </si>
-  <si>
-    <t>Traitement de la MAS</t>
-  </si>
-  <si>
-    <t>Supplémentation en vitamine A</t>
-  </si>
-  <si>
-    <t>WASH: lavage des mains</t>
-  </si>
-  <si>
-    <t>WASH: Élimination hygiénique</t>
-  </si>
-  <si>
-    <t>WASH: Amélioration de l'assainissement</t>
-  </si>
-  <si>
-    <t>WASH: Source d'eau améliorée</t>
-  </si>
-  <si>
-    <t>WASH: Eau courante</t>
-  </si>
-  <si>
-    <t>Zinc pour le traitement + SRO</t>
-  </si>
-  <si>
-    <t>Supplémentation en zinc</t>
-  </si>
-  <si>
-    <t>Mode de livraison</t>
-  </si>
-  <si>
-    <t>Gestion de la MM</t>
-  </si>
-  <si>
-    <t>Population générale</t>
-  </si>
-  <si>
-    <t>Groupe général de la population</t>
-  </si>
-  <si>
-    <t>Retard de croissance</t>
-  </si>
-  <si>
-    <t>Prévention de l'amaigrissement</t>
-  </si>
-  <si>
-    <t>Traitement de l'amaigrissement</t>
-  </si>
-  <si>
-    <t>Résultats des naissances</t>
-  </si>
-  <si>
-    <t>Nombre de naissances</t>
-  </si>
-  <si>
-    <t>Tranche d'âge</t>
-  </si>
-  <si>
-    <t>Comportement</t>
-  </si>
-  <si>
-    <t>Rapport des cotes pour l'allaitement maternelle correct</t>
-  </si>
-  <si>
-    <t>Rapport des cotes pour le retard de croissance</t>
-  </si>
-  <si>
-    <t>Rapport des cotes pour l'alimentation complémetaire</t>
-  </si>
-  <si>
-    <t>Facteurs de risque maternels contribuant aux résultats des naissances</t>
-  </si>
-  <si>
-    <t>Risque relatif par espacement des naissances</t>
-  </si>
-  <si>
-    <t>Risques pour les enfants touchés par chaque résultat des naissances</t>
-  </si>
-  <si>
-    <t>Rapport des cote pour des conditions</t>
-  </si>
-  <si>
-    <t>Amaigrissement (score-HAZ &lt; -2)</t>
-  </si>
-  <si>
-    <t>MM (Score-WHZ entre -3 et -2)</t>
-  </si>
-  <si>
-    <t>MAS (Score-WHZ &lt; -3)</t>
-  </si>
-  <si>
-    <t>Risques relatifs des causes du décès néonatales</t>
-  </si>
-  <si>
-    <t>Risque relatif des causes du décès par la distribution de la taille-pour-l'àge (retard de croissance)</t>
-  </si>
-  <si>
-    <t>Cause du décès</t>
-  </si>
-  <si>
-    <t>Niveau HAZ</t>
-  </si>
-  <si>
-    <t>Léger</t>
-  </si>
-  <si>
-    <t>Modéré</t>
-  </si>
-  <si>
-    <t>Élevé</t>
-  </si>
-  <si>
-    <t>Niveau WHZ</t>
-  </si>
-  <si>
-    <t>Risque relatif des causes du décès par condition anémique</t>
-  </si>
-  <si>
-    <t>Condition anémique</t>
-  </si>
-  <si>
-    <t>Pas anémique</t>
-  </si>
-  <si>
-    <t>Anémique</t>
-  </si>
-  <si>
-    <t>Risque relatif des causes du décès par mode d'allaitement maternel</t>
-  </si>
-  <si>
-    <t>Mode d'allaitement maternel</t>
-  </si>
-  <si>
-    <t>Risques relatifs de la diarrhée par mode d'allaitement maternel</t>
-  </si>
-  <si>
-    <t>Compte tenu du retard de croissance antérieur (HAZ &lt; -2 dans la tranche d’âge précédente)</t>
-  </si>
-  <si>
-    <t>Diarrhée (par épisode supplémentaire)</t>
-  </si>
-  <si>
-    <t>Par programme</t>
-  </si>
-  <si>
-    <t>Rapports des cotes supplémentaires</t>
-  </si>
-  <si>
-    <t>Pour MAS par épisode supplémentaire de la diarrhée</t>
-  </si>
-  <si>
-    <t>Pour l'anémie par épisode supplémentaire de la diarrhée</t>
-  </si>
-  <si>
-    <t>efficacité</t>
-  </si>
-  <si>
-    <t>fraction touchée</t>
-  </si>
-  <si>
-    <t>Risques relatifs de l'anémie en recevant l'intervention</t>
-  </si>
-  <si>
-    <t>Rapport des cotes de la MAS en étant couvert par le programme</t>
-  </si>
-  <si>
-    <t>Rapport des cotes de la MM en étant couvert par le programme</t>
-  </si>
-  <si>
-    <t>Condition ciblée</t>
-  </si>
-  <si>
-    <t>Fraction touchée</t>
-  </si>
-  <si>
-    <t>Efficacité à prévenir une mort</t>
-  </si>
-  <si>
-    <t>Efficacité à prévenir un cas</t>
-  </si>
-  <si>
-    <t>MAS</t>
-  </si>
-  <si>
-    <t>MM</t>
-  </si>
-  <si>
-    <t>Risque relatif des causes du décès par la distribution du poids-pour-taille (amaigrissement)</t>
-  </si>
-  <si>
-    <t>Rapport des cotes pour les femmes avec l'anémie maternelle</t>
-  </si>
-  <si>
-    <t>Rapport des cotes pour allaitement maternel correct par programme</t>
-  </si>
-  <si>
-    <t>Pour MM par épisode supplémentaire de la diarrhée</t>
-  </si>
-  <si>
-    <t>Rapports des cotes pour espacement des naissances optimal par programme</t>
-  </si>
-  <si>
-    <t>Rapports des cotes de l'anémie en étant couverte par l'intervention</t>
-  </si>
-  <si>
-    <t>Amaigrissement</t>
   </si>
 </sst>
 </file>
@@ -1261,72 +1261,72 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20" style="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53" style="41" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="41" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.875" style="41" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.875" style="41" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.125" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.83203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.83203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.08203125" style="41" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="14.5" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="43" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="C1" s="43" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D1" s="43" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="H1" s="43" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I1" s="43" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="J1" s="43" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="K1" s="43" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="L1" s="43" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="M1" s="43" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N1" s="43" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="O1" s="43" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="43" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="C2" s="50">
         <v>0</v>
@@ -1368,9 +1368,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="54" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="C3" s="50">
         <v>1</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="54" t="s">
         <v>4</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="54" t="s">
         <v>3</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="54" t="s">
         <v>2</v>
       </c>
@@ -1544,9 +1544,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="54" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="C7" s="50">
         <v>1</v>
@@ -1588,9 +1588,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="54" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="C8" s="50">
         <v>0</v>
@@ -1632,9 +1632,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="54" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="C9" s="50">
         <v>0</v>
@@ -1676,9 +1676,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="54" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C10" s="50">
         <v>1</v>
@@ -1720,9 +1720,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="54" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="C11" s="50">
         <v>0</v>
@@ -1764,9 +1764,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="54" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C12" s="50">
         <v>0</v>
@@ -1808,9 +1808,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="54" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="C13" s="50">
         <v>0</v>
@@ -1852,9 +1852,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="54" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="C14" s="50">
         <v>1</v>
@@ -1896,9 +1896,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="54" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="C15" s="50">
         <v>0</v>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="54"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -1956,12 +1956,12 @@
       <c r="N16" s="46"/>
       <c r="O16" s="46"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="43" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="C17" s="50">
         <v>0</v>
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="43"/>
       <c r="B18" s="54" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="C18" s="50">
         <v>0</v>
@@ -2048,9 +2048,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="34" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="C19" s="50">
         <v>0</v>
@@ -2092,9 +2092,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="34" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="C20" s="50">
         <v>0</v>
@@ -2136,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="55" t="s">
         <v>1</v>
       </c>
@@ -2180,9 +2180,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="54" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="C22" s="50">
         <v>0</v>
@@ -2224,9 +2224,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="54" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="C23" s="50">
         <v>0</v>
@@ -2268,9 +2268,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="54" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="C24" s="50">
         <v>0</v>
@@ -2312,7 +2312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="54"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -2328,12 +2328,12 @@
       <c r="N25" s="46"/>
       <c r="O25" s="46"/>
     </row>
-    <row r="26" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="43" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B26" s="54" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C26" s="50">
         <v>0</v>
@@ -2376,9 +2376,9 @@
       </c>
       <c r="P26" s="56"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="35" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="C27" s="50">
         <v>0</v>
@@ -2420,10 +2420,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="43"/>
       <c r="B28" s="35" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C28" s="50">
         <v>0</v>
@@ -2465,9 +2465,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="35" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="C29" s="50">
         <v>0</v>
@@ -2509,9 +2509,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="35" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="C30" s="50">
         <v>0</v>
@@ -2553,7 +2553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="54"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
@@ -2569,12 +2569,12 @@
       <c r="N31" s="46"/>
       <c r="O31" s="46"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="43" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="B32" s="54" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="C32" s="50">
         <v>1</v>
@@ -2616,9 +2616,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="54" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="C33" s="50">
         <v>1</v>
@@ -2660,9 +2660,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="54" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="C34" s="50">
         <v>1</v>
@@ -2704,9 +2704,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="54" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C35" s="50">
         <v>1</v>
@@ -2748,9 +2748,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="54" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="C36" s="50">
         <v>1</v>
@@ -2792,10 +2792,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="42"/>
       <c r="B37" s="54" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C37" s="50">
         <v>1</v>
@@ -2837,9 +2837,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="54" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="C38" s="50">
         <v>1</v>
@@ -2881,9 +2881,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="54" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="C39" s="50">
         <v>1</v>
@@ -2925,9 +2925,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="54" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="C40" s="50">
         <v>1</v>
@@ -2969,9 +2969,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="54" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="C41" s="50">
         <v>1</v>
@@ -3014,7 +3014,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Xk/jOnvgteCSMKTh6WrEI9ndNoVy+wG71v1I6gqZCgUp4Oh9BdpyzDp7jgyuEUL4a87LbaU0bZen9laW/cNHgw==" saltValue="z6deCNIZzwu/kN5mgey4Rg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="XzuqybKw3j5bQF3AM6dmQYt9WrHK0JNvXtHptdNMQYJPrPHpkMyOXUINprfQUjusQMWiHpV5C8dI5FDbteVW8w==" saltValue="G0rOAImcUmHPPL1Lc6A/PA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B17:O24">
     <sortCondition ref="B17:B24"/>
   </sortState>
@@ -3033,41 +3033,41 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.08203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
     <col min="3" max="7" width="14" style="1" customWidth="1"/>
     <col min="8" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="33"/>
       <c r="C1" s="2" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="35" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
@@ -3085,9 +3085,9 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="36"/>
@@ -3096,9 +3096,9 @@
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="34" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -3117,7 +3117,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3v+WkCvmEBRe4WZOZWz7HBNkSvqkVXVuCAVSFe2xn+UaQVhGt7QWh+CXtBtuaExJXqkrYgVtLthpmK+F6ay5gw==" saltValue="v3UJN5P4OPrsBYevDE/bfg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jRvWH7I1cGGJQaAh/lOzB6tNjQ+3GxW2FnF3Yx8OtF6v9l153IHzDDxXrq4TG1QjhJPtvaElhGofStELe9GGgA==" saltValue="csUGbX0ilcXOVYxMCA2ynw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -3134,54 +3134,54 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.625" style="54" customWidth="1"/>
+    <col min="1" max="1" width="47.58203125" style="54" customWidth="1"/>
     <col min="2" max="2" width="27.5" style="54" customWidth="1"/>
-    <col min="3" max="3" width="22.375" style="54" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="54" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="1"/>
-    <col min="8" max="8" width="15.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C1" s="51" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -3199,9 +3199,9 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="54" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
@@ -3219,9 +3219,9 @@
         <v>0.53134328358208949</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C4" s="54" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
@@ -3239,15 +3239,15 @@
         <v>0.38507462686567184</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
@@ -3265,9 +3265,9 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="54" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -3285,12 +3285,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="54" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -3308,9 +3308,9 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" s="54" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -3328,15 +3328,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="54" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="B9" s="54" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -3354,9 +3354,9 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="54" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
@@ -3374,12 +3374,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="54" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
@@ -3397,9 +3397,9 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="54" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D12" s="4">
         <v>0</v>
@@ -3417,15 +3417,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C13" s="54" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D13" s="4">
         <v>0</v>
@@ -3443,9 +3443,9 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="54" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
@@ -3464,12 +3464,12 @@
       </c>
       <c r="I14" s="27"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="54" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C15" s="54" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
@@ -3488,9 +3488,9 @@
       </c>
       <c r="I15" s="27"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16" s="54" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D16" s="4">
         <v>0</v>
@@ -3509,15 +3509,15 @@
       </c>
       <c r="I16" s="27"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="54" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="C17" s="54" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D17" s="4">
         <v>0.7</v>
@@ -3536,9 +3536,9 @@
       </c>
       <c r="I17" s="27"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C18" s="54" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D18" s="4">
         <v>0.46</v>
@@ -3557,15 +3557,15 @@
       </c>
       <c r="I18" s="27"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="54" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D19" s="4">
         <v>0.7</v>
@@ -3583,9 +3583,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C20" s="54" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D20" s="4">
         <v>0.46</v>
@@ -3603,15 +3603,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="54" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="B21" s="54" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="C21" s="54" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D21" s="4">
         <v>0.7</v>
@@ -3629,9 +3629,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C22" s="54" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D22" s="4">
         <v>0.46</v>
@@ -3649,15 +3649,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C23" s="54" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D23" s="4">
         <v>1</v>
@@ -3675,9 +3675,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" s="54" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D24" s="4">
         <v>0</v>
@@ -3695,9 +3695,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C25" s="54" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D25" s="4">
         <v>0</v>
@@ -3715,15 +3715,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="54" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="B26" s="54" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C26" s="54" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -3741,9 +3741,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C27" s="54" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D27" s="4">
         <v>0</v>
@@ -3761,9 +3761,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C28" s="54" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D28" s="4">
         <v>0</v>
@@ -3781,15 +3781,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="54" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="B29" s="54" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C29" s="54" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D29" s="4">
         <v>1</v>
@@ -3807,9 +3807,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C30" s="54" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D30" s="4">
         <v>0</v>
@@ -3827,9 +3827,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C31" s="54" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D31" s="4">
         <v>0</v>
@@ -3847,15 +3847,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="54" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="B32" s="54" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C32" s="54" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
@@ -3873,9 +3873,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C33" s="54" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D33" s="4">
         <v>0</v>
@@ -3893,9 +3893,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C34" s="54" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D34" s="4">
         <v>0</v>
@@ -3913,15 +3913,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="54" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="B35" s="54" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C35" s="54" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -3939,9 +3939,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C36" s="54" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D36" s="4">
         <v>0</v>
@@ -3959,9 +3959,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="54" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D37" s="4">
         <v>0</v>
@@ -3979,15 +3979,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="54" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="B38" s="54" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C38" s="54" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D38" s="4">
         <v>0.3</v>
@@ -4005,9 +4005,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C39" s="54" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D39" s="4">
         <v>0.5</v>
@@ -4025,9 +4025,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" s="54" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D40" s="4">
         <v>0.65</v>
@@ -4045,12 +4045,12 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="54" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="C41" s="54" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D41" s="4">
         <v>0.3</v>
@@ -4068,9 +4068,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C42" s="54" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D42" s="4">
         <v>0.49</v>
@@ -4088,9 +4088,9 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C43" s="54" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D43" s="4">
         <v>0.52</v>
@@ -4108,15 +4108,15 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="54" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="B44" s="54" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C44" s="54" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D44" s="4">
         <v>0.88</v>
@@ -4134,9 +4134,9 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C45" s="54" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D45" s="4">
         <v>0.93</v>
@@ -4154,15 +4154,15 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="54" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="B46" s="54" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C46" s="54" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D46" s="4">
         <v>1</v>
@@ -4180,9 +4180,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C47" s="54" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D47" s="4">
         <v>0.86</v>
@@ -4200,15 +4200,15 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="54" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="B48" s="54" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="C48" s="54" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D48" s="4">
         <v>0.57999999999999996</v>
@@ -4226,9 +4226,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" s="54" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D49" s="4">
         <v>0.51</v>
@@ -4247,7 +4247,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qtv9Qc/b3EyOcfo24h7CDyZh5bDEiEjxzalkZZd48HsVGgz0TUIsJbxdkhFe363y3yvYLDn3biJ8/ZPYwH8e/g==" saltValue="JUfAaVk/zr6vihX8dcuZhA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="yGnS0ZFcVaJ7mEIYEbjfpGIOgfZ8c/hVSH5j1spyAO1am5xIrO3IfZ4rHdFSz8t3moF5wMm6cIG2RPEciwEh/g==" saltValue="VddrjljLSnlyZfVQZLp5eQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -4264,46 +4264,46 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.08203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.58203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="1" customWidth="1"/>
     <col min="4" max="7" width="15.5" style="1" customWidth="1"/>
     <col min="8" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C1" s="33"/>
       <c r="D1" s="2" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="H1" s="30"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -4319,9 +4319,9 @@
       </c>
       <c r="H2" s="34"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D3" s="4">
         <v>0.2</v>
@@ -4337,15 +4337,15 @@
       </c>
       <c r="H3" s="37"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -4361,10 +4361,10 @@
       </c>
       <c r="H4" s="37"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="27"/>
       <c r="C5" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D5" s="4">
         <v>0.59</v>
@@ -4380,15 +4380,15 @@
       </c>
       <c r="H5" s="34"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -4404,10 +4404,10 @@
       </c>
       <c r="H6" s="34"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="C7" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D7" s="4">
         <v>0.6</v>
@@ -4424,7 +4424,7 @@
       <c r="H7" s="37"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MrItd71/or0iFYcho738E5tdm3ld1rvIwX4gFknC3hgv5sIezSvB9YiXOTSxXQv5rx392werU5f/OYUI2h4tPA==" saltValue="RsAWWI3qC5NMT17Ca4kOQA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kRX222UxJigjv5ar2X8udaKjEz1c7IJFtN0WOTwgVzvDn8AFVIiEibjD3tKYMBvrb/kN+YO4gMpApjF2oHejQg==" saltValue="iaD6A/87yvNrVmlp/VkovQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4440,59 +4440,59 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="B2" s="50"/>
       <c r="C2" s="50"/>
@@ -4507,9 +4507,9 @@
       <c r="J2" s="50"/>
       <c r="K2" s="50"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="B3" s="50"/>
       <c r="C3" s="50"/>
@@ -4524,9 +4524,9 @@
       <c r="J3" s="50"/>
       <c r="K3" s="50"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="54" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="B4" s="50"/>
       <c r="C4" s="50"/>
@@ -4541,9 +4541,9 @@
       <c r="J4" s="50"/>
       <c r="K4" s="50"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="B5" s="50"/>
       <c r="C5" s="50" t="s">
@@ -4558,9 +4558,9 @@
       <c r="J5" s="50"/>
       <c r="K5" s="50"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="B6" s="50"/>
       <c r="C6" s="50"/>
@@ -4577,9 +4577,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="54" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="B7" s="50"/>
       <c r="C7" s="50" t="s">
@@ -4596,9 +4596,9 @@
       <c r="J7" s="50"/>
       <c r="K7" s="50"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="B8" s="50"/>
       <c r="C8" s="50" t="s">
@@ -4615,9 +4615,9 @@
       <c r="J8" s="50"/>
       <c r="K8" s="50"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="54" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="B9" s="50"/>
       <c r="C9" s="50" t="s">
@@ -4634,9 +4634,9 @@
       <c r="J9" s="50"/>
       <c r="K9" s="50"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="B10" s="50"/>
       <c r="C10" s="50" t="s">
@@ -4651,9 +4651,9 @@
       <c r="J10" s="50"/>
       <c r="K10" s="50"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="B11" s="50"/>
       <c r="C11" s="50" t="s">
@@ -4668,9 +4668,9 @@
       <c r="J11" s="50"/>
       <c r="K11" s="50"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B12" s="50"/>
       <c r="C12" s="50" t="s">
@@ -4685,9 +4685,9 @@
       <c r="J12" s="50"/>
       <c r="K12" s="50"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="B13" s="50"/>
       <c r="C13" s="50" t="s">
@@ -4702,9 +4702,9 @@
       <c r="J13" s="50"/>
       <c r="K13" s="50"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="B14" s="50"/>
       <c r="C14" s="50" t="s">
@@ -4721,9 +4721,9 @@
       <c r="J14" s="50"/>
       <c r="K14" s="50"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="B15" s="50"/>
       <c r="C15" s="50" t="s">
@@ -4740,7 +4740,7 @@
       <c r="J15" s="50"/>
       <c r="K15" s="50"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="s">
         <v>1</v>
       </c>
@@ -4761,9 +4761,9 @@
       <c r="J16" s="50"/>
       <c r="K16" s="50"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="54" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="B17" s="50"/>
       <c r="C17" s="50" t="s">
@@ -4778,7 +4778,7 @@
       <c r="J17" s="50"/>
       <c r="K17" s="50"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="54" t="s">
         <v>4</v>
       </c>
@@ -4797,7 +4797,7 @@
       <c r="J18" s="50"/>
       <c r="K18" s="50"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="54" t="s">
         <v>3</v>
       </c>
@@ -4816,7 +4816,7 @@
       <c r="J19" s="50"/>
       <c r="K19" s="50"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="54" t="s">
         <v>2</v>
       </c>
@@ -4835,9 +4835,9 @@
       <c r="J20" s="50"/>
       <c r="K20" s="50"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="54" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="B21" s="50"/>
       <c r="C21" s="50"/>
@@ -4854,9 +4854,9 @@
       <c r="J21" s="50"/>
       <c r="K21" s="50"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="54" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="B22" s="50" t="s">
         <v>5</v>
@@ -4875,9 +4875,9 @@
       <c r="J22" s="50"/>
       <c r="K22" s="50"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B23" s="50"/>
       <c r="C23" s="50" t="s">
@@ -4894,9 +4894,9 @@
       <c r="J23" s="50"/>
       <c r="K23" s="50"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="54" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="B24" s="50"/>
       <c r="C24" s="50"/>
@@ -4911,9 +4911,9 @@
       <c r="J24" s="50"/>
       <c r="K24" s="50"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="54" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="B25" s="50"/>
       <c r="C25" s="50"/>
@@ -4928,9 +4928,9 @@
       <c r="J25" s="50"/>
       <c r="K25" s="50"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="54" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="B26" s="50"/>
       <c r="C26" s="50" t="s">
@@ -4945,9 +4945,9 @@
       <c r="J26" s="50"/>
       <c r="K26" s="50"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="54" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="B27" s="50"/>
       <c r="C27" s="50" t="s">
@@ -4964,9 +4964,9 @@
       <c r="J27" s="50"/>
       <c r="K27" s="50"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="54" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="B28" s="50"/>
       <c r="C28" s="50"/>
@@ -4981,9 +4981,9 @@
       <c r="J28" s="50"/>
       <c r="K28" s="50"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="54" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="B29" s="50" t="s">
         <v>5</v>
@@ -5000,9 +5000,9 @@
       <c r="J29" s="50"/>
       <c r="K29" s="50"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="54" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="B30" s="50"/>
       <c r="C30" s="50"/>
@@ -5017,9 +5017,9 @@
       <c r="J30" s="50"/>
       <c r="K30" s="50"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="54" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="B31" s="50"/>
       <c r="C31" s="50"/>
@@ -5036,9 +5036,9 @@
       <c r="J31" s="50"/>
       <c r="K31" s="50"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="54" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="B32" s="50"/>
       <c r="C32" s="50"/>
@@ -5055,9 +5055,9 @@
       <c r="J32" s="50"/>
       <c r="K32" s="50"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="54" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="B33" s="50"/>
       <c r="C33" s="50"/>
@@ -5074,9 +5074,9 @@
       <c r="J33" s="50"/>
       <c r="K33" s="50"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="54" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="B34" s="50"/>
       <c r="C34" s="50"/>
@@ -5093,9 +5093,9 @@
       <c r="J34" s="50"/>
       <c r="K34" s="50"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="54" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="B35" s="50"/>
       <c r="C35" s="50"/>
@@ -5112,9 +5112,9 @@
       <c r="J35" s="50"/>
       <c r="K35" s="50"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="54" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="B36" s="50"/>
       <c r="C36" s="50"/>
@@ -5131,9 +5131,9 @@
       <c r="J36" s="50"/>
       <c r="K36" s="50"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="54" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="B37" s="50"/>
       <c r="C37" s="50"/>
@@ -5148,9 +5148,9 @@
       <c r="J37" s="50"/>
       <c r="K37" s="50"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="54" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="B38" s="50" t="s">
         <v>5</v>
@@ -5170,7 +5170,7 @@
       <c r="K38" s="50"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="W9B4eNEwtBU+Y2J9wi3tNNxofEViHD67LLiThEUUJ1RZlrXPj3Lvu9n12A/6pF/261nx608/FFOZ8nsiNpfAIA==" saltValue="E5+qIScF97xAVpJrUN6Ekw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wvpxH3QRjWqg9r8ckDZ9iAfOgvS8zE4GbvI9RJkxkvbxM3nqywyk2deWCzvk63XACM6h/f9n1D0FA+DHhpZObA==" saltValue="uL8jcv+7oeZ3MzLEtt5A6g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J38">
     <sortCondition ref="A2:A38"/>
   </sortState>
@@ -5189,59 +5189,59 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B2" s="50" t="s">
         <v>5</v>
@@ -5268,9 +5268,9 @@
       <c r="J2" s="50"/>
       <c r="K2" s="50"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B3" s="50" t="s">
         <v>5</v>
@@ -5297,9 +5297,9 @@
       <c r="J3" s="50"/>
       <c r="K3" s="50"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B4" s="50" t="s">
         <v>5</v>
@@ -5326,9 +5326,9 @@
       <c r="J4" s="50"/>
       <c r="K4" s="50"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B5" s="50" t="s">
         <v>5</v>
@@ -5355,9 +5355,9 @@
       <c r="J5" s="50"/>
       <c r="K5" s="50"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B6" s="50" t="s">
         <v>5</v>
@@ -5384,9 +5384,9 @@
       <c r="J6" s="50"/>
       <c r="K6" s="50"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B7" s="50"/>
       <c r="C7" s="50" t="s">
@@ -5405,9 +5405,9 @@
       <c r="J7" s="50"/>
       <c r="K7" s="50"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B8" s="50"/>
       <c r="C8" s="50" t="s">
@@ -5426,9 +5426,9 @@
       <c r="J8" s="50"/>
       <c r="K8" s="50"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B9" s="50"/>
       <c r="C9" s="50" t="s">
@@ -5447,9 +5447,9 @@
       <c r="J9" s="50"/>
       <c r="K9" s="50"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B10" s="50"/>
       <c r="C10" s="50" t="s">
@@ -5468,9 +5468,9 @@
       <c r="J10" s="50"/>
       <c r="K10" s="50"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B11" s="50"/>
       <c r="C11" s="50" t="s">
@@ -5489,9 +5489,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B12" s="50"/>
       <c r="C12" s="50" t="s">
@@ -5508,9 +5508,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B13" s="50"/>
       <c r="C13" s="50" t="s">
@@ -5527,9 +5527,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B14" s="50"/>
       <c r="C14" s="50" t="s">
@@ -5547,7 +5547,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6feySCHAhOcIAGm8LTBZpulDl0ogFl8babcbLDo2qQng9sMCIfIpUS9lnbdY9+hRzEiNI72SN6m46M9VVrpY1Q==" saltValue="zjP9iytP2YeByizH+eA7yA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="pE9mBHy2eXZ8w1Nv7iTxvw3tT83HTTbFLFvsJRS0/smQT/9IpT6AbP2hGBAXfaxAVDijefOW6Plp5p6xp0NN3g==" saltValue="7YCsK6mWU+1LP/g7gCWpHw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5563,49 +5563,49 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.08203125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D2" s="49">
         <v>1</v>
@@ -5623,10 +5623,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="57"/>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D3" s="49">
         <v>1</v>
@@ -5645,10 +5645,10 @@
       </c>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="57"/>
       <c r="C4" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D4" s="49">
         <v>1</v>
@@ -5667,12 +5667,12 @@
       </c>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="57" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D5" s="49">
         <f>5.16</f>
@@ -5691,10 +5691,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="57"/>
       <c r="C6" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D6" s="49">
         <v>5.16</v>
@@ -5712,10 +5712,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="57"/>
       <c r="C7" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D7" s="49">
         <v>1</v>
@@ -5733,12 +5733,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="57" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D8" s="49">
         <v>1</v>
@@ -5756,10 +5756,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="57"/>
       <c r="C9" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D9" s="49">
         <v>1</v>
@@ -5777,10 +5777,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="57"/>
       <c r="C10" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D10" s="49">
         <v>1</v>
@@ -5798,12 +5798,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="57" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D11" s="49">
         <v>1</v>
@@ -5821,10 +5821,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="57"/>
       <c r="C12" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D12" s="49">
         <v>1</v>
@@ -5842,10 +5842,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="57"/>
       <c r="C13" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D13" s="49">
         <v>1</v>
@@ -5863,12 +5863,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="57" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D14" s="49">
         <v>1</v>
@@ -5886,10 +5886,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="57"/>
       <c r="C15" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D15" s="49">
         <v>1</v>
@@ -5907,10 +5907,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="57"/>
       <c r="C16" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D16" s="49">
         <v>1</v>
@@ -5928,12 +5928,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B17" s="38" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D17" s="48">
         <v>1.05</v>
@@ -5951,15 +5951,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="B19" s="57" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D19" s="49">
         <v>1</v>
@@ -5977,10 +5977,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="57"/>
       <c r="C20" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D20" s="49">
         <v>1</v>
@@ -5998,10 +5998,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="57"/>
       <c r="C21" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D21" s="49">
         <v>1</v>
@@ -6019,12 +6019,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="57" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D22" s="49">
         <v>1</v>
@@ -6042,10 +6042,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="57"/>
       <c r="C23" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D23" s="49">
         <v>1</v>
@@ -6063,10 +6063,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="57"/>
       <c r="C24" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D24" s="49">
         <v>1</v>
@@ -6084,12 +6084,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="57" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D25" s="49">
         <v>1</v>
@@ -6107,10 +6107,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="57"/>
       <c r="C26" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D26" s="49">
         <v>1</v>
@@ -6128,10 +6128,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="57"/>
       <c r="C27" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D27" s="49">
         <v>1</v>
@@ -6149,12 +6149,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="57" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D28" s="49">
         <v>1</v>
@@ -6172,10 +6172,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="57"/>
       <c r="C29" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D29" s="49">
         <v>1</v>
@@ -6193,10 +6193,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="57"/>
       <c r="C30" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D30" s="49">
         <v>1</v>
@@ -6214,12 +6214,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="57" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D31" s="49">
         <v>1</v>
@@ -6237,10 +6237,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="57"/>
       <c r="C32" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D32" s="49">
         <v>1</v>
@@ -6258,10 +6258,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="57"/>
       <c r="C33" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D33" s="49">
         <v>1</v>
@@ -6279,12 +6279,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B34" s="38" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D34" s="48">
         <v>1</v>
@@ -6302,15 +6302,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A36" s="40" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="B36" s="57" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D36" s="49">
         <v>1</v>
@@ -6328,10 +6328,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="57"/>
       <c r="C37" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D37" s="49">
         <v>1</v>
@@ -6349,10 +6349,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="57"/>
       <c r="C38" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D38" s="49">
         <v>1</v>
@@ -6370,12 +6370,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="57" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D39" s="49">
         <v>1</v>
@@ -6393,10 +6393,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="57"/>
       <c r="C40" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D40" s="49">
         <v>1</v>
@@ -6414,10 +6414,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="57"/>
       <c r="C41" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D41" s="49">
         <v>1</v>
@@ -6435,12 +6435,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="57" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D42" s="49">
         <v>1</v>
@@ -6458,10 +6458,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="57"/>
       <c r="C43" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D43" s="49">
         <v>1</v>
@@ -6479,10 +6479,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="57"/>
       <c r="C44" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D44" s="49">
         <v>1</v>
@@ -6500,12 +6500,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="57" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D45" s="49">
         <v>1</v>
@@ -6523,10 +6523,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="57"/>
       <c r="C46" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D46" s="49">
         <v>1</v>
@@ -6544,10 +6544,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="57"/>
       <c r="C47" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D47" s="49">
         <v>1</v>
@@ -6565,12 +6565,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48" s="57" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D48" s="49">
         <v>1</v>
@@ -6588,10 +6588,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="57"/>
       <c r="C49" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D49" s="49">
         <v>1</v>
@@ -6609,10 +6609,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="57"/>
       <c r="C50" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D50" s="49">
         <v>1</v>
@@ -6630,12 +6630,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B51" s="39" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D51" s="48">
         <v>1.05</v>
@@ -6654,7 +6654,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="82W6yvYtNzJ6JCQBqcigQ+v9SsTQWzPpOw28otQTY0gdkLO9c10AJMNAlqLyow8yvAZt7r6G1Es2UUQfKvk4tw==" saltValue="akTPVcW+i0v/D1YVmdgG7w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7poCdIog2T5Uu8qb49RrRadAJA5r2gMKUAlXd8+HlcRjPjsU9Sm8ZuOyKbIps5Qv5NJkdJbt7XT4Bbqhl1FXWg==" saltValue="YO4EPX+l7kuJCnjol6s6Ug==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="15">
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
@@ -6688,39 +6688,39 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.58203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.58203125" style="1" customWidth="1"/>
     <col min="5" max="6" width="13.5" style="1" customWidth="1"/>
     <col min="7" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="24"/>
       <c r="C2" s="23" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="21"/>
@@ -6728,9 +6728,9 @@
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
@@ -6745,9 +6745,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -6762,9 +6762,9 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -6779,9 +6779,9 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -6796,15 +6796,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="13"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
@@ -6820,16 +6820,16 @@
       </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="13"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="16"/>
@@ -6837,9 +6837,9 @@
       <c r="F11" s="16"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="11"/>
@@ -6847,9 +6847,9 @@
       <c r="F12" s="11"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -6865,9 +6865,9 @@
       </c>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
@@ -6883,9 +6883,9 @@
       </c>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
@@ -6901,7 +6901,7 @@
       </c>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="12"/>
@@ -6910,9 +6910,9 @@
       <c r="F16" s="11"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="9"/>
@@ -6921,9 +6921,9 @@
       <c r="F17" s="8"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
@@ -6939,9 +6939,9 @@
       </c>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
@@ -6957,9 +6957,9 @@
       </c>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
@@ -6975,9 +6975,9 @@
       </c>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
@@ -6993,9 +6993,9 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
@@ -7010,9 +7010,9 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="C23" s="5">
         <v>1</v>
@@ -7027,9 +7027,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
@@ -7044,9 +7044,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="C25" s="5">
         <v>1</v>
@@ -7061,14 +7061,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HV34jLVUtP5Bhr5dGMviIz4Q+1KYsex6ClA3xjQRZJtYvPyeEODsNbclLlZ76CmdYLiHTnHPyILKqjMnRwzePQ==" saltValue="T71ubZfyTAuvWpqUHGbZcA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="iANmwXOBpezorOA131NFcbLBFNJA1Cm9hyjysivaLKa9O2TkPUcah3/3oYSaFhxlFmGr000AcM5B9cEFb3K3xg==" saltValue="EfczVzxEpW0UqZ7qKHl9uQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -7085,46 +7085,46 @@
       <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.08203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" customWidth="1"/>
-    <col min="4" max="8" width="13.375" style="1" customWidth="1"/>
-    <col min="9" max="12" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="13.33203125" style="1" customWidth="1"/>
+    <col min="9" max="12" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="15.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="14" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="33" t="s">
-        <v>123</v>
-      </c>
       <c r="D2" s="22" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
@@ -7135,10 +7135,10 @@
       <c r="O2" s="28"/>
       <c r="P2" s="28"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>7</v>
@@ -7167,9 +7167,9 @@
       <c r="O3" s="25"/>
       <c r="P3" s="25"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C4" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -7195,9 +7195,9 @@
       <c r="O4" s="25"/>
       <c r="P4" s="25"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C5" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -7223,9 +7223,9 @@
       <c r="O5" s="25"/>
       <c r="P5" s="25"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C6" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -7251,9 +7251,9 @@
       <c r="O6" s="25"/>
       <c r="P6" s="25"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>7</v>
@@ -7282,9 +7282,9 @@
       <c r="O7" s="25"/>
       <c r="P7" s="25"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -7310,9 +7310,9 @@
       <c r="O8" s="25"/>
       <c r="P8" s="25"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -7338,9 +7338,9 @@
       <c r="O9" s="25"/>
       <c r="P9" s="25"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -7366,9 +7366,9 @@
       <c r="O10" s="25"/>
       <c r="P10" s="25"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>7</v>
@@ -7397,9 +7397,9 @@
       <c r="O11" s="25"/>
       <c r="P11" s="25"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -7425,9 +7425,9 @@
       <c r="O12" s="25"/>
       <c r="P12" s="25"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -7453,9 +7453,9 @@
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -7481,9 +7481,9 @@
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>7</v>
@@ -7512,9 +7512,9 @@
       <c r="O15" s="25"/>
       <c r="P15" s="25"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -7540,9 +7540,9 @@
       <c r="O16" s="25"/>
       <c r="P16" s="25"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C17" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -7568,9 +7568,9 @@
       <c r="O17" s="25"/>
       <c r="P17" s="25"/>
     </row>
-    <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -7596,9 +7596,9 @@
       <c r="O18" s="25"/>
       <c r="P18" s="25"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B19" s="27" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>7</v>
@@ -7627,9 +7627,9 @@
       <c r="O19" s="25"/>
       <c r="P19" s="25"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C20" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -7655,9 +7655,9 @@
       <c r="O20" s="25"/>
       <c r="P20" s="25"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C21" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -7683,9 +7683,9 @@
       <c r="O21" s="25"/>
       <c r="P21" s="25"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C22" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -7711,9 +7711,9 @@
       <c r="O22" s="25"/>
       <c r="P22" s="25"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B23" s="27" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>7</v>
@@ -7742,9 +7742,9 @@
       <c r="O23" s="25"/>
       <c r="P23" s="25"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C24" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
@@ -7770,9 +7770,9 @@
       <c r="O24" s="25"/>
       <c r="P24" s="25"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C25" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
@@ -7798,9 +7798,9 @@
       <c r="O25" s="25"/>
       <c r="P25" s="25"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C26" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -7826,35 +7826,35 @@
       <c r="O26" s="25"/>
       <c r="P26" s="25"/>
     </row>
-    <row r="28" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" s="14" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="27" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A29" s="31" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I29" s="28"/>
       <c r="J29" s="28"/>
@@ -7865,10 +7865,10 @@
       <c r="O29" s="28"/>
       <c r="P29" s="28"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>7</v>
@@ -7897,9 +7897,9 @@
       <c r="O30" s="25"/>
       <c r="P30" s="25"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C31" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -7925,9 +7925,9 @@
       <c r="O31" s="25"/>
       <c r="P31" s="25"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C32" s="26" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
@@ -7953,9 +7953,9 @@
       <c r="O32" s="25"/>
       <c r="P32" s="25"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C33" s="26" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -7981,9 +7981,9 @@
       <c r="O33" s="25"/>
       <c r="P33" s="25"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="C34" s="26" t="s">
         <v>7</v>
@@ -8012,9 +8012,9 @@
       <c r="O34" s="25"/>
       <c r="P34" s="25"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C35" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -8040,9 +8040,9 @@
       <c r="O35" s="25"/>
       <c r="P35" s="25"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C36" s="26" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
@@ -8068,9 +8068,9 @@
       <c r="O36" s="25"/>
       <c r="P36" s="25"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C37" s="26" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D37" s="4">
         <v>1</v>
@@ -8096,9 +8096,9 @@
       <c r="O37" s="25"/>
       <c r="P37" s="25"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="C38" s="26" t="s">
         <v>7</v>
@@ -8127,9 +8127,9 @@
       <c r="O38" s="25"/>
       <c r="P38" s="25"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C39" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
@@ -8155,9 +8155,9 @@
       <c r="O39" s="25"/>
       <c r="P39" s="25"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C40" s="26" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D40" s="4">
         <v>1</v>
@@ -8183,9 +8183,9 @@
       <c r="O40" s="25"/>
       <c r="P40" s="25"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C41" s="26" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D41" s="4">
         <v>1</v>
@@ -8211,9 +8211,9 @@
       <c r="O41" s="25"/>
       <c r="P41" s="25"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="C42" s="26" t="s">
         <v>7</v>
@@ -8242,9 +8242,9 @@
       <c r="O42" s="25"/>
       <c r="P42" s="25"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C43" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -8270,9 +8270,9 @@
       <c r="O43" s="25"/>
       <c r="P43" s="25"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C44" s="26" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -8298,9 +8298,9 @@
       <c r="O44" s="25"/>
       <c r="P44" s="25"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C45" s="26" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D45" s="4">
         <v>1</v>
@@ -8326,9 +8326,9 @@
       <c r="O45" s="25"/>
       <c r="P45" s="25"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="C46" s="26" t="s">
         <v>7</v>
@@ -8357,9 +8357,9 @@
       <c r="O46" s="25"/>
       <c r="P46" s="25"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C47" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -8385,9 +8385,9 @@
       <c r="O47" s="25"/>
       <c r="P47" s="25"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C48" s="26" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -8413,9 +8413,9 @@
       <c r="O48" s="25"/>
       <c r="P48" s="25"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C49" s="26" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -8441,9 +8441,9 @@
       <c r="O49" s="25"/>
       <c r="P49" s="25"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="C50" s="26" t="s">
         <v>7</v>
@@ -8472,9 +8472,9 @@
       <c r="O50" s="25"/>
       <c r="P50" s="25"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C51" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -8500,9 +8500,9 @@
       <c r="O51" s="25"/>
       <c r="P51" s="25"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C52" s="26" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -8528,9 +8528,9 @@
       <c r="O52" s="25"/>
       <c r="P52" s="25"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C53" s="26" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -8556,36 +8556,36 @@
       <c r="O53" s="25"/>
       <c r="P53" s="25"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C54" s="26"/>
       <c r="D54" s="26"/>
     </row>
-    <row r="55" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" s="14" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A55" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" s="27" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A56" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" s="29" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B56" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="29" t="s">
-        <v>129</v>
-      </c>
       <c r="D56" s="22" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="H56" s="28"/>
       <c r="M56" s="28"/>
@@ -8593,13 +8593,13 @@
       <c r="O56" s="28"/>
       <c r="P56" s="28"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="1" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D57" s="5">
         <v>1</v>
@@ -8619,9 +8619,9 @@
       <c r="O57" s="25"/>
       <c r="P57" s="25"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C58" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D58" s="4">
         <v>10.675000000000001</v>
@@ -8641,12 +8641,12 @@
       <c r="O58" s="25"/>
       <c r="P58" s="25"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D59" s="5">
         <v>1</v>
@@ -8666,9 +8666,9 @@
       <c r="O59" s="25"/>
       <c r="P59" s="25"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C60" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D60" s="4">
         <v>10.675000000000001</v>
@@ -8688,12 +8688,12 @@
       <c r="O60" s="25"/>
       <c r="P60" s="25"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D61" s="5">
         <v>1</v>
@@ -8713,9 +8713,9 @@
       <c r="O61" s="25"/>
       <c r="P61" s="25"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C62" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D62" s="4">
         <v>10.675000000000001</v>
@@ -8735,39 +8735,39 @@
       <c r="O62" s="25"/>
       <c r="P62" s="25"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C63" s="26"/>
       <c r="D63" s="26"/>
     </row>
-    <row r="64" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" s="14" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A64" s="18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" s="27" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A65" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C65" s="29" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B65" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="C65" s="29" t="s">
-        <v>133</v>
-      </c>
       <c r="D65" s="22" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E65" s="22" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="G65" s="22" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="H65" s="53" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I65" s="28"/>
       <c r="J65" s="28"/>
@@ -8778,13 +8778,13 @@
       <c r="O65" s="28"/>
       <c r="P65" s="28"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A66" s="51"/>
       <c r="B66" s="1" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="D66" s="5">
         <v>1</v>
@@ -8810,9 +8810,9 @@
       <c r="O66" s="25"/>
       <c r="P66" s="25"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C67" s="26" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="D67" s="4">
         <v>1.35</v>
@@ -8838,9 +8838,9 @@
       <c r="O67" s="25"/>
       <c r="P67" s="25"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C68" s="26" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="D68" s="4">
         <v>1.35</v>
@@ -8866,9 +8866,9 @@
       <c r="O68" s="25"/>
       <c r="P68" s="25"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C69" s="26" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="D69" s="4">
         <v>5.4</v>
@@ -8894,12 +8894,12 @@
       <c r="O69" s="25"/>
       <c r="P69" s="25"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="D70" s="5">
         <v>1</v>
@@ -8925,9 +8925,9 @@
       <c r="O70" s="25"/>
       <c r="P70" s="25"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C71" s="26" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="D71" s="4">
         <v>1.35</v>
@@ -8953,9 +8953,9 @@
       <c r="O71" s="25"/>
       <c r="P71" s="25"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C72" s="26" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="D72" s="4">
         <v>1.35</v>
@@ -8981,9 +8981,9 @@
       <c r="O72" s="25"/>
       <c r="P72" s="25"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C73" s="26" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="D73" s="4">
         <v>5.4</v>
@@ -9009,12 +9009,12 @@
       <c r="O73" s="25"/>
       <c r="P73" s="25"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="D74" s="5">
         <v>1</v>
@@ -9040,9 +9040,9 @@
       <c r="O74" s="25"/>
       <c r="P74" s="25"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C75" s="26" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="D75" s="4">
         <v>1.35</v>
@@ -9068,9 +9068,9 @@
       <c r="O75" s="25"/>
       <c r="P75" s="25"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C76" s="26" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="D76" s="4">
         <v>1.35</v>
@@ -9096,9 +9096,9 @@
       <c r="O76" s="25"/>
       <c r="P76" s="25"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C77" s="26" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="D77" s="4">
         <v>5.4</v>
@@ -9124,12 +9124,12 @@
       <c r="O77" s="25"/>
       <c r="P77" s="25"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="C78" s="26" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="D78" s="5">
         <v>1</v>
@@ -9155,9 +9155,9 @@
       <c r="O78" s="25"/>
       <c r="P78" s="25"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C79" s="26" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
@@ -9183,9 +9183,9 @@
       <c r="O79" s="25"/>
       <c r="P79" s="25"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C80" s="26" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -9211,9 +9211,9 @@
       <c r="O80" s="25"/>
       <c r="P80" s="25"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C81" s="26" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -9239,12 +9239,12 @@
       <c r="O81" s="25"/>
       <c r="P81" s="25"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C82" s="26" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="D82" s="5">
         <v>1</v>
@@ -9270,9 +9270,9 @@
       <c r="O82" s="25"/>
       <c r="P82" s="25"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C83" s="26" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
@@ -9298,9 +9298,9 @@
       <c r="O83" s="25"/>
       <c r="P83" s="25"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C84" s="26" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="D84" s="4">
         <v>1</v>
@@ -9326,9 +9326,9 @@
       <c r="O84" s="25"/>
       <c r="P84" s="25"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C85" s="26" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
@@ -9354,12 +9354,12 @@
       <c r="O85" s="25"/>
       <c r="P85" s="25"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="C86" s="26" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="D86" s="5">
         <v>1</v>
@@ -9385,9 +9385,9 @@
       <c r="O86" s="25"/>
       <c r="P86" s="25"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C87" s="26" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -9413,9 +9413,9 @@
       <c r="O87" s="25"/>
       <c r="P87" s="25"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C88" s="26" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -9441,9 +9441,9 @@
       <c r="O88" s="25"/>
       <c r="P88" s="25"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C89" s="26" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -9469,12 +9469,12 @@
       <c r="O89" s="25"/>
       <c r="P89" s="25"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="C90" s="26" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="D90" s="5">
         <v>1</v>
@@ -9500,9 +9500,9 @@
       <c r="O90" s="25"/>
       <c r="P90" s="25"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C91" s="26" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -9528,9 +9528,9 @@
       <c r="O91" s="25"/>
       <c r="P91" s="25"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C92" s="26" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -9556,9 +9556,9 @@
       <c r="O92" s="25"/>
       <c r="P92" s="25"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C93" s="26" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -9584,12 +9584,12 @@
       <c r="O93" s="25"/>
       <c r="P93" s="25"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="C94" s="26" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="D94" s="5">
         <v>1</v>
@@ -9615,9 +9615,9 @@
       <c r="O94" s="25"/>
       <c r="P94" s="25"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C95" s="26" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
@@ -9643,9 +9643,9 @@
       <c r="O95" s="25"/>
       <c r="P95" s="25"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C96" s="26" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
@@ -9671,9 +9671,9 @@
       <c r="O96" s="25"/>
       <c r="P96" s="25"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C97" s="26" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="D97" s="4">
         <v>1</v>
@@ -9699,12 +9699,12 @@
       <c r="O97" s="25"/>
       <c r="P97" s="25"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="D98" s="5">
         <v>1</v>
@@ -9730,9 +9730,9 @@
       <c r="O98" s="25"/>
       <c r="P98" s="25"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C99" s="26" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="D99" s="4">
         <v>1</v>
@@ -9758,9 +9758,9 @@
       <c r="O99" s="25"/>
       <c r="P99" s="25"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C100" s="26" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="D100" s="4">
         <v>1</v>
@@ -9786,9 +9786,9 @@
       <c r="O100" s="25"/>
       <c r="P100" s="25"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C101" s="26" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="D101" s="4">
         <v>1</v>
@@ -9814,35 +9814,35 @@
       <c r="O101" s="25"/>
       <c r="P101" s="25"/>
     </row>
-    <row r="103" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" s="14" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A103" s="18" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" s="27" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A104" s="31" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B104" s="52" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="C104" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D104" s="22" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E104" s="22" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F104" s="22" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="G104" s="22" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="H104" s="53" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I104" s="28"/>
       <c r="J104" s="28"/>
@@ -9853,11 +9853,11 @@
       <c r="O104" s="28"/>
       <c r="P104" s="28"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="27"/>
       <c r="C105" s="26" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="D105" s="5">
         <v>1</v>
@@ -9883,9 +9883,9 @@
       <c r="O105" s="25"/>
       <c r="P105" s="25"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C106" s="26" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="D106" s="4">
         <v>1.26</v>
@@ -9911,9 +9911,9 @@
       <c r="O106" s="25"/>
       <c r="P106" s="25"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C107" s="26" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="D107" s="4">
         <v>1.68</v>
@@ -9939,9 +9939,9 @@
       <c r="O107" s="25"/>
       <c r="P107" s="25"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C108" s="26" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="D108" s="4">
         <v>2.65</v>
@@ -9967,11 +9967,11 @@
       <c r="O108" s="25"/>
       <c r="P108" s="25"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="H3ZPeZp4kdXRNtK3YFNezKi9bd25+42X/UCF04EHPB0JlPxKSBzXdZlNm4YFjmGY95Nty6RMAvztkt55yxDCWA==" saltValue="V6zJkbGFAZSXVOFY/SUPtQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="uj329D59x2FD/jFDDQohTMFhlS+O0sbDf+FkoqGbUULsTi5f08Uj6JMkP9onQZS/cguYWs12hkbOQQk5KeNHFQ==" saltValue="E6nitqj3faHq1ik0aJmWEg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -9988,47 +9988,47 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.08203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="40" style="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>0</v>
@@ -10046,10 +10046,10 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C4" s="4">
         <v>1.0249999999999999</v>
@@ -10067,14 +10067,14 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -10092,9 +10092,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -10112,9 +10112,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -10132,7 +10132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -10140,15 +10140,15 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="3" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="C11" s="4">
         <v>1.5</v>
@@ -10166,21 +10166,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="51" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C14" s="4">
         <v>1.0249999999999999</v>
@@ -10198,10 +10198,10 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="6" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C15" s="4">
         <v>1.0249999999999999</v>
@@ -10219,12 +10219,12 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="51" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
@@ -10242,29 +10242,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="43" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C20" s="4">
         <v>1.52</v>
@@ -10280,7 +10280,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="v5gdQMDjlgKFTqlQfzZXVZ8lFa+wbcZy8Rqj1sudvgpsSabv6IwW82P7sWjkdX9DK2PPY+nVj5+GkIoZArnkBw==" saltValue="a9HSRrD6gLAtbLRJF/Bq0w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="EnQfqOS9Lr4bDpszgGFzxn/QcwCfjHDwZAAhZ6c5hZNDCTqCGYgWatX/6CSSi0ohoCtlkZt7e52BemZomV3a0g==" saltValue="2SEOQ7mjQQo0ijrtey1p9Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -10298,7 +10298,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47" style="1" customWidth="1"/>
     <col min="2" max="6" width="14.5" style="1"/>
@@ -10307,30 +10307,30 @@
     <col min="9" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C2" s="4">
         <v>0.21</v>
@@ -10345,10 +10345,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34"/>
       <c r="B3" s="34" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
@@ -10363,12 +10363,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C4" s="4">
         <v>0.15</v>
@@ -10383,10 +10383,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="34"/>
       <c r="B5" s="34" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -10401,12 +10401,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C6" s="4">
         <v>0.15</v>
@@ -10421,10 +10421,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="34"/>
       <c r="B7" s="34" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -10439,12 +10439,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C8" s="4">
         <v>0.35</v>
@@ -10459,10 +10459,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34"/>
       <c r="B9" s="34" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -10477,12 +10477,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C10" s="4">
         <v>0.35</v>
@@ -10497,10 +10497,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="34"/>
       <c r="B11" s="34" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
@@ -10515,12 +10515,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C12" s="4">
         <v>0.23</v>
@@ -10535,10 +10535,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="34"/>
       <c r="B13" s="34" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
@@ -10553,14 +10553,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="34"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="34"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="R54hTLhuJIcn/O9hJWasXsxP5SgJQPjNUxnlzqbVUwbO4CHma0MvPmm6gUjTNXJuVr65VXNEnJ6iPcG+7jqiEg==" saltValue="Puz4ggzU556wShQe1MlyeA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Y8NW4c4CabDBqSG58pxfoxgjKjAXJuomA08V/ww6ao2j26RVKFu3WYYKNmdVDDAh4aRoSPQMTxiEy3GMaE6U/g==" saltValue="YXXfbXFmjQgc+U9ZRArypA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -10577,65 +10577,65 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="53" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="13.5" style="1" customWidth="1"/>
     <col min="16" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="22" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J1" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="M1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>52</v>
-      </c>
       <c r="N1" s="22" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="35" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="C3" s="4">
         <v>0.53</v>
@@ -10677,9 +10677,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="35" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -10721,9 +10721,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="35" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -10765,9 +10765,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="35" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -10809,9 +10809,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="35" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -10853,9 +10853,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -10897,9 +10897,9 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="34" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -10941,7 +10941,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="35" t="s">
         <v>1</v>
       </c>
@@ -10985,9 +10985,9 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="34" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
@@ -11029,9 +11029,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="35" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="C12" s="4">
         <v>0.83</v>
@@ -11073,9 +11073,9 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="35" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
@@ -11117,9 +11117,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="35" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
@@ -11161,15 +11161,15 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B16" s="35"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="34" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="C17" s="4">
         <v>1</v>
@@ -11211,9 +11211,9 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="34" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
@@ -11255,9 +11255,9 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="34" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
@@ -11299,9 +11299,9 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="34" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
@@ -11343,20 +11343,20 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="26"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="26"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="26"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="26"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="H74eR+rppUszPz6pm/eWf735wwaBgzgc40Gd7SmkcYSZpeVCKpBZrHDV/RLdImse8a1/brnrTmSZgZ0MM0DTtg==" saltValue="uO1HNhYJcbq7dQk7+2QVaA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="EcDxLXJTUcukkDdSvqRzjvNYkTgeWIliFIG5TVmIyStJf+kwgu2A2At6rNGM6vYfBcH5sAQWodwvCvW4ANFnhw==" saltValue="HTFBKq1G1NZ3xN9L9iwsWQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:O14">
     <sortCondition ref="B3:B14"/>
   </sortState>

--- a/inputs/fr/legacy_default_params.xlsx
+++ b/inputs/fr/legacy_default_params.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee.altermatt\Documents\GitHub\Nutrition\inputs\fr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F611D0B-3540-4A39-8C03-7A8CCCCE3C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E96E90E-D486-416D-A7D3-D442340105A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="7020" windowWidth="29265" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Programmes - population touchée" sheetId="14" r:id="rId1"/>
@@ -1261,20 +1261,20 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53" style="41" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="41" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.83203125" style="41" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.83203125" style="41" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.08203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="41" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.875" style="41" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.875" style="41" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.125" style="41" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="14.5" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>60</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>14</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="54" t="s">
         <v>29</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="54" t="s">
         <v>4</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="54" t="s">
         <v>3</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="54" t="s">
         <v>2</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="54" t="s">
         <v>41</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="54" t="s">
         <v>42</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="54" t="s">
         <v>46</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="54" t="s">
         <v>48</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="54" t="s">
         <v>49</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="54" t="s">
         <v>50</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="54" t="s">
         <v>51</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="54" t="s">
         <v>57</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="54" t="s">
         <v>58</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="54"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -1956,7 +1956,7 @@
       <c r="N16" s="46"/>
       <c r="O16" s="46"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
         <v>19</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43"/>
       <c r="B18" s="54" t="s">
         <v>27</v>
@@ -2048,7 +2048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="34" t="s">
         <v>38</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="34" t="s">
         <v>39</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="55" t="s">
         <v>1</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="54" t="s">
         <v>44</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="54" t="s">
         <v>45</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="54" t="s">
         <v>47</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="54"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -2328,7 +2328,7 @@
       <c r="N25" s="46"/>
       <c r="O25" s="46"/>
     </row>
-    <row r="26" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="43" t="s">
         <v>13</v>
       </c>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="P26" s="56"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="35" t="s">
         <v>34</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="43"/>
       <c r="B28" s="35" t="s">
         <v>35</v>
@@ -2465,7 +2465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="35" t="s">
         <v>36</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="35" t="s">
         <v>37</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="54"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
@@ -2569,7 +2569,7 @@
       <c r="N31" s="46"/>
       <c r="O31" s="46"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="43" t="s">
         <v>59</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="54" t="s">
         <v>32</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="54" t="s">
         <v>33</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="54" t="s">
         <v>40</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="54" t="s">
         <v>43</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="42"/>
       <c r="B37" s="54" t="s">
         <v>52</v>
@@ -2837,7 +2837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="54" t="s">
         <v>53</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="54" t="s">
         <v>54</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="54" t="s">
         <v>55</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="54" t="s">
         <v>56</v>
       </c>
@@ -3014,7 +3014,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XzuqybKw3j5bQF3AM6dmQYt9WrHK0JNvXtHptdNMQYJPrPHpkMyOXUINprfQUjusQMWiHpV5C8dI5FDbteVW8w==" saltValue="G0rOAImcUmHPPL1Lc6A/PA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WNIBXo6DHgRf8cKCowMvEu0szHhH4/rgC/fi0e+YngZuXlfqH2V1BBc8F14LGgvcjD785BLcKxPEyEEdV9+wWg==" saltValue="EQhu7gD3QA9HrCKvVToH9Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B17:O24">
     <sortCondition ref="B17:B24"/>
   </sortState>
@@ -3033,15 +3033,15 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.08203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
     <col min="3" max="7" width="14" style="1" customWidth="1"/>
     <col min="8" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="33"/>
       <c r="C1" s="2" t="s">
@@ -3060,12 +3060,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="35" t="s">
         <v>50</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>153</v>
       </c>
@@ -3096,7 +3096,7 @@
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="34" t="s">
         <v>151</v>
       </c>
@@ -3117,7 +3117,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jRvWH7I1cGGJQaAh/lOzB6tNjQ+3GxW2FnF3Yx8OtF6v9l153IHzDDxXrq4TG1QjhJPtvaElhGofStELe9GGgA==" saltValue="csUGbX0ilcXOVYxMCA2ynw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MnlKmWS/MkJmPXSC4bAUVV969bcC4QnFyuQReL8d6W4UkpYs5VarufjybwmiW8vI3REF8vyvlhIQyxldCXMAKA==" saltValue="mRkqx1bQ1BG0NeQqSUKeUg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -3134,20 +3134,20 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.58203125" style="54" customWidth="1"/>
+    <col min="1" max="1" width="47.625" style="54" customWidth="1"/>
     <col min="2" max="2" width="27.5" style="54" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="54" customWidth="1"/>
+    <col min="3" max="3" width="22.375" style="54" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="1"/>
-    <col min="8" max="8" width="15.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.875" style="1" customWidth="1"/>
     <col min="9" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="54" t="s">
         <v>51</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="54" t="s">
         <v>156</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>0.53134328358208949</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="54" t="s">
         <v>157</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>0.38507462686567184</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="54" t="s">
         <v>49</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="54" t="s">
         <v>157</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="54" t="s">
         <v>135</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="54" t="s">
         <v>157</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="54" t="s">
         <v>42</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="54" t="s">
         <v>157</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="54" t="s">
         <v>135</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="54" t="s">
         <v>157</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="54" t="s">
         <v>28</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="54" t="s">
         <v>157</v>
       </c>
@@ -3464,7 +3464,7 @@
       </c>
       <c r="I14" s="27"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="54" t="s">
         <v>135</v>
       </c>
@@ -3488,7 +3488,7 @@
       </c>
       <c r="I15" s="27"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="54" t="s">
         <v>157</v>
       </c>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="I16" s="27"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="54" t="s">
         <v>33</v>
       </c>
@@ -3536,7 +3536,7 @@
       </c>
       <c r="I17" s="27"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C18" s="54" t="s">
         <v>156</v>
       </c>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="I18" s="27"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="54" t="s">
         <v>31</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C20" s="54" t="s">
         <v>156</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="54" t="s">
         <v>32</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C22" s="54" t="s">
         <v>156</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="54" t="s">
         <v>55</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C24" s="54" t="s">
         <v>156</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C25" s="54" t="s">
         <v>157</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="54" t="s">
         <v>56</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C27" s="54" t="s">
         <v>156</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C28" s="54" t="s">
         <v>157</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="54" t="s">
         <v>54</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C30" s="54" t="s">
         <v>156</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C31" s="54" t="s">
         <v>157</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="54" t="s">
         <v>53</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C33" s="54" t="s">
         <v>156</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C34" s="54" t="s">
         <v>157</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="54" t="s">
         <v>52</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C36" s="54" t="s">
         <v>156</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C37" s="54" t="s">
         <v>157</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="54" t="s">
         <v>58</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C39" s="54" t="s">
         <v>156</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C40" s="54" t="s">
         <v>157</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="54" t="s">
         <v>107</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C42" s="54" t="s">
         <v>156</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C43" s="54" t="s">
         <v>157</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="54" t="s">
         <v>48</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C45" s="54" t="s">
         <v>156</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="54" t="s">
         <v>57</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C47" s="54" t="s">
         <v>156</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="54" t="s">
         <v>41</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C49" s="54" t="s">
         <v>156</v>
       </c>
@@ -4247,7 +4247,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="yGnS0ZFcVaJ7mEIYEbjfpGIOgfZ8c/hVSH5j1spyAO1am5xIrO3IfZ4rHdFSz8t3moF5wMm6cIG2RPEciwEh/g==" saltValue="VddrjljLSnlyZfVQZLp5eQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rvLh0Q+RGy8EeFuoUiMSvYhkdAz2ACwlUX/O8RwX4o3FPnUfUMPS/RUn1cGunYhkcYhe5s0XAbS4hUVwo+jXDg==" saltValue="TIQn7hB6J8LZ/m0GC3jYkQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -4264,16 +4264,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.08203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.58203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.375" style="1" customWidth="1"/>
     <col min="4" max="7" width="15.5" style="1" customWidth="1"/>
     <col min="8" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>25</v>
       </c>
@@ -4295,7 +4295,7 @@
       </c>
       <c r="H1" s="30"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>27</v>
       </c>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="H2" s="34"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>156</v>
       </c>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="H3" s="37"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>45</v>
       </c>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="H4" s="37"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="27"/>
       <c r="C5" s="1" t="s">
         <v>156</v>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="H5" s="34"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>44</v>
       </c>
@@ -4404,7 +4404,7 @@
       </c>
       <c r="H6" s="34"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="C7" s="1" t="s">
         <v>156</v>
@@ -4424,7 +4424,7 @@
       <c r="H7" s="37"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kRX222UxJigjv5ar2X8udaKjEz1c7IJFtN0WOTwgVzvDn8AFVIiEibjD3tKYMBvrb/kN+YO4gMpApjF2oHejQg==" saltValue="iaD6A/87yvNrVmlp/VkovQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="KVX+DHBFw/FvOhuzDBlqb5kVec49svFdCkkPGNINdZpir3SATnfYggV6ISNHfePdoveZpj6u2qBFyAOK2h2UsA==" saltValue="ZmQ6Ds56w5RZnNA6xgOBAQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4440,22 +4440,22 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="54" t="s">
         <v>26</v>
       </c>
@@ -4507,7 +4507,7 @@
       <c r="J2" s="50"/>
       <c r="K2" s="50"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="54" t="s">
         <v>27</v>
       </c>
@@ -4524,7 +4524,7 @@
       <c r="J3" s="50"/>
       <c r="K3" s="50"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="54" t="s">
         <v>28</v>
       </c>
@@ -4541,7 +4541,7 @@
       <c r="J4" s="50"/>
       <c r="K4" s="50"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="54" t="s">
         <v>29</v>
       </c>
@@ -4558,7 +4558,7 @@
       <c r="J5" s="50"/>
       <c r="K5" s="50"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="54" t="s">
         <v>30</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="54" t="s">
         <v>31</v>
       </c>
@@ -4596,7 +4596,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="50"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="54" t="s">
         <v>32</v>
       </c>
@@ -4615,7 +4615,7 @@
       <c r="J8" s="50"/>
       <c r="K8" s="50"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="54" t="s">
         <v>33</v>
       </c>
@@ -4634,7 +4634,7 @@
       <c r="J9" s="50"/>
       <c r="K9" s="50"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>34</v>
       </c>
@@ -4651,7 +4651,7 @@
       <c r="J10" s="50"/>
       <c r="K10" s="50"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
         <v>35</v>
       </c>
@@ -4668,7 +4668,7 @@
       <c r="J11" s="50"/>
       <c r="K11" s="50"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
         <v>36</v>
       </c>
@@ -4685,7 +4685,7 @@
       <c r="J12" s="50"/>
       <c r="K12" s="50"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
         <v>37</v>
       </c>
@@ -4702,7 +4702,7 @@
       <c r="J13" s="50"/>
       <c r="K13" s="50"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="34" t="s">
         <v>38</v>
       </c>
@@ -4721,7 +4721,7 @@
       <c r="J14" s="50"/>
       <c r="K14" s="50"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="34" t="s">
         <v>39</v>
       </c>
@@ -4740,7 +4740,7 @@
       <c r="J15" s="50"/>
       <c r="K15" s="50"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="54" t="s">
         <v>1</v>
       </c>
@@ -4761,7 +4761,7 @@
       <c r="J16" s="50"/>
       <c r="K16" s="50"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="54" t="s">
         <v>40</v>
       </c>
@@ -4778,7 +4778,7 @@
       <c r="J17" s="50"/>
       <c r="K17" s="50"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="54" t="s">
         <v>4</v>
       </c>
@@ -4797,7 +4797,7 @@
       <c r="J18" s="50"/>
       <c r="K18" s="50"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="54" t="s">
         <v>3</v>
       </c>
@@ -4816,7 +4816,7 @@
       <c r="J19" s="50"/>
       <c r="K19" s="50"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="54" t="s">
         <v>2</v>
       </c>
@@ -4835,7 +4835,7 @@
       <c r="J20" s="50"/>
       <c r="K20" s="50"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="54" t="s">
         <v>41</v>
       </c>
@@ -4854,7 +4854,7 @@
       <c r="J21" s="50"/>
       <c r="K21" s="50"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="54" t="s">
         <v>42</v>
       </c>
@@ -4875,7 +4875,7 @@
       <c r="J22" s="50"/>
       <c r="K22" s="50"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="54" t="s">
         <v>43</v>
       </c>
@@ -4894,7 +4894,7 @@
       <c r="J23" s="50"/>
       <c r="K23" s="50"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="54" t="s">
         <v>44</v>
       </c>
@@ -4911,7 +4911,7 @@
       <c r="J24" s="50"/>
       <c r="K24" s="50"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="54" t="s">
         <v>45</v>
       </c>
@@ -4928,7 +4928,7 @@
       <c r="J25" s="50"/>
       <c r="K25" s="50"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="54" t="s">
         <v>46</v>
       </c>
@@ -4945,7 +4945,7 @@
       <c r="J26" s="50"/>
       <c r="K26" s="50"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="54" t="s">
         <v>47</v>
       </c>
@@ -4964,7 +4964,7 @@
       <c r="J27" s="50"/>
       <c r="K27" s="50"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="54" t="s">
         <v>48</v>
       </c>
@@ -4981,7 +4981,7 @@
       <c r="J28" s="50"/>
       <c r="K28" s="50"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="54" t="s">
         <v>49</v>
       </c>
@@ -5000,7 +5000,7 @@
       <c r="J29" s="50"/>
       <c r="K29" s="50"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="54" t="s">
         <v>50</v>
       </c>
@@ -5017,7 +5017,7 @@
       <c r="J30" s="50"/>
       <c r="K30" s="50"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="54" t="s">
         <v>51</v>
       </c>
@@ -5036,7 +5036,7 @@
       <c r="J31" s="50"/>
       <c r="K31" s="50"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="54" t="s">
         <v>52</v>
       </c>
@@ -5055,7 +5055,7 @@
       <c r="J32" s="50"/>
       <c r="K32" s="50"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="54" t="s">
         <v>53</v>
       </c>
@@ -5074,7 +5074,7 @@
       <c r="J33" s="50"/>
       <c r="K33" s="50"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="54" t="s">
         <v>54</v>
       </c>
@@ -5093,7 +5093,7 @@
       <c r="J34" s="50"/>
       <c r="K34" s="50"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="54" t="s">
         <v>55</v>
       </c>
@@ -5112,7 +5112,7 @@
       <c r="J35" s="50"/>
       <c r="K35" s="50"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="54" t="s">
         <v>56</v>
       </c>
@@ -5131,7 +5131,7 @@
       <c r="J36" s="50"/>
       <c r="K36" s="50"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="54" t="s">
         <v>57</v>
       </c>
@@ -5148,7 +5148,7 @@
       <c r="J37" s="50"/>
       <c r="K37" s="50"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="54" t="s">
         <v>58</v>
       </c>
@@ -5170,7 +5170,7 @@
       <c r="K38" s="50"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wvpxH3QRjWqg9r8ckDZ9iAfOgvS8zE4GbvI9RJkxkvbxM3nqywyk2deWCzvk63XACM6h/f9n1D0FA+DHhpZObA==" saltValue="uL8jcv+7oeZ3MzLEtt5A6g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="tyO7Z7OsIw1KyG0uTTG+KBRA75OencK9zlE0KMNyqiCUXTKW41T2WKTi5sDqQP7+BefGaS6fwOAoV3ELYlV9BA==" saltValue="BuuqcfMFtz+NijEniiaHGA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J38">
     <sortCondition ref="A2:A38"/>
   </sortState>
@@ -5189,22 +5189,22 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>71</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -5268,7 +5268,7 @@
       <c r="J2" s="50"/>
       <c r="K2" s="50"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -5297,7 +5297,7 @@
       <c r="J3" s="50"/>
       <c r="K3" s="50"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -5326,7 +5326,7 @@
       <c r="J4" s="50"/>
       <c r="K4" s="50"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -5355,7 +5355,7 @@
       <c r="J5" s="50"/>
       <c r="K5" s="50"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -5384,7 +5384,7 @@
       <c r="J6" s="50"/>
       <c r="K6" s="50"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -5405,7 +5405,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="50"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -5426,7 +5426,7 @@
       <c r="J8" s="50"/>
       <c r="K8" s="50"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -5447,7 +5447,7 @@
       <c r="J9" s="50"/>
       <c r="K9" s="50"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -5468,7 +5468,7 @@
       <c r="J10" s="50"/>
       <c r="K10" s="50"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -5547,7 +5547,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pE9mBHy2eXZ8w1Nv7iTxvw3tT83HTTbFLFvsJRS0/smQT/9IpT6AbP2hGBAXfaxAVDijefOW6Plp5p6xp0NN3g==" saltValue="7YCsK6mWU+1LP/g7gCWpHw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="LsLpIgQSkCCYYXlD/PPU7CP/GEj9eAU6eYWuZfq7Ua8OCuSAAsE4I51kPM3jfyha4/9BTr6+UEvB2MUyrpRaYg==" saltValue="2sy8q/En+HXTIoRPBvzq9g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5563,15 +5563,15 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.08203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>78</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>79</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="57"/>
       <c r="C3" s="1" t="s">
         <v>74</v>
@@ -5645,7 +5645,7 @@
       </c>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="57"/>
       <c r="C4" s="1" t="s">
         <v>75</v>
@@ -5667,7 +5667,7 @@
       </c>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="57" t="s">
         <v>20</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="57"/>
       <c r="C6" s="1" t="s">
         <v>74</v>
@@ -5712,7 +5712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="57"/>
       <c r="C7" s="1" t="s">
         <v>75</v>
@@ -5733,7 +5733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="57" t="s">
         <v>15</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="57"/>
       <c r="C9" s="1" t="s">
         <v>74</v>
@@ -5777,7 +5777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="57"/>
       <c r="C10" s="1" t="s">
         <v>75</v>
@@ -5798,7 +5798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="57" t="s">
         <v>16</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="57"/>
       <c r="C12" s="1" t="s">
         <v>74</v>
@@ -5842,7 +5842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="57"/>
       <c r="C13" s="1" t="s">
         <v>75</v>
@@ -5863,7 +5863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="57" t="s">
         <v>17</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="57"/>
       <c r="C15" s="1" t="s">
         <v>74</v>
@@ -5907,7 +5907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="57"/>
       <c r="C16" s="1" t="s">
         <v>75</v>
@@ -5928,7 +5928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="38" t="s">
         <v>76</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>80</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="57"/>
       <c r="C20" s="1" t="s">
         <v>74</v>
@@ -5998,7 +5998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="57"/>
       <c r="C21" s="1" t="s">
         <v>75</v>
@@ -6019,7 +6019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="57" t="s">
         <v>20</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="57"/>
       <c r="C23" s="1" t="s">
         <v>74</v>
@@ -6063,7 +6063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="57"/>
       <c r="C24" s="1" t="s">
         <v>75</v>
@@ -6084,7 +6084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="57" t="s">
         <v>15</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="57"/>
       <c r="C26" s="1" t="s">
         <v>74</v>
@@ -6128,7 +6128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="57"/>
       <c r="C27" s="1" t="s">
         <v>75</v>
@@ -6149,7 +6149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="57" t="s">
         <v>16</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="57"/>
       <c r="C29" s="1" t="s">
         <v>74</v>
@@ -6193,7 +6193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="57"/>
       <c r="C30" s="1" t="s">
         <v>75</v>
@@ -6214,7 +6214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="57" t="s">
         <v>17</v>
       </c>
@@ -6237,7 +6237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="57"/>
       <c r="C32" s="1" t="s">
         <v>74</v>
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="57"/>
       <c r="C33" s="1" t="s">
         <v>75</v>
@@ -6279,7 +6279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="38" t="s">
         <v>76</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="40" t="s">
         <v>81</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="57"/>
       <c r="C37" s="1" t="s">
         <v>74</v>
@@ -6349,7 +6349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="57"/>
       <c r="C38" s="1" t="s">
         <v>75</v>
@@ -6370,7 +6370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="57" t="s">
         <v>20</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="57"/>
       <c r="C40" s="1" t="s">
         <v>74</v>
@@ -6414,7 +6414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="57"/>
       <c r="C41" s="1" t="s">
         <v>75</v>
@@ -6435,7 +6435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="57" t="s">
         <v>15</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="57"/>
       <c r="C43" s="1" t="s">
         <v>74</v>
@@ -6479,7 +6479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="57"/>
       <c r="C44" s="1" t="s">
         <v>75</v>
@@ -6500,7 +6500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="57" t="s">
         <v>16</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="57"/>
       <c r="C46" s="1" t="s">
         <v>74</v>
@@ -6544,7 +6544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="57"/>
       <c r="C47" s="1" t="s">
         <v>75</v>
@@ -6565,7 +6565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="57" t="s">
         <v>17</v>
       </c>
@@ -6588,7 +6588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="57"/>
       <c r="C49" s="1" t="s">
         <v>74</v>
@@ -6609,7 +6609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="57"/>
       <c r="C50" s="1" t="s">
         <v>75</v>
@@ -6630,7 +6630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="39" t="s">
         <v>76</v>
       </c>
@@ -6654,7 +6654,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7poCdIog2T5Uu8qb49RrRadAJA5r2gMKUAlXd8+HlcRjPjsU9Sm8ZuOyKbIps5Qv5NJkdJbt7XT4Bbqhl1FXWg==" saltValue="YO4EPX+l7kuJCnjol6s6Ug==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lxuQOWicNqBlYz4qgPJIWjX1CGbTHxNjmG5oVQfDxbhvVAT1t4K1mTQO6Dv1PyK7PjGR1/trT9t79QR1VUa+ow==" saltValue="GdP/PmJZ1W6H4Ao91JLMEA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="15">
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
@@ -6688,22 +6688,22 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.58203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="1" customWidth="1"/>
     <col min="5" max="6" width="13.5" style="1" customWidth="1"/>
     <col min="7" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="24"/>
       <c r="C2" s="23" t="s">
         <v>89</v>
@@ -6718,7 +6718,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>99</v>
       </c>
@@ -6728,7 +6728,7 @@
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="19" t="s">
         <v>82</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="19" t="s">
         <v>83</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="19" t="s">
         <v>84</v>
       </c>
@@ -6779,7 +6779,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="19" t="s">
         <v>85</v>
       </c>
@@ -6796,13 +6796,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="13"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>106</v>
       </c>
@@ -6820,14 +6820,14 @@
       </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="13"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
         <v>100</v>
       </c>
@@ -6837,7 +6837,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>101</v>
       </c>
@@ -6847,7 +6847,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>102</v>
       </c>
@@ -6865,7 +6865,7 @@
       </c>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>103</v>
       </c>
@@ -6883,7 +6883,7 @@
       </c>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>104</v>
       </c>
@@ -6901,7 +6901,7 @@
       </c>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="12"/>
@@ -6910,7 +6910,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>105</v>
       </c>
@@ -6921,7 +6921,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
         <v>90</v>
       </c>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
         <v>91</v>
       </c>
@@ -6957,7 +6957,7 @@
       </c>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
         <v>92</v>
       </c>
@@ -6975,7 +6975,7 @@
       </c>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
         <v>93</v>
       </c>
@@ -6993,7 +6993,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
         <v>94</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="6" t="s">
         <v>95</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
         <v>96</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
         <v>97</v>
       </c>
@@ -7061,14 +7061,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="iANmwXOBpezorOA131NFcbLBFNJA1Cm9hyjysivaLKa9O2TkPUcah3/3oYSaFhxlFmGr000AcM5B9cEFb3K3xg==" saltValue="EfczVzxEpW0UqZ7qKHl9uQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VHJaLI+hw2KwljXYVuqxE6TCjaA9SEMZ05/TWW/3FznSpMoCGaMz7LHfmAzVW1v9R4eUCQyYzhfd3WuFsJgMdg==" saltValue="NPBe0QLXcoLfNgENv4XeYQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -7085,23 +7085,23 @@
       <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.08203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" customWidth="1"/>
-    <col min="4" max="8" width="13.33203125" style="1" customWidth="1"/>
-    <col min="9" max="12" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="15.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="13.375" style="1" customWidth="1"/>
+    <col min="9" max="12" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="14" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>66</v>
       </c>
@@ -7135,7 +7135,7 @@
       <c r="O2" s="28"/>
       <c r="P2" s="28"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>63</v>
@@ -7167,7 +7167,7 @@
       <c r="O3" s="25"/>
       <c r="P3" s="25"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C4" s="26" t="s">
         <v>123</v>
       </c>
@@ -7195,7 +7195,7 @@
       <c r="O4" s="25"/>
       <c r="P4" s="25"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C5" s="26" t="s">
         <v>124</v>
       </c>
@@ -7223,7 +7223,7 @@
       <c r="O5" s="25"/>
       <c r="P5" s="25"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C6" s="26" t="s">
         <v>125</v>
       </c>
@@ -7251,7 +7251,7 @@
       <c r="O6" s="25"/>
       <c r="P6" s="25"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>107</v>
       </c>
@@ -7282,7 +7282,7 @@
       <c r="O7" s="25"/>
       <c r="P7" s="25"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="26" t="s">
         <v>123</v>
       </c>
@@ -7310,7 +7310,7 @@
       <c r="O8" s="25"/>
       <c r="P8" s="25"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="26" t="s">
         <v>124</v>
       </c>
@@ -7338,7 +7338,7 @@
       <c r="O9" s="25"/>
       <c r="P9" s="25"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="26" t="s">
         <v>125</v>
       </c>
@@ -7366,7 +7366,7 @@
       <c r="O10" s="25"/>
       <c r="P10" s="25"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>109</v>
       </c>
@@ -7397,7 +7397,7 @@
       <c r="O11" s="25"/>
       <c r="P11" s="25"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="26" t="s">
         <v>123</v>
       </c>
@@ -7425,7 +7425,7 @@
       <c r="O12" s="25"/>
       <c r="P12" s="25"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="26" t="s">
         <v>124</v>
       </c>
@@ -7453,7 +7453,7 @@
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="26" t="s">
         <v>125</v>
       </c>
@@ -7481,7 +7481,7 @@
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>110</v>
       </c>
@@ -7512,7 +7512,7 @@
       <c r="O15" s="25"/>
       <c r="P15" s="25"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C16" s="26" t="s">
         <v>123</v>
       </c>
@@ -7540,7 +7540,7 @@
       <c r="O16" s="25"/>
       <c r="P16" s="25"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C17" s="26" t="s">
         <v>124</v>
       </c>
@@ -7568,7 +7568,7 @@
       <c r="O17" s="25"/>
       <c r="P17" s="25"/>
     </row>
-    <row r="18" spans="1:16" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="26" t="s">
         <v>125</v>
       </c>
@@ -7596,7 +7596,7 @@
       <c r="O18" s="25"/>
       <c r="P18" s="25"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="27" t="s">
         <v>108</v>
       </c>
@@ -7627,7 +7627,7 @@
       <c r="O19" s="25"/>
       <c r="P19" s="25"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C20" s="26" t="s">
         <v>123</v>
       </c>
@@ -7655,7 +7655,7 @@
       <c r="O20" s="25"/>
       <c r="P20" s="25"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C21" s="26" t="s">
         <v>124</v>
       </c>
@@ -7683,7 +7683,7 @@
       <c r="O21" s="25"/>
       <c r="P21" s="25"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C22" s="26" t="s">
         <v>125</v>
       </c>
@@ -7711,7 +7711,7 @@
       <c r="O22" s="25"/>
       <c r="P22" s="25"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" s="27" t="s">
         <v>112</v>
       </c>
@@ -7742,7 +7742,7 @@
       <c r="O23" s="25"/>
       <c r="P23" s="25"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C24" s="26" t="s">
         <v>123</v>
       </c>
@@ -7770,7 +7770,7 @@
       <c r="O24" s="25"/>
       <c r="P24" s="25"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C25" s="26" t="s">
         <v>124</v>
       </c>
@@ -7798,7 +7798,7 @@
       <c r="O25" s="25"/>
       <c r="P25" s="25"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C26" s="26" t="s">
         <v>125</v>
       </c>
@@ -7826,12 +7826,12 @@
       <c r="O26" s="25"/>
       <c r="P26" s="25"/>
     </row>
-    <row r="28" spans="1:16" s="14" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="27" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="31" t="s">
         <v>137</v>
       </c>
@@ -7865,7 +7865,7 @@
       <c r="O29" s="28"/>
       <c r="P29" s="28"/>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="1" t="s">
         <v>63</v>
@@ -7897,7 +7897,7 @@
       <c r="O30" s="25"/>
       <c r="P30" s="25"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C31" s="26" t="s">
         <v>123</v>
       </c>
@@ -7925,7 +7925,7 @@
       <c r="O31" s="25"/>
       <c r="P31" s="25"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C32" s="26" t="s">
         <v>135</v>
       </c>
@@ -7953,7 +7953,7 @@
       <c r="O32" s="25"/>
       <c r="P32" s="25"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="26" t="s">
         <v>134</v>
       </c>
@@ -7981,7 +7981,7 @@
       <c r="O33" s="25"/>
       <c r="P33" s="25"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>107</v>
       </c>
@@ -8012,7 +8012,7 @@
       <c r="O34" s="25"/>
       <c r="P34" s="25"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="26" t="s">
         <v>123</v>
       </c>
@@ -8040,7 +8040,7 @@
       <c r="O35" s="25"/>
       <c r="P35" s="25"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C36" s="26" t="s">
         <v>135</v>
       </c>
@@ -8068,7 +8068,7 @@
       <c r="O36" s="25"/>
       <c r="P36" s="25"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C37" s="26" t="s">
         <v>134</v>
       </c>
@@ -8096,7 +8096,7 @@
       <c r="O37" s="25"/>
       <c r="P37" s="25"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>109</v>
       </c>
@@ -8127,7 +8127,7 @@
       <c r="O38" s="25"/>
       <c r="P38" s="25"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="26" t="s">
         <v>123</v>
       </c>
@@ -8155,7 +8155,7 @@
       <c r="O39" s="25"/>
       <c r="P39" s="25"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="26" t="s">
         <v>135</v>
       </c>
@@ -8183,7 +8183,7 @@
       <c r="O40" s="25"/>
       <c r="P40" s="25"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="26" t="s">
         <v>134</v>
       </c>
@@ -8211,7 +8211,7 @@
       <c r="O41" s="25"/>
       <c r="P41" s="25"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>110</v>
       </c>
@@ -8242,7 +8242,7 @@
       <c r="O42" s="25"/>
       <c r="P42" s="25"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="26" t="s">
         <v>123</v>
       </c>
@@ -8270,7 +8270,7 @@
       <c r="O43" s="25"/>
       <c r="P43" s="25"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="26" t="s">
         <v>135</v>
       </c>
@@ -8298,7 +8298,7 @@
       <c r="O44" s="25"/>
       <c r="P44" s="25"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="26" t="s">
         <v>134</v>
       </c>
@@ -8326,7 +8326,7 @@
       <c r="O45" s="25"/>
       <c r="P45" s="25"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>108</v>
       </c>
@@ -8357,7 +8357,7 @@
       <c r="O46" s="25"/>
       <c r="P46" s="25"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="26" t="s">
         <v>123</v>
       </c>
@@ -8385,7 +8385,7 @@
       <c r="O47" s="25"/>
       <c r="P47" s="25"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="26" t="s">
         <v>135</v>
       </c>
@@ -8413,7 +8413,7 @@
       <c r="O48" s="25"/>
       <c r="P48" s="25"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C49" s="26" t="s">
         <v>134</v>
       </c>
@@ -8441,7 +8441,7 @@
       <c r="O49" s="25"/>
       <c r="P49" s="25"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>112</v>
       </c>
@@ -8472,7 +8472,7 @@
       <c r="O50" s="25"/>
       <c r="P50" s="25"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C51" s="26" t="s">
         <v>123</v>
       </c>
@@ -8500,7 +8500,7 @@
       <c r="O51" s="25"/>
       <c r="P51" s="25"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C52" s="26" t="s">
         <v>135</v>
       </c>
@@ -8528,7 +8528,7 @@
       <c r="O52" s="25"/>
       <c r="P52" s="25"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C53" s="26" t="s">
         <v>134</v>
       </c>
@@ -8556,16 +8556,16 @@
       <c r="O53" s="25"/>
       <c r="P53" s="25"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C54" s="26"/>
       <c r="D54" s="26"/>
     </row>
-    <row r="55" spans="1:16" s="14" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="18" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="27" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="31" t="s">
         <v>64</v>
       </c>
@@ -8593,7 +8593,7 @@
       <c r="O56" s="28"/>
       <c r="P56" s="28"/>
     </row>
-    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="1" t="s">
         <v>113</v>
@@ -8619,7 +8619,7 @@
       <c r="O57" s="25"/>
       <c r="P57" s="25"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C58" s="26" t="s">
         <v>130</v>
       </c>
@@ -8641,7 +8641,7 @@
       <c r="O58" s="25"/>
       <c r="P58" s="25"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>114</v>
       </c>
@@ -8666,7 +8666,7 @@
       <c r="O59" s="25"/>
       <c r="P59" s="25"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C60" s="26" t="s">
         <v>130</v>
       </c>
@@ -8688,7 +8688,7 @@
       <c r="O60" s="25"/>
       <c r="P60" s="25"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>115</v>
       </c>
@@ -8713,7 +8713,7 @@
       <c r="O61" s="25"/>
       <c r="P61" s="25"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C62" s="26" t="s">
         <v>130</v>
       </c>
@@ -8735,16 +8735,16 @@
       <c r="O62" s="25"/>
       <c r="P62" s="25"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C63" s="26"/>
       <c r="D63" s="26"/>
     </row>
-    <row r="64" spans="1:16" s="14" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="18" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="27" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="31" t="s">
         <v>65</v>
       </c>
@@ -8778,7 +8778,7 @@
       <c r="O65" s="28"/>
       <c r="P65" s="28"/>
     </row>
-    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="51"/>
       <c r="B66" s="1" t="s">
         <v>90</v>
@@ -8810,7 +8810,7 @@
       <c r="O66" s="25"/>
       <c r="P66" s="25"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C67" s="26" t="s">
         <v>117</v>
       </c>
@@ -8838,7 +8838,7 @@
       <c r="O67" s="25"/>
       <c r="P67" s="25"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C68" s="26" t="s">
         <v>118</v>
       </c>
@@ -8866,7 +8866,7 @@
       <c r="O68" s="25"/>
       <c r="P68" s="25"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C69" s="26" t="s">
         <v>119</v>
       </c>
@@ -8894,7 +8894,7 @@
       <c r="O69" s="25"/>
       <c r="P69" s="25"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
         <v>91</v>
       </c>
@@ -8925,7 +8925,7 @@
       <c r="O70" s="25"/>
       <c r="P70" s="25"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C71" s="26" t="s">
         <v>117</v>
       </c>
@@ -8953,7 +8953,7 @@
       <c r="O71" s="25"/>
       <c r="P71" s="25"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C72" s="26" t="s">
         <v>118</v>
       </c>
@@ -8981,7 +8981,7 @@
       <c r="O72" s="25"/>
       <c r="P72" s="25"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C73" s="26" t="s">
         <v>119</v>
       </c>
@@ -9009,7 +9009,7 @@
       <c r="O73" s="25"/>
       <c r="P73" s="25"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
         <v>92</v>
       </c>
@@ -9040,7 +9040,7 @@
       <c r="O74" s="25"/>
       <c r="P74" s="25"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C75" s="26" t="s">
         <v>117</v>
       </c>
@@ -9068,7 +9068,7 @@
       <c r="O75" s="25"/>
       <c r="P75" s="25"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C76" s="26" t="s">
         <v>118</v>
       </c>
@@ -9096,7 +9096,7 @@
       <c r="O76" s="25"/>
       <c r="P76" s="25"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C77" s="26" t="s">
         <v>119</v>
       </c>
@@ -9124,7 +9124,7 @@
       <c r="O77" s="25"/>
       <c r="P77" s="25"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
         <v>94</v>
       </c>
@@ -9155,7 +9155,7 @@
       <c r="O78" s="25"/>
       <c r="P78" s="25"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C79" s="26" t="s">
         <v>117</v>
       </c>
@@ -9183,7 +9183,7 @@
       <c r="O79" s="25"/>
       <c r="P79" s="25"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C80" s="26" t="s">
         <v>118</v>
       </c>
@@ -9211,7 +9211,7 @@
       <c r="O80" s="25"/>
       <c r="P80" s="25"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C81" s="26" t="s">
         <v>119</v>
       </c>
@@ -9239,7 +9239,7 @@
       <c r="O81" s="25"/>
       <c r="P81" s="25"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
         <v>63</v>
       </c>
@@ -9270,7 +9270,7 @@
       <c r="O82" s="25"/>
       <c r="P82" s="25"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C83" s="26" t="s">
         <v>117</v>
       </c>
@@ -9298,7 +9298,7 @@
       <c r="O83" s="25"/>
       <c r="P83" s="25"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C84" s="26" t="s">
         <v>118</v>
       </c>
@@ -9326,7 +9326,7 @@
       <c r="O84" s="25"/>
       <c r="P84" s="25"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C85" s="26" t="s">
         <v>119</v>
       </c>
@@ -9354,7 +9354,7 @@
       <c r="O85" s="25"/>
       <c r="P85" s="25"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
         <v>107</v>
       </c>
@@ -9385,7 +9385,7 @@
       <c r="O86" s="25"/>
       <c r="P86" s="25"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C87" s="26" t="s">
         <v>117</v>
       </c>
@@ -9413,7 +9413,7 @@
       <c r="O87" s="25"/>
       <c r="P87" s="25"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C88" s="26" t="s">
         <v>118</v>
       </c>
@@ -9441,7 +9441,7 @@
       <c r="O88" s="25"/>
       <c r="P88" s="25"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C89" s="26" t="s">
         <v>119</v>
       </c>
@@ -9469,7 +9469,7 @@
       <c r="O89" s="25"/>
       <c r="P89" s="25"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
         <v>109</v>
       </c>
@@ -9500,7 +9500,7 @@
       <c r="O90" s="25"/>
       <c r="P90" s="25"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C91" s="26" t="s">
         <v>117</v>
       </c>
@@ -9528,7 +9528,7 @@
       <c r="O91" s="25"/>
       <c r="P91" s="25"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C92" s="26" t="s">
         <v>118</v>
       </c>
@@ -9556,7 +9556,7 @@
       <c r="O92" s="25"/>
       <c r="P92" s="25"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C93" s="26" t="s">
         <v>119</v>
       </c>
@@ -9584,7 +9584,7 @@
       <c r="O93" s="25"/>
       <c r="P93" s="25"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="1" t="s">
         <v>108</v>
       </c>
@@ -9615,7 +9615,7 @@
       <c r="O94" s="25"/>
       <c r="P94" s="25"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C95" s="26" t="s">
         <v>117</v>
       </c>
@@ -9643,7 +9643,7 @@
       <c r="O95" s="25"/>
       <c r="P95" s="25"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C96" s="26" t="s">
         <v>118</v>
       </c>
@@ -9671,7 +9671,7 @@
       <c r="O96" s="25"/>
       <c r="P96" s="25"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C97" s="26" t="s">
         <v>119</v>
       </c>
@@ -9699,7 +9699,7 @@
       <c r="O97" s="25"/>
       <c r="P97" s="25"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B98" s="1" t="s">
         <v>111</v>
       </c>
@@ -9730,7 +9730,7 @@
       <c r="O98" s="25"/>
       <c r="P98" s="25"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C99" s="26" t="s">
         <v>117</v>
       </c>
@@ -9758,7 +9758,7 @@
       <c r="O99" s="25"/>
       <c r="P99" s="25"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C100" s="26" t="s">
         <v>118</v>
       </c>
@@ -9786,7 +9786,7 @@
       <c r="O100" s="25"/>
       <c r="P100" s="25"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C101" s="26" t="s">
         <v>119</v>
       </c>
@@ -9814,12 +9814,12 @@
       <c r="O101" s="25"/>
       <c r="P101" s="25"/>
     </row>
-    <row r="103" spans="1:16" s="14" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="18" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="27" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="31" t="s">
         <v>63</v>
       </c>
@@ -9853,7 +9853,7 @@
       <c r="O104" s="28"/>
       <c r="P104" s="28"/>
     </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
       <c r="B105" s="27"/>
       <c r="C105" s="26" t="s">
@@ -9883,7 +9883,7 @@
       <c r="O105" s="25"/>
       <c r="P105" s="25"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C106" s="26" t="s">
         <v>117</v>
       </c>
@@ -9911,7 +9911,7 @@
       <c r="O106" s="25"/>
       <c r="P106" s="25"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C107" s="26" t="s">
         <v>118</v>
       </c>
@@ -9939,7 +9939,7 @@
       <c r="O107" s="25"/>
       <c r="P107" s="25"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C108" s="26" t="s">
         <v>119</v>
       </c>
@@ -9967,11 +9967,11 @@
       <c r="O108" s="25"/>
       <c r="P108" s="25"/>
     </row>
-    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="uj329D59x2FD/jFDDQohTMFhlS+O0sbDf+FkoqGbUULsTi5f08Uj6JMkP9onQZS/cguYWs12hkbOQQk5KeNHFQ==" saltValue="E6nitqj3faHq1ik0aJmWEg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5FccDBrXzVv/k2W9dY7zHKLg/Jb7UzSqrCCT1WNeilaTZ4TAe1nIiYpJYnVUM2p7Ee3KNmgquysCi7k4MCIKIg==" saltValue="pEB3vrLd0LgGIbk26JzROw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -9988,24 +9988,24 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.08203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="40" style="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.375" style="1" customWidth="1"/>
     <col min="8" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
         <v>6</v>
       </c>
@@ -10026,7 +10026,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>138</v>
       </c>
@@ -10046,7 +10046,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="6" t="s">
         <v>139</v>
@@ -10067,12 +10067,12 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>49</v>
       </c>
@@ -10092,7 +10092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>42</v>
       </c>
@@ -10112,7 +10112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>58</v>
       </c>
@@ -10132,7 +10132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -10140,12 +10140,12 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="3" t="s">
         <v>41</v>
@@ -10166,16 +10166,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="51" t="s">
         <v>137</v>
       </c>
@@ -10198,7 +10198,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="6" t="s">
         <v>145</v>
@@ -10219,7 +10219,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="51" t="s">
         <v>64</v>
       </c>
@@ -10242,13 +10242,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="43" t="s">
         <v>9</v>
       </c>
@@ -10262,7 +10262,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>30</v>
       </c>
@@ -10280,7 +10280,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EnQfqOS9Lr4bDpszgGFzxn/QcwCfjHDwZAAhZ6c5hZNDCTqCGYgWatX/6CSSi0ohoCtlkZt7e52BemZomV3a0g==" saltValue="2SEOQ7mjQQo0ijrtey1p9Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Gs9kmyW8t3K1YFOAiXiDDdzop5eECD32TKdgFc9P3V+4FBZCN3HRGIt2OhHFM9mJd59nkdqiaeSkF2Fu3w+rNA==" saltValue="mtB2wcblmlE2AaqMFnTMog==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -10298,7 +10298,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47" style="1" customWidth="1"/>
     <col min="2" max="6" width="14.5" style="1"/>
@@ -10307,7 +10307,7 @@
     <col min="9" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>25</v>
       </c>
@@ -10325,7 +10325,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>26</v>
       </c>
@@ -10345,7 +10345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
       <c r="B3" s="34" t="s">
         <v>148</v>
@@ -10363,7 +10363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
         <v>38</v>
       </c>
@@ -10383,7 +10383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34"/>
       <c r="B5" s="34" t="s">
         <v>148</v>
@@ -10401,7 +10401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
         <v>39</v>
       </c>
@@ -10421,7 +10421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="34"/>
       <c r="B7" s="34" t="s">
         <v>148</v>
@@ -10439,7 +10439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="34" t="s">
         <v>1</v>
       </c>
@@ -10459,7 +10459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="34"/>
       <c r="B9" s="34" t="s">
         <v>148</v>
@@ -10477,7 +10477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="34" t="s">
         <v>43</v>
       </c>
@@ -10497,7 +10497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="34"/>
       <c r="B11" s="34" t="s">
         <v>148</v>
@@ -10515,7 +10515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="34" t="s">
         <v>47</v>
       </c>
@@ -10535,7 +10535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="34"/>
       <c r="B13" s="34" t="s">
         <v>148</v>
@@ -10553,14 +10553,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="34"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="34"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Y8NW4c4CabDBqSG58pxfoxgjKjAXJuomA08V/ww6ao2j26RVKFu3WYYKNmdVDDAh4aRoSPQMTxiEy3GMaE6U/g==" saltValue="YXXfbXFmjQgc+U9ZRArypA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VK5qOe6KfQE3jeR6C6VJ/+bQLhB3KDGwais40cyOICErhfMdHLzKY+AA0uhYyRSTG6z8fd9e8RLVZGyyjkb4Ww==" saltValue="dinpuJuWQ/bc0/H8kS5/GA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -10577,15 +10577,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="53" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="13.5" style="1" customWidth="1"/>
     <col min="16" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="22" t="s">
@@ -10628,12 +10628,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="35" t="s">
         <v>29</v>
       </c>
@@ -10677,7 +10677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="35" t="s">
         <v>34</v>
       </c>
@@ -10721,7 +10721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="35" t="s">
         <v>35</v>
       </c>
@@ -10765,7 +10765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="35" t="s">
         <v>36</v>
       </c>
@@ -10809,7 +10809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
         <v>37</v>
       </c>
@@ -10853,7 +10853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="34" t="s">
         <v>38</v>
       </c>
@@ -10897,7 +10897,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="34" t="s">
         <v>39</v>
       </c>
@@ -10941,7 +10941,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="35" t="s">
         <v>1</v>
       </c>
@@ -10985,7 +10985,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
         <v>42</v>
       </c>
@@ -11029,7 +11029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="35" t="s">
         <v>43</v>
       </c>
@@ -11073,7 +11073,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="35" t="s">
         <v>46</v>
       </c>
@@ -11117,7 +11117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="35" t="s">
         <v>47</v>
       </c>
@@ -11161,13 +11161,13 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B16" s="35"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="34" t="s">
         <v>31</v>
       </c>
@@ -11211,7 +11211,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="34" t="s">
         <v>32</v>
       </c>
@@ -11255,7 +11255,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="34" t="s">
         <v>33</v>
       </c>
@@ -11299,7 +11299,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="34" t="s">
         <v>40</v>
       </c>
@@ -11343,20 +11343,20 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="26"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="26"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="26"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="26"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EcDxLXJTUcukkDdSvqRzjvNYkTgeWIliFIG5TVmIyStJf+kwgu2A2At6rNGM6vYfBcH5sAQWodwvCvW4ANFnhw==" saltValue="HTFBKq1G1NZ3xN9L9iwsWQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="e8FymRscV5Wt6GCj1xVdCJhYWUfJL/Zn35YHqtnfx9+tVKLdAkRbhOKJivXlwV8H44QvKGL5MlMTCu7H3ZtR4w==" saltValue="NzGJQK4xL0Vtpd8TsOLWEw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:O14">
     <sortCondition ref="B3:B14"/>
   </sortState>
